--- a/data/shopsendai79j.xlsx
+++ b/data/shopsendai79j.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\pydrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49D8D0E-6070-4F60-8DC4-EB3B50ED0136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{243361C4-61EF-4E34-A6B6-5EF3C7FFAA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="0" windowWidth="16200" windowHeight="12360" xr2:uid="{72814A3C-47EA-400D-89F3-0323FDA861D1}"/>
+    <workbookView xWindow="6840" yWindow="0" windowWidth="16200" windowHeight="12360" xr2:uid="{FEBD0C0F-AFA5-4515-AD1B-9BD1E583AC79}"/>
   </bookViews>
   <sheets>
     <sheet name="受注委託移動在庫生産照会" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10014" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="1769">
   <si>
     <t>№</t>
   </si>
@@ -19999,9 +19999,6 @@
     </r>
   </si>
   <si>
-    <t>受注</t>
-  </si>
-  <si>
     <t>葛西・久光</t>
   </si>
   <si>
@@ -20079,6 +20076,9 @@
     <t xml:space="preserve">NM236A     WO          </t>
   </si>
   <si>
+    <t>受注</t>
+  </si>
+  <si>
     <r>
       <t>細野</t>
     </r>
@@ -21440,14 +21440,21 @@
     <t>福田　元雄様</t>
   </si>
   <si>
-    <t xml:space="preserve">22021186-1 </t>
-  </si>
-  <si>
-    <t>権田　一郎</t>
-  </si>
-  <si>
-    <r>
-      <t>TriValue</t>
+    <t xml:space="preserve">22029289-1 </t>
+  </si>
+  <si>
+    <r>
+      <t>杉浦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21457,7 +21464,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>㈱　</t>
+      <t>吉彦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM103SO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用</t>
     </r>
     <r>
       <rPr>
@@ -21467,7 +21489,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>TV</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21477,12 +21499,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>木曾岬センター</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KX250AU2 WA CAITLIN</t>
+      <t>座ｶﾊﾞｰのみ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21492,7 +21519,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>　</t>
+      <t>ｼｬｰﾑ</t>
     </r>
     <r>
       <rPr>
@@ -21502,7 +21529,25 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">PEWTER </t>
+      <t>RE</t>
+    </r>
+  </si>
+  <si>
+    <t>未承認</t>
+  </si>
+  <si>
+    <r>
+      <t>杉浦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21512,15 +21557,28 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ｾﾐｱｰﾑﾁｪｱ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">KX250AU2   WA  97      </t>
-  </si>
-  <si>
-    <r>
-      <t>権田　一郎様　</t>
+      <t>吉彦様</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22021186-1 </t>
+  </si>
+  <si>
+    <t>権田　一郎</t>
+  </si>
+  <si>
+    <r>
+      <t>TriValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>㈱　</t>
     </r>
     <r>
       <rPr>
@@ -21530,7 +21588,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>6/10</t>
+      <t>TV</t>
     </r>
     <r>
       <rPr>
@@ -21540,7 +21598,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>【</t>
+      <t>木曾岬センター</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KX250AU2 WA CAITLIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
     </r>
     <r>
       <rPr>
@@ -21550,7 +21623,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>TV</t>
+      <t xml:space="preserve">PEWTER </t>
     </r>
     <r>
       <rPr>
@@ -21560,18 +21633,25 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">22028663-1 </t>
-  </si>
-  <si>
-    <t>坂　和典</t>
-  </si>
-  <si>
-    <r>
-      <t>TriValue</t>
+      <t>ｾﾐｱｰﾑﾁｪｱ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KX250AU2   WA  97      </t>
+  </si>
+  <si>
+    <r>
+      <t>権田　一郎様　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6/10</t>
     </r>
     <r>
       <rPr>
@@ -21581,7 +21661,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>㈱　</t>
+      <t>【</t>
     </r>
     <r>
       <rPr>
@@ -21601,12 +21681,18 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>神奈川センター</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HX251A UW </t>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22028663-1 </t>
+  </si>
+  <si>
+    <t>坂　和典</t>
+  </si>
+  <si>
+    <r>
+      <t>TriValue</t>
     </r>
     <r>
       <rPr>
@@ -21616,15 +21702,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ｾﾐｱｰﾑﾁｪｱ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">HX251A     UW          </t>
-  </si>
-  <si>
-    <r>
-      <t>坂　和典様　</t>
+      <t>㈱　</t>
     </r>
     <r>
       <rPr>
@@ -21634,7 +21712,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>6/11</t>
+      <t>TV</t>
     </r>
     <r>
       <rPr>
@@ -21644,7 +21722,30 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>　【</t>
+      <t>神奈川センター</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HX251A UW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｾﾐｱｰﾑﾁｪｱ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HX251A     UW          </t>
+  </si>
+  <si>
+    <r>
+      <t>坂　和典様　</t>
     </r>
     <r>
       <rPr>
@@ -21654,7 +21755,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>TV</t>
+      <t>6/11</t>
     </r>
     <r>
       <rPr>
@@ -21664,21 +21765,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">22025414-1 </t>
-  </si>
-  <si>
-    <t>後藤　真吾</t>
-  </si>
-  <si>
-    <t>後日入力</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KH281AM WO </t>
+      <t>　【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TV</t>
     </r>
     <r>
       <rPr>
@@ -21688,6 +21785,30 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22025414-1 </t>
+  </si>
+  <si>
+    <t>後藤　真吾</t>
+  </si>
+  <si>
+    <t>後日入力</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KH281AM WO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>ﾗｳﾝｼﾞﾁｪｱ</t>
     </r>
   </si>
@@ -22694,9 +22815,6 @@
       </rPr>
       <t>㎝</t>
     </r>
-  </si>
-  <si>
-    <t>未承認</t>
   </si>
   <si>
     <r>
@@ -23308,8 +23426,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009461C7-E77E-461A-9DBC-F11B8A221631}">
-  <dimension ref="A1:BB524"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3E4905-219F-488F-9CFC-799F34666547}">
+  <dimension ref="A1:BB525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -88774,7 +88892,7 @@
         <v>45022</v>
       </c>
       <c r="R476" s="4" t="s">
-        <v>1575</v>
+        <v>85</v>
       </c>
       <c r="S476" s="4" t="s">
         <v>153</v>
@@ -88794,9 +88912,6 @@
       <c r="AA476" s="1">
         <v>195267894533</v>
       </c>
-      <c r="AB476" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="AC476" s="1">
         <v>110</v>
       </c>
@@ -88840,10 +88955,10 @@
         <v>192</v>
       </c>
       <c r="AR476" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AS476" s="4" t="s">
         <v>1576</v>
-      </c>
-      <c r="AS476" s="4" t="s">
-        <v>1577</v>
       </c>
       <c r="AT476" s="1">
         <v>1119</v>
@@ -88870,7 +88985,7 @@
         <v>68</v>
       </c>
       <c r="BB476" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="477" spans="1:54" x14ac:dyDescent="0.25">
@@ -88878,13 +88993,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>148</v>
@@ -88899,10 +89014,10 @@
         <v>45073</v>
       </c>
       <c r="I477" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J477" s="3" t="s">
         <v>1581</v>
-      </c>
-      <c r="J477" s="3" t="s">
-        <v>1582</v>
       </c>
       <c r="K477" s="1">
         <v>1</v>
@@ -88926,10 +89041,13 @@
         <v>45050</v>
       </c>
       <c r="R477" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S477" s="4" t="s">
         <v>153</v>
+      </c>
+      <c r="T477" s="2">
+        <v>45065</v>
       </c>
       <c r="U477" s="4" t="s">
         <v>87</v>
@@ -89027,7 +89145,7 @@
         <v>55</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>148</v>
@@ -89069,7 +89187,7 @@
         <v>45055</v>
       </c>
       <c r="R478" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S478" s="4" t="s">
         <v>153</v>
@@ -89179,7 +89297,7 @@
         <v>55</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>148</v>
@@ -89221,7 +89339,7 @@
         <v>45055</v>
       </c>
       <c r="R479" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S479" s="4" t="s">
         <v>234</v>
@@ -89367,7 +89485,7 @@
         <v>45058</v>
       </c>
       <c r="R480" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S480" s="4" t="s">
         <v>153</v>
@@ -89513,7 +89631,7 @@
         <v>45059</v>
       </c>
       <c r="R481" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S481" s="4" t="s">
         <v>153</v>
@@ -89656,7 +89774,7 @@
         <v>45050</v>
       </c>
       <c r="R482" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S482" s="4" t="s">
         <v>153</v>
@@ -89799,7 +89917,7 @@
         <v>45057</v>
       </c>
       <c r="R483" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S483" s="4" t="s">
         <v>153</v>
@@ -89942,7 +90060,7 @@
         <v>45057</v>
       </c>
       <c r="R484" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S484" s="4" t="s">
         <v>153</v>
@@ -90088,7 +90206,7 @@
         <v>45057</v>
       </c>
       <c r="R485" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S485" s="4" t="s">
         <v>153</v>
@@ -90231,7 +90349,7 @@
         <v>45057</v>
       </c>
       <c r="R486" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S486" s="4" t="s">
         <v>153</v>
@@ -90374,7 +90492,7 @@
         <v>45044</v>
       </c>
       <c r="R487" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S487" s="4" t="s">
         <v>153</v>
@@ -90514,10 +90632,13 @@
         <v>45061</v>
       </c>
       <c r="R488" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S488" s="4" t="s">
         <v>153</v>
+      </c>
+      <c r="T488" s="2">
+        <v>45065</v>
       </c>
       <c r="U488" s="4" t="s">
         <v>20</v>
@@ -90654,7 +90775,7 @@
         <v>45061</v>
       </c>
       <c r="R489" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S489" s="4" t="s">
         <v>234</v>
@@ -90797,7 +90918,7 @@
         <v>45046</v>
       </c>
       <c r="R490" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S490" s="4" t="s">
         <v>153</v>
@@ -90943,7 +91064,7 @@
         <v>45046</v>
       </c>
       <c r="R491" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S491" s="4" t="s">
         <v>234</v>
@@ -91086,7 +91207,7 @@
         <v>45059</v>
       </c>
       <c r="R492" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S492" s="4" t="s">
         <v>153</v>
@@ -91229,7 +91350,7 @@
         <v>45043</v>
       </c>
       <c r="R493" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S493" s="4" t="s">
         <v>153</v>
@@ -91375,7 +91496,7 @@
         <v>45051</v>
       </c>
       <c r="R494" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S494" s="4" t="s">
         <v>153</v>
@@ -91518,7 +91639,7 @@
         <v>45051</v>
       </c>
       <c r="R495" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S495" s="4" t="s">
         <v>153</v>
@@ -91661,7 +91782,7 @@
         <v>45051</v>
       </c>
       <c r="R496" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S496" s="4" t="s">
         <v>153</v>
@@ -91804,7 +91925,7 @@
         <v>45062</v>
       </c>
       <c r="R497" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S497" s="4" t="s">
         <v>153</v>
@@ -91947,7 +92068,7 @@
         <v>45062</v>
       </c>
       <c r="R498" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S498" s="4" t="s">
         <v>153</v>
@@ -92090,7 +92211,7 @@
         <v>44948</v>
       </c>
       <c r="R499" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S499" s="4" t="s">
         <v>153</v>
@@ -92196,44 +92317,41 @@
       <c r="E500" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F500" s="1" t="s">
+      <c r="F500" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G500" s="2">
+        <v>45079</v>
+      </c>
+      <c r="I500" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="G500" s="2">
-        <v>45083</v>
-      </c>
-      <c r="H500" s="2">
-        <v>45084</v>
-      </c>
-      <c r="I500" s="1" t="s">
-        <v>1671</v>
-      </c>
       <c r="J500" s="3" t="s">
-        <v>1672</v>
+        <v>191</v>
       </c>
       <c r="K500" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L500" s="1">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="M500" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N500" s="3" t="s">
-        <v>1218</v>
+        <v>1625</v>
       </c>
       <c r="O500" s="1">
-        <v>107000</v>
+        <v>54000</v>
       </c>
       <c r="P500" s="1">
-        <v>214000</v>
+        <v>54000</v>
       </c>
       <c r="Q500" s="2">
-        <v>44992</v>
+        <v>45065</v>
       </c>
       <c r="R500" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S500" s="4" t="s">
         <v>153</v>
@@ -92242,13 +92360,13 @@
         <v>87</v>
       </c>
       <c r="X500" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Y500" s="4" t="s">
-        <v>1174</v>
+        <v>238</v>
       </c>
       <c r="AB500" s="4" t="s">
-        <v>27</v>
+        <v>1671</v>
       </c>
       <c r="AC500" s="1">
         <v>110</v>
@@ -92257,10 +92375,10 @@
         <v>110</v>
       </c>
       <c r="AE500" s="1">
-        <v>31501</v>
+        <v>0</v>
       </c>
       <c r="AF500" s="1">
-        <v>63002</v>
+        <v>0</v>
       </c>
       <c r="AG500" s="1">
         <v>9</v>
@@ -92287,16 +92405,16 @@
         <v>0</v>
       </c>
       <c r="AP500" s="1">
-        <v>127</v>
-      </c>
-      <c r="AQ500" s="1" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="AQ500" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="AR500" s="4" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AS500" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AT500" s="1">
         <v>1119</v>
@@ -92311,16 +92429,16 @@
         <v>92</v>
       </c>
       <c r="AX500" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY500" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ500" s="3" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="BA500" s="3" t="s">
-        <v>416</v>
+        <v>68</v>
       </c>
     </row>
     <row r="501" spans="1:53" x14ac:dyDescent="0.25">
@@ -92328,55 +92446,55 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F501" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G501" s="2">
+        <v>45083</v>
+      </c>
+      <c r="H501" s="2">
+        <v>45084</v>
+      </c>
+      <c r="I501" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="G501" s="2">
-        <v>45084</v>
-      </c>
-      <c r="H501" s="2">
-        <v>45086</v>
-      </c>
-      <c r="I501" s="1" t="s">
+      <c r="J501" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="J501" s="3" t="s">
-        <v>1678</v>
-      </c>
       <c r="K501" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L501" s="1">
-        <v>7.3</v>
+        <v>19.8</v>
       </c>
       <c r="M501" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N501" s="3" t="s">
-        <v>152</v>
+        <v>1218</v>
       </c>
       <c r="O501" s="1">
-        <v>66000</v>
+        <v>107000</v>
       </c>
       <c r="P501" s="1">
-        <v>66000</v>
+        <v>214000</v>
       </c>
       <c r="Q501" s="2">
-        <v>45059</v>
+        <v>44992</v>
       </c>
       <c r="R501" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S501" s="4" t="s">
         <v>153</v>
@@ -92385,10 +92503,10 @@
         <v>87</v>
       </c>
       <c r="X501" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y501" s="4" t="s">
-        <v>1089</v>
+        <v>1174</v>
       </c>
       <c r="AB501" s="4" t="s">
         <v>27</v>
@@ -92400,10 +92518,10 @@
         <v>110</v>
       </c>
       <c r="AE501" s="1">
-        <v>23775</v>
+        <v>31501</v>
       </c>
       <c r="AF501" s="1">
-        <v>23775</v>
+        <v>63002</v>
       </c>
       <c r="AG501" s="1">
         <v>9</v>
@@ -92430,16 +92548,16 @@
         <v>0</v>
       </c>
       <c r="AP501" s="1">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="AQ501" s="1" t="s">
-        <v>1047</v>
+        <v>178</v>
       </c>
       <c r="AR501" s="4" t="s">
         <v>167</v>
       </c>
       <c r="AS501" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="AT501" s="1">
         <v>1119</v>
@@ -92460,10 +92578,10 @@
         <v>93</v>
       </c>
       <c r="AZ501" s="3" t="s">
-        <v>679</v>
+        <v>181</v>
       </c>
       <c r="BA501" s="3" t="s">
-        <v>68</v>
+        <v>416</v>
       </c>
     </row>
     <row r="502" spans="1:53" x14ac:dyDescent="0.25">
@@ -92471,52 +92589,55 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F502" s="4" t="s">
+      <c r="F502" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G502" s="2">
+        <v>45084</v>
+      </c>
+      <c r="H502" s="2">
+        <v>45086</v>
+      </c>
+      <c r="I502" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="G502" s="2">
-        <v>45092</v>
-      </c>
-      <c r="I502" s="1" t="s">
+      <c r="J502" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="J502" s="3" t="s">
-        <v>1684</v>
-      </c>
       <c r="K502" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L502" s="1">
-        <v>17</v>
+        <v>7.3</v>
       </c>
       <c r="M502" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N502" s="3" t="s">
-        <v>1625</v>
+        <v>152</v>
       </c>
       <c r="O502" s="1">
-        <v>80000</v>
+        <v>66000</v>
       </c>
       <c r="P502" s="1">
-        <v>160000</v>
+        <v>66000</v>
       </c>
       <c r="Q502" s="2">
-        <v>45032</v>
+        <v>45059</v>
       </c>
       <c r="R502" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S502" s="4" t="s">
         <v>153</v>
@@ -92525,7 +92646,10 @@
         <v>87</v>
       </c>
       <c r="X502" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="Y502" s="4" t="s">
+        <v>1089</v>
       </c>
       <c r="AB502" s="4" t="s">
         <v>27</v>
@@ -92537,10 +92661,10 @@
         <v>110</v>
       </c>
       <c r="AE502" s="1">
-        <v>25951</v>
+        <v>23775</v>
       </c>
       <c r="AF502" s="1">
-        <v>51902</v>
+        <v>23775</v>
       </c>
       <c r="AG502" s="1">
         <v>9</v>
@@ -92567,16 +92691,16 @@
         <v>0</v>
       </c>
       <c r="AP502" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AQ502" s="1" t="s">
-        <v>534</v>
+        <v>1047</v>
       </c>
       <c r="AR502" s="4" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="AS502" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="AT502" s="1">
         <v>1119</v>
@@ -92591,13 +92715,13 @@
         <v>92</v>
       </c>
       <c r="AX502" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY502" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="AZ502" s="3" t="s">
-        <v>202</v>
+        <v>679</v>
       </c>
       <c r="BA502" s="3" t="s">
         <v>68</v>
@@ -92608,52 +92732,52 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F503" s="4" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="G503" s="2">
         <v>45092</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="J503" s="3" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="K503" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L503" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M503" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N503" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O503" s="1">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="P503" s="1">
-        <v>48000</v>
+        <v>160000</v>
       </c>
       <c r="Q503" s="2">
         <v>45032</v>
       </c>
       <c r="R503" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S503" s="4" t="s">
         <v>153</v>
@@ -92674,10 +92798,10 @@
         <v>110</v>
       </c>
       <c r="AE503" s="1">
-        <v>15860</v>
+        <v>25951</v>
       </c>
       <c r="AF503" s="1">
-        <v>15860</v>
+        <v>51902</v>
       </c>
       <c r="AG503" s="1">
         <v>9</v>
@@ -92713,7 +92837,7 @@
         <v>90</v>
       </c>
       <c r="AS503" s="4" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="AT503" s="1">
         <v>1119</v>
@@ -92722,16 +92846,16 @@
         <v>64</v>
       </c>
       <c r="AV503" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW503" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX503" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY503" s="4" t="s">
-        <v>826</v>
+        <v>201</v>
       </c>
       <c r="AZ503" s="3" t="s">
         <v>202</v>
@@ -92745,52 +92869,52 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="G504" s="2">
         <v>45092</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J504" s="3" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="K504" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L504" s="1">
+        <v>5</v>
+      </c>
+      <c r="M504" s="1">
         <v>1</v>
-      </c>
-      <c r="M504" s="1">
-        <v>2</v>
       </c>
       <c r="N504" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O504" s="1">
-        <v>25000</v>
+        <v>48000</v>
       </c>
       <c r="P504" s="1">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="Q504" s="2">
         <v>45032</v>
       </c>
       <c r="R504" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S504" s="4" t="s">
         <v>153</v>
@@ -92811,10 +92935,10 @@
         <v>110</v>
       </c>
       <c r="AE504" s="1">
-        <v>7563</v>
+        <v>15860</v>
       </c>
       <c r="AF504" s="1">
-        <v>15126</v>
+        <v>15860</v>
       </c>
       <c r="AG504" s="1">
         <v>9</v>
@@ -92850,7 +92974,7 @@
         <v>90</v>
       </c>
       <c r="AS504" s="4" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="AT504" s="1">
         <v>1119</v>
@@ -92859,16 +92983,16 @@
         <v>64</v>
       </c>
       <c r="AV504" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW504" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX504" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY504" s="4" t="s">
-        <v>132</v>
+        <v>826</v>
       </c>
       <c r="AZ504" s="3" t="s">
         <v>202</v>
@@ -92882,34 +93006,34 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F505" s="1" t="s">
-        <v>1694</v>
+      <c r="F505" s="4" t="s">
+        <v>1687</v>
       </c>
       <c r="G505" s="2">
-        <v>45112</v>
+        <v>45092</v>
       </c>
       <c r="I505" s="1" t="s">
         <v>1695</v>
       </c>
       <c r="J505" s="3" t="s">
-        <v>729</v>
+        <v>1696</v>
       </c>
       <c r="K505" s="1">
+        <v>2</v>
+      </c>
+      <c r="L505" s="1">
         <v>1</v>
-      </c>
-      <c r="L505" s="1">
-        <v>6.8</v>
       </c>
       <c r="M505" s="1">
         <v>2</v>
@@ -92918,16 +93042,16 @@
         <v>1625</v>
       </c>
       <c r="O505" s="1">
-        <v>222000</v>
+        <v>25000</v>
       </c>
       <c r="P505" s="1">
-        <v>222000</v>
+        <v>50000</v>
       </c>
       <c r="Q505" s="2">
-        <v>45059</v>
+        <v>45032</v>
       </c>
       <c r="R505" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S505" s="4" t="s">
         <v>153</v>
@@ -92936,10 +93060,7 @@
         <v>87</v>
       </c>
       <c r="X505" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y505" s="4" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AB505" s="4" t="s">
         <v>27</v>
@@ -92951,10 +93072,10 @@
         <v>110</v>
       </c>
       <c r="AE505" s="1">
-        <v>78002</v>
+        <v>7563</v>
       </c>
       <c r="AF505" s="1">
-        <v>78002</v>
+        <v>15126</v>
       </c>
       <c r="AG505" s="1">
         <v>9</v>
@@ -92981,16 +93102,16 @@
         <v>0</v>
       </c>
       <c r="AP505" s="1">
-        <v>64</v>
-      </c>
-      <c r="AQ505" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="AQ505" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="AR505" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AS505" s="4" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="AT505" s="1">
         <v>1119</v>
@@ -92999,19 +93120,19 @@
         <v>64</v>
       </c>
       <c r="AV505" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW505" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX505" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AY505" s="4" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="AZ505" s="3" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="BA505" s="3" t="s">
         <v>68</v>
@@ -93028,46 +93149,46 @@
         <v>55</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="G506" s="2">
         <v>45112</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="J506" s="3" t="s">
-        <v>1699</v>
+        <v>729</v>
       </c>
       <c r="K506" s="1">
         <v>1</v>
       </c>
       <c r="L506" s="1">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="M506" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N506" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O506" s="1">
-        <v>107000</v>
+        <v>222000</v>
       </c>
       <c r="P506" s="1">
-        <v>107000</v>
+        <v>222000</v>
       </c>
       <c r="Q506" s="2">
         <v>45059</v>
       </c>
       <c r="R506" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S506" s="4" t="s">
         <v>153</v>
@@ -93091,10 +93212,10 @@
         <v>110</v>
       </c>
       <c r="AE506" s="1">
-        <v>33442</v>
+        <v>78002</v>
       </c>
       <c r="AF506" s="1">
-        <v>33442</v>
+        <v>78002</v>
       </c>
       <c r="AG506" s="1">
         <v>9</v>
@@ -93121,16 +93242,16 @@
         <v>0</v>
       </c>
       <c r="AP506" s="1">
-        <v>127</v>
-      </c>
-      <c r="AQ506" s="1" t="s">
-        <v>178</v>
+        <v>64</v>
+      </c>
+      <c r="AQ506" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="AR506" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS506" s="4" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="AT506" s="1">
         <v>1119</v>
@@ -93139,22 +93260,22 @@
         <v>64</v>
       </c>
       <c r="AV506" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW506" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX506" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AY506" s="4" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="AZ506" s="3" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="BA506" s="3" t="s">
-        <v>1700</v>
+        <v>68</v>
       </c>
     </row>
     <row r="507" spans="1:53" x14ac:dyDescent="0.25">
@@ -93162,34 +93283,34 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="G507" s="2">
         <v>45112</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J507" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="K507" s="1">
         <v>1</v>
       </c>
       <c r="L507" s="1">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="M507" s="1">
         <v>1</v>
@@ -93198,16 +93319,16 @@
         <v>1625</v>
       </c>
       <c r="O507" s="1">
-        <v>96000</v>
+        <v>107000</v>
       </c>
       <c r="P507" s="1">
-        <v>96000</v>
+        <v>107000</v>
       </c>
       <c r="Q507" s="2">
         <v>45059</v>
       </c>
       <c r="R507" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S507" s="4" t="s">
         <v>153</v>
@@ -93231,10 +93352,10 @@
         <v>110</v>
       </c>
       <c r="AE507" s="1">
-        <v>30215</v>
+        <v>33442</v>
       </c>
       <c r="AF507" s="1">
-        <v>30215</v>
+        <v>33442</v>
       </c>
       <c r="AG507" s="1">
         <v>9</v>
@@ -93270,7 +93391,7 @@
         <v>76</v>
       </c>
       <c r="AS507" s="4" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="AT507" s="1">
         <v>1119</v>
@@ -93294,7 +93415,7 @@
         <v>210</v>
       </c>
       <c r="BA507" s="3" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="508" spans="1:53" x14ac:dyDescent="0.25">
@@ -93302,34 +93423,34 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="G508" s="2">
         <v>45112</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="J508" s="3" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="K508" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L508" s="1">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="M508" s="1">
         <v>1</v>
@@ -93338,16 +93459,16 @@
         <v>1625</v>
       </c>
       <c r="O508" s="1">
-        <v>69000</v>
+        <v>96000</v>
       </c>
       <c r="P508" s="1">
-        <v>138000</v>
+        <v>96000</v>
       </c>
       <c r="Q508" s="2">
         <v>45059</v>
       </c>
       <c r="R508" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S508" s="4" t="s">
         <v>153</v>
@@ -93371,10 +93492,10 @@
         <v>110</v>
       </c>
       <c r="AE508" s="1">
-        <v>21596</v>
+        <v>30215</v>
       </c>
       <c r="AF508" s="1">
-        <v>43192</v>
+        <v>30215</v>
       </c>
       <c r="AG508" s="1">
         <v>9</v>
@@ -93401,16 +93522,16 @@
         <v>0</v>
       </c>
       <c r="AP508" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ508" s="4" t="s">
-        <v>306</v>
+        <v>127</v>
+      </c>
+      <c r="AQ508" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="AR508" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS508" s="4" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="AT508" s="1">
         <v>1119</v>
@@ -93434,7 +93555,7 @@
         <v>210</v>
       </c>
       <c r="BA508" s="3" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="509" spans="1:53" x14ac:dyDescent="0.25">
@@ -93442,34 +93563,34 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="G509" s="2">
         <v>45112</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="J509" s="3" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="K509" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L509" s="1">
-        <v>36.5</v>
+        <v>9.1</v>
       </c>
       <c r="M509" s="1">
         <v>1</v>
@@ -93478,16 +93599,16 @@
         <v>1625</v>
       </c>
       <c r="O509" s="1">
-        <v>270000</v>
+        <v>69000</v>
       </c>
       <c r="P509" s="1">
-        <v>270000</v>
+        <v>138000</v>
       </c>
       <c r="Q509" s="2">
         <v>45059</v>
       </c>
       <c r="R509" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S509" s="4" t="s">
         <v>153</v>
@@ -93511,10 +93632,10 @@
         <v>110</v>
       </c>
       <c r="AE509" s="1">
-        <v>90770</v>
+        <v>21596</v>
       </c>
       <c r="AF509" s="1">
-        <v>90770</v>
+        <v>43192</v>
       </c>
       <c r="AG509" s="1">
         <v>9</v>
@@ -93541,16 +93662,16 @@
         <v>0</v>
       </c>
       <c r="AP509" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ509" s="4" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="AR509" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS509" s="4" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="AT509" s="1">
         <v>1119</v>
@@ -93565,16 +93686,16 @@
         <v>92</v>
       </c>
       <c r="AX509" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY509" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="AZ509" s="3" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="BA509" s="3" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="510" spans="1:53" x14ac:dyDescent="0.25">
@@ -93582,34 +93703,34 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="G510" s="2">
         <v>45112</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J510" s="3" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="K510" s="1">
         <v>1</v>
       </c>
       <c r="L510" s="1">
-        <v>5.4</v>
+        <v>36.5</v>
       </c>
       <c r="M510" s="1">
         <v>1</v>
@@ -93618,16 +93739,16 @@
         <v>1625</v>
       </c>
       <c r="O510" s="1">
-        <v>97000</v>
+        <v>270000</v>
       </c>
       <c r="P510" s="1">
-        <v>97000</v>
+        <v>270000</v>
       </c>
       <c r="Q510" s="2">
         <v>45059</v>
       </c>
       <c r="R510" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S510" s="4" t="s">
         <v>153</v>
@@ -93651,10 +93772,10 @@
         <v>110</v>
       </c>
       <c r="AE510" s="1">
-        <v>32514</v>
+        <v>90770</v>
       </c>
       <c r="AF510" s="1">
-        <v>32514</v>
+        <v>90770</v>
       </c>
       <c r="AG510" s="1">
         <v>9</v>
@@ -93690,7 +93811,7 @@
         <v>76</v>
       </c>
       <c r="AS510" s="4" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="AT510" s="1">
         <v>1119</v>
@@ -93714,7 +93835,7 @@
         <v>94</v>
       </c>
       <c r="BA510" s="3" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="511" spans="1:53" x14ac:dyDescent="0.25">
@@ -93722,34 +93843,34 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="G511" s="2">
         <v>45112</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="J511" s="3" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="K511" s="1">
         <v>1</v>
       </c>
       <c r="L511" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="M511" s="1">
         <v>1</v>
@@ -93758,16 +93879,16 @@
         <v>1625</v>
       </c>
       <c r="O511" s="1">
-        <v>64000</v>
+        <v>97000</v>
       </c>
       <c r="P511" s="1">
-        <v>64000</v>
+        <v>97000</v>
       </c>
       <c r="Q511" s="2">
         <v>45059</v>
       </c>
       <c r="R511" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S511" s="4" t="s">
         <v>153</v>
@@ -93791,10 +93912,10 @@
         <v>110</v>
       </c>
       <c r="AE511" s="1">
-        <v>21072</v>
+        <v>32514</v>
       </c>
       <c r="AF511" s="1">
-        <v>21072</v>
+        <v>32514</v>
       </c>
       <c r="AG511" s="1">
         <v>9</v>
@@ -93830,7 +93951,7 @@
         <v>76</v>
       </c>
       <c r="AS511" s="4" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="AT511" s="1">
         <v>1119</v>
@@ -93839,22 +93960,22 @@
         <v>64</v>
       </c>
       <c r="AV511" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW511" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX511" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY511" s="4" t="s">
-        <v>826</v>
+        <v>201</v>
       </c>
       <c r="AZ511" s="3" t="s">
         <v>94</v>
       </c>
       <c r="BA511" s="3" t="s">
-        <v>68</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="512" spans="1:53" x14ac:dyDescent="0.25">
@@ -93862,52 +93983,52 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="G512" s="2">
         <v>45112</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="J512" s="3" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="K512" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L512" s="1">
-        <v>3.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M512" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N512" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O512" s="1">
-        <v>25000</v>
+        <v>64000</v>
       </c>
       <c r="P512" s="1">
-        <v>50000</v>
+        <v>64000</v>
       </c>
       <c r="Q512" s="2">
         <v>45059</v>
       </c>
       <c r="R512" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S512" s="4" t="s">
         <v>153</v>
@@ -93931,10 +94052,10 @@
         <v>110</v>
       </c>
       <c r="AE512" s="1">
-        <v>9032</v>
+        <v>21072</v>
       </c>
       <c r="AF512" s="1">
-        <v>18064</v>
+        <v>21072</v>
       </c>
       <c r="AG512" s="1">
         <v>9</v>
@@ -93970,7 +94091,7 @@
         <v>76</v>
       </c>
       <c r="AS512" s="4" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="AT512" s="1">
         <v>1119</v>
@@ -93979,22 +94100,22 @@
         <v>64</v>
       </c>
       <c r="AV512" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW512" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX512" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY512" s="4" t="s">
-        <v>194</v>
+        <v>826</v>
       </c>
       <c r="AZ512" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="BA512" s="3" t="s">
-        <v>1707</v>
+        <v>68</v>
       </c>
     </row>
     <row r="513" spans="1:54" x14ac:dyDescent="0.25">
@@ -94002,34 +94123,34 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>863</v>
+        <v>1698</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F513" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>1699</v>
       </c>
       <c r="G513" s="2">
-        <v>45170</v>
+        <v>45112</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>618</v>
+        <v>1724</v>
       </c>
       <c r="J513" s="3" t="s">
-        <v>619</v>
+        <v>1725</v>
       </c>
       <c r="K513" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L513" s="1">
-        <v>8.8000000000000007</v>
+        <v>3.8</v>
       </c>
       <c r="M513" s="1">
         <v>2</v>
@@ -94038,16 +94159,16 @@
         <v>1625</v>
       </c>
       <c r="O513" s="1">
-        <v>243000</v>
+        <v>25000</v>
       </c>
       <c r="P513" s="1">
-        <v>243000</v>
+        <v>50000</v>
       </c>
       <c r="Q513" s="2">
-        <v>44934</v>
+        <v>45059</v>
       </c>
       <c r="R513" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S513" s="4" t="s">
         <v>153</v>
@@ -94056,10 +94177,10 @@
         <v>87</v>
       </c>
       <c r="X513" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y513" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AB513" s="4" t="s">
         <v>27</v>
@@ -94071,10 +94192,10 @@
         <v>110</v>
       </c>
       <c r="AE513" s="1">
-        <v>59169</v>
+        <v>9032</v>
       </c>
       <c r="AF513" s="1">
-        <v>59169</v>
+        <v>18064</v>
       </c>
       <c r="AG513" s="1">
         <v>9</v>
@@ -94101,16 +94222,16 @@
         <v>0</v>
       </c>
       <c r="AP513" s="1">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="AQ513" s="4" t="s">
-        <v>620</v>
+        <v>89</v>
       </c>
       <c r="AR513" s="4" t="s">
-        <v>1722</v>
+        <v>76</v>
       </c>
       <c r="AS513" s="4" t="s">
-        <v>1723</v>
+        <v>1701</v>
       </c>
       <c r="AT513" s="1">
         <v>1119</v>
@@ -94119,22 +94240,22 @@
         <v>64</v>
       </c>
       <c r="AV513" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW513" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX513" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AY513" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="AZ513" s="3" t="s">
-        <v>415</v>
+        <v>67</v>
       </c>
       <c r="BA513" s="3" t="s">
-        <v>68</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="514" spans="1:54" x14ac:dyDescent="0.25">
@@ -94142,7 +94263,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>55</v>
@@ -94160,34 +94281,34 @@
         <v>45170</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>1725</v>
+        <v>618</v>
       </c>
       <c r="J514" s="3" t="s">
-        <v>1726</v>
+        <v>619</v>
       </c>
       <c r="K514" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L514" s="1">
-        <v>48.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M514" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N514" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O514" s="1">
-        <v>83000</v>
+        <v>243000</v>
       </c>
       <c r="P514" s="1">
-        <v>498000</v>
+        <v>243000</v>
       </c>
       <c r="Q514" s="2">
         <v>44934</v>
       </c>
       <c r="R514" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S514" s="4" t="s">
         <v>153</v>
@@ -94211,10 +94332,10 @@
         <v>110</v>
       </c>
       <c r="AE514" s="1">
-        <v>19330</v>
+        <v>59169</v>
       </c>
       <c r="AF514" s="1">
-        <v>115980</v>
+        <v>59169</v>
       </c>
       <c r="AG514" s="1">
         <v>9</v>
@@ -94241,16 +94362,16 @@
         <v>0</v>
       </c>
       <c r="AP514" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ514" s="1" t="s">
-        <v>264</v>
+        <v>167</v>
+      </c>
+      <c r="AQ514" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="AR514" s="4" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="AS514" s="4" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="AT514" s="1">
         <v>1119</v>
@@ -94259,19 +94380,19 @@
         <v>64</v>
       </c>
       <c r="AV514" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW514" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX514" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AY514" s="4" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="AZ514" s="3" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="BA514" s="3" t="s">
         <v>68</v>
@@ -94282,7 +94403,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>55</v>
@@ -94300,34 +94421,34 @@
         <v>45170</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="J515" s="3" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="K515" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L515" s="1">
-        <v>38.4</v>
+        <v>48.6</v>
       </c>
       <c r="M515" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N515" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O515" s="1">
-        <v>435000</v>
+        <v>83000</v>
       </c>
       <c r="P515" s="1">
-        <v>435000</v>
+        <v>498000</v>
       </c>
       <c r="Q515" s="2">
         <v>44934</v>
       </c>
       <c r="R515" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S515" s="4" t="s">
         <v>153</v>
@@ -94351,10 +94472,10 @@
         <v>110</v>
       </c>
       <c r="AE515" s="1">
-        <v>133098</v>
+        <v>19330</v>
       </c>
       <c r="AF515" s="1">
-        <v>133098</v>
+        <v>115980</v>
       </c>
       <c r="AG515" s="1">
         <v>9</v>
@@ -94387,10 +94508,10 @@
         <v>264</v>
       </c>
       <c r="AR515" s="4" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="AS515" s="4" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="AT515" s="1">
         <v>1119</v>
@@ -94405,16 +94526,16 @@
         <v>92</v>
       </c>
       <c r="AX515" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY515" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="AZ515" s="3" t="s">
         <v>202</v>
       </c>
       <c r="BA515" s="3" t="s">
-        <v>1730</v>
+        <v>68</v>
       </c>
     </row>
     <row r="516" spans="1:54" x14ac:dyDescent="0.25">
@@ -94422,7 +94543,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>55</v>
@@ -94440,16 +94561,16 @@
         <v>45170</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J516" s="3" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="K516" s="1">
         <v>1</v>
       </c>
       <c r="L516" s="1">
-        <v>3</v>
+        <v>38.4</v>
       </c>
       <c r="M516" s="1">
         <v>1</v>
@@ -94458,16 +94579,16 @@
         <v>1625</v>
       </c>
       <c r="O516" s="1">
-        <v>66000</v>
+        <v>435000</v>
       </c>
       <c r="P516" s="1">
-        <v>66000</v>
+        <v>435000</v>
       </c>
       <c r="Q516" s="2">
         <v>44934</v>
       </c>
       <c r="R516" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S516" s="4" t="s">
         <v>153</v>
@@ -94491,10 +94612,10 @@
         <v>110</v>
       </c>
       <c r="AE516" s="1">
-        <v>20982</v>
+        <v>133098</v>
       </c>
       <c r="AF516" s="1">
-        <v>20982</v>
+        <v>133098</v>
       </c>
       <c r="AG516" s="1">
         <v>9</v>
@@ -94521,16 +94642,16 @@
         <v>0</v>
       </c>
       <c r="AP516" s="1">
-        <v>46</v>
-      </c>
-      <c r="AQ516" s="4" t="s">
-        <v>776</v>
+        <v>78</v>
+      </c>
+      <c r="AQ516" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR516" s="4" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="AS516" s="4" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="AT516" s="1">
         <v>1119</v>
@@ -94545,16 +94666,16 @@
         <v>92</v>
       </c>
       <c r="AX516" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY516" s="4" t="s">
-        <v>826</v>
+        <v>201</v>
       </c>
       <c r="AZ516" s="3" t="s">
         <v>202</v>
       </c>
       <c r="BA516" s="3" t="s">
-        <v>68</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="517" spans="1:54" x14ac:dyDescent="0.25">
@@ -94562,7 +94683,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>55</v>
@@ -94580,16 +94701,16 @@
         <v>45170</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="J517" s="3" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="K517" s="1">
         <v>1</v>
       </c>
       <c r="L517" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M517" s="1">
         <v>1</v>
@@ -94598,16 +94719,16 @@
         <v>1625</v>
       </c>
       <c r="O517" s="1">
-        <v>102000</v>
+        <v>66000</v>
       </c>
       <c r="P517" s="1">
-        <v>102000</v>
+        <v>66000</v>
       </c>
       <c r="Q517" s="2">
         <v>44934</v>
       </c>
       <c r="R517" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S517" s="4" t="s">
         <v>153</v>
@@ -94631,10 +94752,10 @@
         <v>110</v>
       </c>
       <c r="AE517" s="1">
-        <v>30100</v>
+        <v>20982</v>
       </c>
       <c r="AF517" s="1">
-        <v>30100</v>
+        <v>20982</v>
       </c>
       <c r="AG517" s="1">
         <v>9</v>
@@ -94661,16 +94782,16 @@
         <v>0</v>
       </c>
       <c r="AP517" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ517" s="1" t="s">
-        <v>264</v>
+        <v>46</v>
+      </c>
+      <c r="AQ517" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="AR517" s="4" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="AS517" s="4" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="AT517" s="1">
         <v>1119</v>
@@ -94679,16 +94800,16 @@
         <v>64</v>
       </c>
       <c r="AV517" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW517" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX517" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY517" s="4" t="s">
-        <v>180</v>
+        <v>826</v>
       </c>
       <c r="AZ517" s="3" t="s">
         <v>202</v>
@@ -94702,19 +94823,19 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>1738</v>
+        <v>863</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F518" s="4" t="s">
-        <v>1739</v>
+        <v>149</v>
       </c>
       <c r="G518" s="2">
         <v>45170</v>
@@ -94729,7 +94850,7 @@
         <v>1</v>
       </c>
       <c r="L518" s="1">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="M518" s="1">
         <v>1</v>
@@ -94738,16 +94859,16 @@
         <v>1625</v>
       </c>
       <c r="O518" s="1">
-        <v>70000</v>
+        <v>102000</v>
       </c>
       <c r="P518" s="1">
-        <v>70000</v>
+        <v>102000</v>
       </c>
       <c r="Q518" s="2">
-        <v>44984</v>
+        <v>44934</v>
       </c>
       <c r="R518" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S518" s="4" t="s">
         <v>153</v>
@@ -94756,7 +94877,10 @@
         <v>87</v>
       </c>
       <c r="X518" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y518" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB518" s="4" t="s">
         <v>27</v>
@@ -94768,10 +94892,10 @@
         <v>110</v>
       </c>
       <c r="AE518" s="1">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="AF518" s="1">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="AG518" s="1">
         <v>9</v>
@@ -94798,16 +94922,16 @@
         <v>0</v>
       </c>
       <c r="AP518" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ518" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="AQ518" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR518" s="4" t="s">
-        <v>90</v>
+        <v>1727</v>
       </c>
       <c r="AS518" s="4" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="AT518" s="1">
         <v>1119</v>
@@ -94816,22 +94940,22 @@
         <v>64</v>
       </c>
       <c r="AV518" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW518" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX518" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY518" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AZ518" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="BA518" s="3" t="s">
-        <v>1743</v>
+        <v>68</v>
       </c>
     </row>
     <row r="519" spans="1:54" x14ac:dyDescent="0.25">
@@ -94839,52 +94963,52 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E519" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F519" s="4" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G519" s="2">
+        <v>45170</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J519" s="3" t="s">
         <v>1746</v>
       </c>
-      <c r="G519" s="2">
-        <v>45173</v>
-      </c>
-      <c r="I519" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="J519" s="3" t="s">
-        <v>1726</v>
-      </c>
       <c r="K519" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L519" s="1">
-        <v>16.2</v>
+        <v>6</v>
       </c>
       <c r="M519" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N519" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O519" s="1">
-        <v>83000</v>
+        <v>70000</v>
       </c>
       <c r="P519" s="1">
-        <v>166000</v>
+        <v>70000</v>
       </c>
       <c r="Q519" s="2">
-        <v>45057</v>
+        <v>44984</v>
       </c>
       <c r="R519" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S519" s="4" t="s">
         <v>153</v>
@@ -94896,7 +95020,7 @@
         <v>0</v>
       </c>
       <c r="AB519" s="4" t="s">
-        <v>1748</v>
+        <v>27</v>
       </c>
       <c r="AC519" s="1">
         <v>110</v>
@@ -94905,10 +95029,10 @@
         <v>110</v>
       </c>
       <c r="AE519" s="1">
-        <v>19330</v>
+        <v>0</v>
       </c>
       <c r="AF519" s="1">
-        <v>38660</v>
+        <v>0</v>
       </c>
       <c r="AG519" s="1">
         <v>9</v>
@@ -94935,16 +95059,16 @@
         <v>0</v>
       </c>
       <c r="AP519" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ519" s="1" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="AQ519" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AR519" s="4" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="AS519" s="4" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="AT519" s="1">
         <v>1119</v>
@@ -94959,19 +95083,16 @@
         <v>92</v>
       </c>
       <c r="AX519" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY519" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ519" s="3" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="BA519" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB519" s="3" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="520" spans="1:54" x14ac:dyDescent="0.25">
@@ -94979,19 +95100,19 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="E520" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F520" s="4" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="G520" s="2">
         <v>45173</v>
@@ -95000,31 +95121,31 @@
         <v>1752</v>
       </c>
       <c r="J520" s="3" t="s">
-        <v>1753</v>
+        <v>1731</v>
       </c>
       <c r="K520" s="1">
         <v>2</v>
       </c>
       <c r="L520" s="1">
-        <v>9.1</v>
+        <v>16.2</v>
       </c>
       <c r="M520" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N520" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O520" s="1">
-        <v>68000</v>
+        <v>83000</v>
       </c>
       <c r="P520" s="1">
-        <v>136000</v>
+        <v>166000</v>
       </c>
       <c r="Q520" s="2">
         <v>45057</v>
       </c>
       <c r="R520" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S520" s="4" t="s">
         <v>153</v>
@@ -95036,7 +95157,7 @@
         <v>0</v>
       </c>
       <c r="AB520" s="4" t="s">
-        <v>1748</v>
+        <v>1671</v>
       </c>
       <c r="AC520" s="1">
         <v>110</v>
@@ -95045,10 +95166,10 @@
         <v>110</v>
       </c>
       <c r="AE520" s="1">
-        <v>17669</v>
+        <v>19330</v>
       </c>
       <c r="AF520" s="1">
-        <v>35338</v>
+        <v>38660</v>
       </c>
       <c r="AG520" s="1">
         <v>9</v>
@@ -95075,16 +95196,16 @@
         <v>0</v>
       </c>
       <c r="AP520" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ520" s="4" t="s">
-        <v>306</v>
+        <v>78</v>
+      </c>
+      <c r="AQ520" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR520" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS520" s="4" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AT520" s="1">
         <v>1119</v>
@@ -95125,13 +95246,13 @@
         <v>55</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="E521" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F521" s="4" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="G521" s="2">
         <v>45173</v>
@@ -95143,10 +95264,10 @@
         <v>1757</v>
       </c>
       <c r="K521" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L521" s="1">
-        <v>2.2000000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="M521" s="1">
         <v>1</v>
@@ -95155,16 +95276,16 @@
         <v>1625</v>
       </c>
       <c r="O521" s="1">
-        <v>34000</v>
+        <v>68000</v>
       </c>
       <c r="P521" s="1">
-        <v>34000</v>
+        <v>136000</v>
       </c>
       <c r="Q521" s="2">
         <v>45057</v>
       </c>
       <c r="R521" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S521" s="4" t="s">
         <v>153</v>
@@ -95176,7 +95297,7 @@
         <v>0</v>
       </c>
       <c r="AB521" s="4" t="s">
-        <v>1748</v>
+        <v>1671</v>
       </c>
       <c r="AC521" s="1">
         <v>110</v>
@@ -95185,10 +95306,10 @@
         <v>110</v>
       </c>
       <c r="AE521" s="1">
-        <v>7184</v>
+        <v>17669</v>
       </c>
       <c r="AF521" s="1">
-        <v>7184</v>
+        <v>35338</v>
       </c>
       <c r="AG521" s="1">
         <v>9</v>
@@ -95215,16 +95336,16 @@
         <v>0</v>
       </c>
       <c r="AP521" s="1">
-        <v>138</v>
-      </c>
-      <c r="AQ521" s="1" t="s">
-        <v>413</v>
+        <v>4</v>
+      </c>
+      <c r="AQ521" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AR521" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS521" s="4" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AT521" s="1">
         <v>1119</v>
@@ -95239,13 +95360,13 @@
         <v>92</v>
       </c>
       <c r="AX521" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY521" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AZ521" s="3" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="BA521" s="3" t="s">
         <v>68</v>
@@ -95265,49 +95386,49 @@
         <v>55</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F522" s="4" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="G522" s="2">
         <v>45173</v>
       </c>
-      <c r="I522" s="4" t="s">
+      <c r="I522" s="1" t="s">
         <v>1760</v>
       </c>
       <c r="J522" s="3" t="s">
-        <v>114</v>
+        <v>1761</v>
       </c>
       <c r="K522" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L522" s="1">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M522" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N522" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O522" s="1">
-        <v>1900</v>
+        <v>34000</v>
       </c>
       <c r="P522" s="1">
-        <v>9500</v>
+        <v>34000</v>
       </c>
       <c r="Q522" s="2">
         <v>45057</v>
       </c>
       <c r="R522" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S522" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="U522" s="4" t="s">
         <v>87</v>
@@ -95316,7 +95437,7 @@
         <v>0</v>
       </c>
       <c r="AB522" s="4" t="s">
-        <v>1748</v>
+        <v>1671</v>
       </c>
       <c r="AC522" s="1">
         <v>110</v>
@@ -95325,10 +95446,10 @@
         <v>110</v>
       </c>
       <c r="AE522" s="1">
-        <v>0</v>
+        <v>7184</v>
       </c>
       <c r="AF522" s="1">
-        <v>0</v>
+        <v>7184</v>
       </c>
       <c r="AG522" s="1">
         <v>9</v>
@@ -95355,16 +95476,16 @@
         <v>0</v>
       </c>
       <c r="AP522" s="1">
-        <v>92</v>
-      </c>
-      <c r="AQ522" s="4" t="s">
-        <v>65</v>
+        <v>138</v>
+      </c>
+      <c r="AQ522" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="AR522" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS522" s="4" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AT522" s="1">
         <v>1119</v>
@@ -95373,22 +95494,25 @@
         <v>64</v>
       </c>
       <c r="AV522" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW522" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AX522" s="1">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AY522" s="4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AZ522" s="3" t="s">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="BA522" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="BB522" s="3" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="523" spans="1:54" x14ac:dyDescent="0.25">
@@ -95396,55 +95520,55 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F523" s="4" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="G523" s="2">
         <v>45173</v>
       </c>
-      <c r="I523" s="1" t="s">
-        <v>1762</v>
+      <c r="I523" s="4" t="s">
+        <v>1764</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="K523" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L523" s="1">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="M523" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N523" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O523" s="1">
-        <v>204000</v>
+        <v>1900</v>
       </c>
       <c r="P523" s="1">
-        <v>204000</v>
+        <v>9500</v>
       </c>
       <c r="Q523" s="2">
         <v>45057</v>
       </c>
       <c r="R523" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S523" s="4" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="U523" s="4" t="s">
         <v>87</v>
@@ -95453,19 +95577,19 @@
         <v>0</v>
       </c>
       <c r="AB523" s="4" t="s">
-        <v>1748</v>
+        <v>1671</v>
       </c>
       <c r="AC523" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AD523" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AE523" s="1">
-        <v>55491</v>
+        <v>0</v>
       </c>
       <c r="AF523" s="1">
-        <v>55491</v>
+        <v>0</v>
       </c>
       <c r="AG523" s="1">
         <v>9</v>
@@ -95492,16 +95616,16 @@
         <v>0</v>
       </c>
       <c r="AP523" s="1">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="AQ523" s="4" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="AR523" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS523" s="4" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AT523" s="1">
         <v>1119</v>
@@ -95510,25 +95634,22 @@
         <v>64</v>
       </c>
       <c r="AV523" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW523" s="4" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="AX523" s="1">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="AY523" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="AZ523" s="3" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="BA523" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="BB523" s="3" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="524" spans="1:54" x14ac:dyDescent="0.25">
@@ -95536,55 +95657,55 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="G524" s="2">
         <v>45173</v>
       </c>
-      <c r="I524" s="4" t="s">
-        <v>609</v>
+      <c r="I524" s="1" t="s">
+        <v>1766</v>
       </c>
       <c r="J524" s="3" t="s">
-        <v>800</v>
+        <v>278</v>
       </c>
       <c r="K524" s="1">
         <v>1</v>
       </c>
       <c r="L524" s="1">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="M524" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N524" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="O524" s="1">
-        <v>17000</v>
+        <v>204000</v>
       </c>
       <c r="P524" s="1">
-        <v>17000</v>
+        <v>204000</v>
       </c>
       <c r="Q524" s="2">
         <v>45057</v>
       </c>
       <c r="R524" s="4" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="S524" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="U524" s="4" t="s">
         <v>87</v>
@@ -95593,7 +95714,7 @@
         <v>0</v>
       </c>
       <c r="AB524" s="4" t="s">
-        <v>1748</v>
+        <v>1671</v>
       </c>
       <c r="AC524" s="1">
         <v>510</v>
@@ -95602,10 +95723,10 @@
         <v>510</v>
       </c>
       <c r="AE524" s="1">
-        <v>0</v>
+        <v>55491</v>
       </c>
       <c r="AF524" s="1">
-        <v>0</v>
+        <v>55491</v>
       </c>
       <c r="AG524" s="1">
         <v>9</v>
@@ -95632,16 +95753,16 @@
         <v>0</v>
       </c>
       <c r="AP524" s="1">
-        <v>992</v>
+        <v>180</v>
       </c>
       <c r="AQ524" s="4" t="s">
-        <v>802</v>
+        <v>279</v>
       </c>
       <c r="AR524" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS524" s="4" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AT524" s="1">
         <v>1119</v>
@@ -95650,21 +95771,161 @@
         <v>64</v>
       </c>
       <c r="AV524" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW524" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX524" s="1">
+        <v>22</v>
+      </c>
+      <c r="AY524" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ524" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA524" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB524" s="3" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="525" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F525" s="4" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G525" s="2">
+        <v>45173</v>
+      </c>
+      <c r="I525" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="J525" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="K525" s="1">
+        <v>1</v>
+      </c>
+      <c r="L525" s="1">
+        <v>0</v>
+      </c>
+      <c r="M525" s="1">
+        <v>0</v>
+      </c>
+      <c r="N525" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="O525" s="1">
+        <v>17000</v>
+      </c>
+      <c r="P525" s="1">
+        <v>17000</v>
+      </c>
+      <c r="Q525" s="2">
+        <v>45057</v>
+      </c>
+      <c r="R525" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="S525" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U525" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB525" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AC525" s="1">
+        <v>510</v>
+      </c>
+      <c r="AD525" s="1">
+        <v>510</v>
+      </c>
+      <c r="AE525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG525" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH525" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI525" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ525" s="1">
+        <v>901</v>
+      </c>
+      <c r="AK525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP525" s="1">
+        <v>992</v>
+      </c>
+      <c r="AQ525" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="AR525" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS525" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="AT525" s="1">
+        <v>1119</v>
+      </c>
+      <c r="AU525" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV525" s="1">
         <v>2</v>
       </c>
-      <c r="AW524" s="4" t="s">
+      <c r="AW525" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AX524" s="1">
+      <c r="AX525" s="1">
         <v>99</v>
       </c>
-      <c r="AY524" s="4" t="s">
+      <c r="AY525" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AZ524" s="3" t="s">
+      <c r="AZ525" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BA524" s="3" t="s">
+      <c r="BA525" s="3" t="s">
         <v>68</v>
       </c>
     </row>

--- a/data/shopsendai79j.xlsx
+++ b/data/shopsendai79j.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\pydrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243361C4-61EF-4E34-A6B6-5EF3C7FFAA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D918E484-E13F-4808-ACAD-8A2A6A381A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="0" windowWidth="16200" windowHeight="12360" xr2:uid="{FEBD0C0F-AFA5-4515-AD1B-9BD1E583AC79}"/>
+    <workbookView xWindow="6840" yWindow="0" windowWidth="16200" windowHeight="12360" xr2:uid="{F3DC76A7-D804-4675-B33B-43D261923903}"/>
   </bookViews>
   <sheets>
     <sheet name="受注委託移動在庫生産照会" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10115" uniqueCount="1785">
   <si>
     <t>№</t>
   </si>
@@ -20030,11 +20030,32 @@
     <t>0803587</t>
   </si>
   <si>
-    <t xml:space="preserve">22027292-1 </t>
-  </si>
-  <si>
-    <r>
-      <t>細野</t>
+    <t xml:space="preserve">22029578-1 </t>
+  </si>
+  <si>
+    <t>町田　佳久</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KP800U OD2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾊﾟｽﾞﾙ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KP800U     OD2         </t>
+  </si>
+  <si>
+    <r>
+      <t>木霊</t>
     </r>
     <r>
       <rPr>
@@ -20044,6 +20065,27 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t>KODAMA</t>
+    </r>
+  </si>
+  <si>
+    <t>町田　佳久様　持帰り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22027292-1 </t>
+  </si>
+  <si>
+    <r>
+      <t>細野</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -21789,17 +21831,14 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">22025414-1 </t>
-  </si>
-  <si>
-    <t>後藤　真吾</t>
-  </si>
-  <si>
-    <t>後日入力</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KH281AM WO </t>
+    <t xml:space="preserve">22029580-1 </t>
+  </si>
+  <si>
+    <t>後藤　広</t>
+  </si>
+  <si>
+    <r>
+      <t>SN495 OF AV</t>
     </r>
     <r>
       <rPr>
@@ -21809,15 +21848,15 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ﾗｳﾝｼﾞﾁｪｱ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">KH281AM    WO          </t>
-  </si>
-  <si>
-    <r>
-      <t>後藤</t>
+      <t>ｷｬﾋﾞﾈｯﾄ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SN495      OF          </t>
+  </si>
+  <si>
+    <r>
+      <t>後藤　広様　</t>
     </r>
     <r>
       <rPr>
@@ -21827,7 +21866,21 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>6/17</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22025414-1 </t>
+  </si>
+  <si>
+    <t>後藤　真吾</t>
+  </si>
+  <si>
+    <t>後日入力</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KH281AM WO </t>
     </r>
     <r>
       <rPr>
@@ -21837,15 +21890,25 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>真吾様　開梱設置</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">22025414-2 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KH605M WO </t>
+      <t>ﾗｳﾝｼﾞﾁｪｱ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KH281AM    WO          </t>
+  </si>
+  <si>
+    <r>
+      <t>後藤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21855,18 +21918,15 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ｻｲﾄﾞﾃｰﾌﾞﾙ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">KH605M     WO          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22025414-3 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KH681M WO </t>
+      <t>真吾様　開梱設置</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22025414-2 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KH605M WO </t>
     </r>
     <r>
       <rPr>
@@ -21876,11 +21936,111 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>ｻｲﾄﾞﾃｰﾌﾞﾙ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KH605M     WO          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22025414-3 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KH681M WO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>正座椅子</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">KH681M     WO          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22029554-1 </t>
+  </si>
+  <si>
+    <r>
+      <t>№6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用　背･座面ｸｯｼｮﾝ硬め仕様　ﾅﾍﾞﾀﾞｲﾗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <t>町田　佳久様　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22029554-2 </t>
+  </si>
+  <si>
+    <r>
+      <t>6S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　座面ｸｯｼｮﾝ硬め仕様　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ﾅﾍﾞﾀﾞｲﾗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>G</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">22028612-1 </t>
@@ -23426,8 +23586,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3E4905-219F-488F-9CFC-799F34666547}">
-  <dimension ref="A1:BB525"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58E6065-FAD9-4A76-9181-9A344CB4EC80}">
+  <dimension ref="A1:BB529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -89002,16 +89162,13 @@
         <v>1579</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="F477" s="4" t="s">
-        <v>149</v>
+        <v>1579</v>
       </c>
       <c r="G477" s="2">
-        <v>45070</v>
-      </c>
-      <c r="H477" s="2">
-        <v>45073</v>
+        <v>45068</v>
       </c>
       <c r="I477" s="1" t="s">
         <v>1580</v>
@@ -89023,55 +89180,43 @@
         <v>1</v>
       </c>
       <c r="L477" s="1">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="M477" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N477" s="3" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="O477" s="1">
-        <v>77000</v>
+        <v>10000</v>
       </c>
       <c r="P477" s="1">
-        <v>77000</v>
+        <v>10000</v>
       </c>
       <c r="Q477" s="2">
-        <v>45050</v>
+        <v>45066</v>
       </c>
       <c r="R477" s="4" t="s">
-        <v>1582</v>
-      </c>
-      <c r="S477" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="T477" s="2">
-        <v>45065</v>
-      </c>
-      <c r="U477" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="X477" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y477" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB477" s="4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="AC477" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AD477" s="1">
         <v>110</v>
       </c>
       <c r="AE477" s="1">
-        <v>23232</v>
+        <v>3869</v>
       </c>
       <c r="AF477" s="1">
-        <v>23232</v>
+        <v>3869</v>
       </c>
       <c r="AG477" s="1">
         <v>9</v>
@@ -89098,13 +89243,13 @@
         <v>0</v>
       </c>
       <c r="AP477" s="1">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="AQ477" s="4" t="s">
-        <v>129</v>
+        <v>1582</v>
       </c>
       <c r="AR477" s="4" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AS477" s="4" t="s">
         <v>1583</v>
@@ -89116,19 +89261,19 @@
         <v>64</v>
       </c>
       <c r="AV477" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW477" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="AX477" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="AY477" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AZ477" s="3" t="s">
-        <v>202</v>
+        <v>696</v>
       </c>
       <c r="BA477" s="3" t="s">
         <v>68</v>
@@ -89145,7 +89290,7 @@
         <v>55</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>148</v>
@@ -89160,16 +89305,16 @@
         <v>45073</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="J478" s="3" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="K478" s="1">
         <v>1</v>
       </c>
       <c r="L478" s="1">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="M478" s="1">
         <v>1</v>
@@ -89178,22 +89323,22 @@
         <v>152</v>
       </c>
       <c r="O478" s="1">
-        <v>55000</v>
+        <v>77000</v>
       </c>
       <c r="P478" s="1">
-        <v>55000</v>
+        <v>77000</v>
       </c>
       <c r="Q478" s="2">
-        <v>45055</v>
+        <v>45050</v>
       </c>
       <c r="R478" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S478" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T478" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="U478" s="4" t="s">
         <v>87</v>
@@ -89204,23 +89349,20 @@
       <c r="Y478" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AA478" s="1">
-        <v>4691156189554</v>
-      </c>
       <c r="AB478" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AC478" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AD478" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AE478" s="1">
-        <v>18460</v>
+        <v>23232</v>
       </c>
       <c r="AF478" s="1">
-        <v>18460</v>
+        <v>23232</v>
       </c>
       <c r="AG478" s="1">
         <v>9</v>
@@ -89247,16 +89389,16 @@
         <v>0</v>
       </c>
       <c r="AP478" s="1">
-        <v>36</v>
-      </c>
-      <c r="AQ478" s="1" t="s">
-        <v>1587</v>
+        <v>51</v>
+      </c>
+      <c r="AQ478" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="AR478" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS478" s="4" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="AT478" s="1">
         <v>1119</v>
@@ -89281,9 +89423,6 @@
       </c>
       <c r="BA478" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="BB478" s="3" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="479" spans="1:54" x14ac:dyDescent="0.25">
@@ -89291,13 +89430,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>148</v>
@@ -89311,38 +89450,41 @@
       <c r="H479" s="2">
         <v>45073</v>
       </c>
-      <c r="I479" s="4" t="s">
-        <v>609</v>
+      <c r="I479" s="1" t="s">
+        <v>1591</v>
       </c>
       <c r="J479" s="3" t="s">
-        <v>800</v>
+        <v>1592</v>
       </c>
       <c r="K479" s="1">
         <v>1</v>
       </c>
       <c r="L479" s="1">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="M479" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N479" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O479" s="1">
-        <v>1900</v>
+        <v>55000</v>
       </c>
       <c r="P479" s="1">
-        <v>1900</v>
+        <v>55000</v>
       </c>
       <c r="Q479" s="2">
         <v>45055</v>
       </c>
       <c r="R479" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S479" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
+      </c>
+      <c r="T479" s="2">
+        <v>45063</v>
       </c>
       <c r="U479" s="4" t="s">
         <v>87</v>
@@ -89366,10 +89508,10 @@
         <v>510</v>
       </c>
       <c r="AE479" s="1">
-        <v>0</v>
+        <v>18460</v>
       </c>
       <c r="AF479" s="1">
-        <v>0</v>
+        <v>18460</v>
       </c>
       <c r="AG479" s="1">
         <v>9</v>
@@ -89396,16 +89538,16 @@
         <v>0</v>
       </c>
       <c r="AP479" s="1">
-        <v>992</v>
-      </c>
-      <c r="AQ479" s="4" t="s">
-        <v>802</v>
+        <v>36</v>
+      </c>
+      <c r="AQ479" s="1" t="s">
+        <v>1593</v>
       </c>
       <c r="AR479" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS479" s="4" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="AT479" s="1">
         <v>1119</v>
@@ -89414,22 +89556,25 @@
         <v>64</v>
       </c>
       <c r="AV479" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW479" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AX479" s="1">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AY479" s="4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AZ479" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="BA479" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="BB479" s="3" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="480" spans="1:54" x14ac:dyDescent="0.25">
@@ -89437,85 +89582,85 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F480" s="4" t="s">
-        <v>1591</v>
+        <v>149</v>
       </c>
       <c r="G480" s="2">
-        <v>45071</v>
+        <v>45070</v>
       </c>
       <c r="H480" s="2">
-        <v>45074</v>
-      </c>
-      <c r="I480" s="1" t="s">
-        <v>230</v>
+        <v>45073</v>
+      </c>
+      <c r="I480" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="J480" s="3" t="s">
-        <v>231</v>
+        <v>800</v>
       </c>
       <c r="K480" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L480" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M480" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N480" s="3" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="O480" s="1">
-        <v>12000</v>
+        <v>1900</v>
       </c>
       <c r="P480" s="1">
-        <v>60000</v>
+        <v>1900</v>
       </c>
       <c r="Q480" s="2">
-        <v>45058</v>
+        <v>45055</v>
       </c>
       <c r="R480" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S480" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="T480" s="2">
-        <v>45063</v>
+        <v>234</v>
       </c>
       <c r="U480" s="4" t="s">
         <v>87</v>
       </c>
       <c r="X480" s="1">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="Y480" s="4" t="s">
-        <v>1592</v>
+        <v>108</v>
+      </c>
+      <c r="AA480" s="1">
+        <v>4691156189554</v>
       </c>
       <c r="AB480" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AC480" s="1">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="AD480" s="1">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="AE480" s="1">
-        <v>3008</v>
+        <v>0</v>
       </c>
       <c r="AF480" s="1">
-        <v>15040</v>
+        <v>0</v>
       </c>
       <c r="AG480" s="1">
         <v>9</v>
@@ -89542,16 +89687,16 @@
         <v>0</v>
       </c>
       <c r="AP480" s="1">
-        <v>2</v>
+        <v>992</v>
       </c>
       <c r="AQ480" s="4" t="s">
-        <v>199</v>
+        <v>802</v>
       </c>
       <c r="AR480" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AS480" s="4" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="AT480" s="1">
         <v>1119</v>
@@ -89566,10 +89711,10 @@
         <v>65</v>
       </c>
       <c r="AX480" s="1">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AY480" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="AZ480" s="3" t="s">
         <v>67</v>
@@ -89583,67 +89728,70 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>117</v>
+        <v>1597</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F481" s="4" t="s">
-        <v>117</v>
+        <v>1597</v>
       </c>
       <c r="G481" s="2">
-        <v>45075</v>
+        <v>45071</v>
       </c>
       <c r="H481" s="2">
-        <v>45076</v>
+        <v>45074</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="J481" s="3" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="K481" s="1">
+        <v>5</v>
+      </c>
+      <c r="L481" s="1">
         <v>2</v>
       </c>
-      <c r="L481" s="1">
-        <v>0.2</v>
-      </c>
       <c r="M481" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N481" s="3" t="s">
         <v>237</v>
       </c>
       <c r="O481" s="1">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="P481" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="Q481" s="2">
-        <v>45059</v>
+        <v>45058</v>
       </c>
       <c r="R481" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S481" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="T481" s="2">
+        <v>45063</v>
+      </c>
       <c r="U481" s="4" t="s">
         <v>87</v>
       </c>
       <c r="X481" s="1">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="Y481" s="4" t="s">
-        <v>108</v>
+        <v>1598</v>
       </c>
       <c r="AB481" s="4" t="s">
         <v>27</v>
@@ -89655,10 +89803,10 @@
         <v>110</v>
       </c>
       <c r="AE481" s="1">
-        <v>227</v>
+        <v>3008</v>
       </c>
       <c r="AF481" s="1">
-        <v>454</v>
+        <v>15040</v>
       </c>
       <c r="AG481" s="1">
         <v>9</v>
@@ -89682,19 +89830,19 @@
         <v>0</v>
       </c>
       <c r="AN481" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO481" s="4" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AP481" s="1">
-        <v>202</v>
-      </c>
-      <c r="AQ481" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="AQ481" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR481" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="AS481" s="4" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="AT481" s="1">
         <v>1119</v>
@@ -89709,10 +89857,10 @@
         <v>65</v>
       </c>
       <c r="AX481" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="AY481" s="4" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="AZ481" s="3" t="s">
         <v>67</v>
@@ -89726,55 +89874,55 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1597</v>
+        <v>117</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="F482" s="4" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="G482" s="2">
         <v>45075</v>
       </c>
       <c r="H482" s="2">
-        <v>45078</v>
+        <v>45076</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="J482" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K482" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L482" s="1">
-        <v>14.6</v>
+        <v>0.2</v>
       </c>
       <c r="M482" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N482" s="3" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="O482" s="1">
-        <v>102000</v>
+        <v>0</v>
       </c>
       <c r="P482" s="1">
-        <v>102000</v>
+        <v>0</v>
       </c>
       <c r="Q482" s="2">
-        <v>45050</v>
+        <v>45059</v>
       </c>
       <c r="R482" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S482" s="4" t="s">
         <v>153</v>
@@ -89798,10 +89946,10 @@
         <v>110</v>
       </c>
       <c r="AE482" s="1">
-        <v>29569</v>
+        <v>227</v>
       </c>
       <c r="AF482" s="1">
-        <v>29569</v>
+        <v>454</v>
       </c>
       <c r="AG482" s="1">
         <v>9</v>
@@ -89825,19 +89973,19 @@
         <v>0</v>
       </c>
       <c r="AN482" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO482" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AP482" s="1">
-        <v>51</v>
-      </c>
-      <c r="AQ482" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR482" s="4" t="s">
-        <v>167</v>
+        <v>202</v>
+      </c>
+      <c r="AQ482" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AS482" s="4" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="AT482" s="1">
         <v>1119</v>
@@ -89846,19 +89994,19 @@
         <v>64</v>
       </c>
       <c r="AV482" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW482" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="AX482" s="1">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AY482" s="4" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="AZ482" s="3" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="BA482" s="3" t="s">
         <v>68</v>
@@ -89869,13 +90017,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>148</v>
@@ -89890,34 +90038,34 @@
         <v>45078</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>1601</v>
+        <v>127</v>
       </c>
       <c r="J483" s="3" t="s">
-        <v>1602</v>
+        <v>128</v>
       </c>
       <c r="K483" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L483" s="1">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="M483" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N483" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O483" s="1">
-        <v>55000</v>
+        <v>102000</v>
       </c>
       <c r="P483" s="1">
-        <v>110000</v>
+        <v>102000</v>
       </c>
       <c r="Q483" s="2">
-        <v>45057</v>
+        <v>45050</v>
       </c>
       <c r="R483" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S483" s="4" t="s">
         <v>153</v>
@@ -89941,10 +90089,10 @@
         <v>110</v>
       </c>
       <c r="AE483" s="1">
-        <v>19670</v>
+        <v>29569</v>
       </c>
       <c r="AF483" s="1">
-        <v>39340</v>
+        <v>29569</v>
       </c>
       <c r="AG483" s="1">
         <v>9</v>
@@ -89971,16 +90119,16 @@
         <v>0</v>
       </c>
       <c r="AP483" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AQ483" s="4" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="AR483" s="4" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AS483" s="4" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="AT483" s="1">
         <v>1119</v>
@@ -89995,16 +90143,16 @@
         <v>92</v>
       </c>
       <c r="AX483" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY483" s="4" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="AZ483" s="3" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="BA483" s="3" t="s">
-        <v>1544</v>
+        <v>68</v>
       </c>
     </row>
     <row r="484" spans="1:54" x14ac:dyDescent="0.25">
@@ -90012,13 +90160,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>148</v>
@@ -90032,14 +90180,14 @@
       <c r="H484" s="2">
         <v>45078</v>
       </c>
-      <c r="I484" s="4" t="s">
-        <v>1605</v>
+      <c r="I484" s="1" t="s">
+        <v>1607</v>
       </c>
       <c r="J484" s="3" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="K484" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L484" s="1">
         <v>0</v>
@@ -90051,16 +90199,16 @@
         <v>152</v>
       </c>
       <c r="O484" s="1">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="P484" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="Q484" s="2">
         <v>45057</v>
       </c>
       <c r="R484" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S484" s="4" t="s">
         <v>153</v>
@@ -90084,10 +90232,10 @@
         <v>110</v>
       </c>
       <c r="AE484" s="1">
-        <v>94</v>
+        <v>19670</v>
       </c>
       <c r="AF484" s="1">
-        <v>94</v>
+        <v>39340</v>
       </c>
       <c r="AG484" s="1">
         <v>9</v>
@@ -90111,10 +90259,7 @@
         <v>0</v>
       </c>
       <c r="AN484" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO484" s="4" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AP484" s="1">
         <v>2</v>
@@ -90126,7 +90271,7 @@
         <v>76</v>
       </c>
       <c r="AS484" s="4" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="AT484" s="1">
         <v>1119</v>
@@ -90141,16 +90286,16 @@
         <v>92</v>
       </c>
       <c r="AX484" s="1">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="AY484" s="4" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="AZ484" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BA484" s="3" t="s">
-        <v>68</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="485" spans="1:54" x14ac:dyDescent="0.25">
@@ -90158,13 +90303,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>148</v>
@@ -90178,35 +90323,35 @@
       <c r="H485" s="2">
         <v>45078</v>
       </c>
-      <c r="I485" s="1" t="s">
-        <v>1608</v>
+      <c r="I485" s="4" t="s">
+        <v>1611</v>
       </c>
       <c r="J485" s="3" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="K485" s="1">
         <v>1</v>
       </c>
       <c r="L485" s="1">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="M485" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N485" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O485" s="1">
-        <v>67000</v>
+        <v>0</v>
       </c>
       <c r="P485" s="1">
-        <v>67000</v>
+        <v>0</v>
       </c>
       <c r="Q485" s="2">
         <v>45057</v>
       </c>
       <c r="R485" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S485" s="4" t="s">
         <v>153</v>
@@ -90230,10 +90375,10 @@
         <v>110</v>
       </c>
       <c r="AE485" s="1">
-        <v>19554</v>
+        <v>94</v>
       </c>
       <c r="AF485" s="1">
-        <v>19554</v>
+        <v>94</v>
       </c>
       <c r="AG485" s="1">
         <v>9</v>
@@ -90257,7 +90402,10 @@
         <v>0</v>
       </c>
       <c r="AN485" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO485" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AP485" s="1">
         <v>2</v>
@@ -90269,7 +90417,7 @@
         <v>76</v>
       </c>
       <c r="AS485" s="4" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="AT485" s="1">
         <v>1119</v>
@@ -90284,16 +90432,16 @@
         <v>92</v>
       </c>
       <c r="AX485" s="1">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="AY485" s="4" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="AZ485" s="3" t="s">
-        <v>489</v>
+        <v>67</v>
       </c>
       <c r="BA485" s="3" t="s">
-        <v>1610</v>
+        <v>68</v>
       </c>
     </row>
     <row r="486" spans="1:54" x14ac:dyDescent="0.25">
@@ -90301,13 +90449,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>148</v>
@@ -90322,10 +90470,10 @@
         <v>45078</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="J486" s="3" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="K486" s="1">
         <v>1</v>
@@ -90349,7 +90497,7 @@
         <v>45057</v>
       </c>
       <c r="R486" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S486" s="4" t="s">
         <v>153</v>
@@ -90373,10 +90521,10 @@
         <v>110</v>
       </c>
       <c r="AE486" s="1">
-        <v>19553</v>
+        <v>19554</v>
       </c>
       <c r="AF486" s="1">
-        <v>19553</v>
+        <v>19554</v>
       </c>
       <c r="AG486" s="1">
         <v>9</v>
@@ -90412,7 +90560,7 @@
         <v>76</v>
       </c>
       <c r="AS486" s="4" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="AT486" s="1">
         <v>1119</v>
@@ -90436,7 +90584,7 @@
         <v>489</v>
       </c>
       <c r="BA486" s="3" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="487" spans="1:54" x14ac:dyDescent="0.25">
@@ -90444,25 +90592,25 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1616</v>
+        <v>148</v>
       </c>
       <c r="F487" s="4" t="s">
-        <v>1617</v>
+        <v>149</v>
       </c>
       <c r="G487" s="2">
         <v>45075</v>
       </c>
       <c r="H487" s="2">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="I487" s="1" t="s">
         <v>1618</v>
@@ -90474,7 +90622,7 @@
         <v>1</v>
       </c>
       <c r="L487" s="1">
-        <v>11.5</v>
+        <v>13.1</v>
       </c>
       <c r="M487" s="1">
         <v>1</v>
@@ -90483,16 +90631,16 @@
         <v>152</v>
       </c>
       <c r="O487" s="1">
-        <v>135000</v>
+        <v>67000</v>
       </c>
       <c r="P487" s="1">
-        <v>135000</v>
+        <v>67000</v>
       </c>
       <c r="Q487" s="2">
-        <v>45044</v>
+        <v>45057</v>
       </c>
       <c r="R487" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S487" s="4" t="s">
         <v>153</v>
@@ -90501,10 +90649,10 @@
         <v>87</v>
       </c>
       <c r="X487" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y487" s="4" t="s">
-        <v>567</v>
+        <v>108</v>
       </c>
       <c r="AB487" s="4" t="s">
         <v>27</v>
@@ -90516,10 +90664,10 @@
         <v>110</v>
       </c>
       <c r="AE487" s="1">
-        <v>49043</v>
+        <v>19553</v>
       </c>
       <c r="AF487" s="1">
-        <v>49043</v>
+        <v>19553</v>
       </c>
       <c r="AG487" s="1">
         <v>9</v>
@@ -90546,16 +90694,16 @@
         <v>0</v>
       </c>
       <c r="AP487" s="1">
-        <v>41</v>
-      </c>
-      <c r="AQ487" s="1" t="s">
-        <v>1620</v>
+        <v>2</v>
+      </c>
+      <c r="AQ487" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="AR487" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS487" s="4" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="AT487" s="1">
         <v>1119</v>
@@ -90570,16 +90718,16 @@
         <v>92</v>
       </c>
       <c r="AX487" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY487" s="4" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="AZ487" s="3" t="s">
-        <v>202</v>
+        <v>489</v>
       </c>
       <c r="BA487" s="3" t="s">
-        <v>288</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="488" spans="1:54" x14ac:dyDescent="0.25">
@@ -90587,67 +90735,67 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D488" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F488" s="4" t="s">
         <v>1623</v>
-      </c>
-      <c r="E488" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F488" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="G488" s="2">
         <v>45075</v>
       </c>
+      <c r="H488" s="2">
+        <v>45079</v>
+      </c>
       <c r="I488" s="1" t="s">
         <v>1624</v>
       </c>
       <c r="J488" s="3" t="s">
-        <v>471</v>
+        <v>1625</v>
       </c>
       <c r="K488" s="1">
         <v>1</v>
       </c>
       <c r="L488" s="1">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M488" s="1">
         <v>1</v>
       </c>
       <c r="N488" s="3" t="s">
-        <v>1625</v>
+        <v>152</v>
       </c>
       <c r="O488" s="1">
-        <v>30000</v>
+        <v>135000</v>
       </c>
       <c r="P488" s="1">
-        <v>30000</v>
+        <v>135000</v>
       </c>
       <c r="Q488" s="2">
-        <v>45061</v>
+        <v>45044</v>
       </c>
       <c r="R488" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S488" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="T488" s="2">
-        <v>45065</v>
-      </c>
       <c r="U488" s="4" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="X488" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y488" s="4" t="s">
-        <v>108</v>
+        <v>567</v>
       </c>
       <c r="AB488" s="4" t="s">
         <v>27</v>
@@ -90659,10 +90807,10 @@
         <v>110</v>
       </c>
       <c r="AE488" s="1">
-        <v>0</v>
+        <v>49043</v>
       </c>
       <c r="AF488" s="1">
-        <v>0</v>
+        <v>49043</v>
       </c>
       <c r="AG488" s="1">
         <v>9</v>
@@ -90689,16 +90837,16 @@
         <v>0</v>
       </c>
       <c r="AP488" s="1">
-        <v>92</v>
-      </c>
-      <c r="AQ488" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="AQ488" s="1" t="s">
+        <v>1626</v>
       </c>
       <c r="AR488" s="4" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AS488" s="4" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AT488" s="1">
         <v>1119</v>
@@ -90713,16 +90861,16 @@
         <v>92</v>
       </c>
       <c r="AX488" s="1">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AY488" s="4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AZ488" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="BA488" s="3" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
     </row>
     <row r="489" spans="1:54" x14ac:dyDescent="0.25">
@@ -90730,13 +90878,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>409</v>
@@ -90747,38 +90895,41 @@
       <c r="G489" s="2">
         <v>45075</v>
       </c>
-      <c r="I489" s="4" t="s">
-        <v>474</v>
+      <c r="I489" s="1" t="s">
+        <v>1630</v>
       </c>
       <c r="J489" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K489" s="1">
         <v>1</v>
       </c>
       <c r="L489" s="1">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="M489" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N489" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O489" s="1">
-        <v>8500</v>
+        <v>30000</v>
       </c>
       <c r="P489" s="1">
-        <v>8500</v>
+        <v>30000</v>
       </c>
       <c r="Q489" s="2">
         <v>45061</v>
       </c>
       <c r="R489" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S489" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
+      </c>
+      <c r="T489" s="2">
+        <v>45065</v>
       </c>
       <c r="U489" s="4" t="s">
         <v>20</v>
@@ -90838,7 +90989,7 @@
         <v>167</v>
       </c>
       <c r="AS489" s="4" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="AT489" s="1">
         <v>1119</v>
@@ -90847,10 +90998,10 @@
         <v>64</v>
       </c>
       <c r="AV489" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW489" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AX489" s="1">
         <v>99</v>
@@ -90870,7 +91021,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>55</v>
@@ -90879,52 +91030,49 @@
         <v>1629</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>148</v>
+        <v>409</v>
       </c>
       <c r="F490" s="4" t="s">
-        <v>149</v>
+        <v>410</v>
       </c>
       <c r="G490" s="2">
-        <v>45076</v>
-      </c>
-      <c r="H490" s="2">
-        <v>45080</v>
-      </c>
-      <c r="I490" s="1" t="s">
-        <v>1630</v>
+        <v>45075</v>
+      </c>
+      <c r="I490" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="J490" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K490" s="1">
+        <v>1</v>
+      </c>
+      <c r="L490" s="1">
+        <v>0</v>
+      </c>
+      <c r="M490" s="1">
+        <v>0</v>
+      </c>
+      <c r="N490" s="3" t="s">
         <v>1631</v>
       </c>
-      <c r="K490" s="1">
-        <v>2</v>
-      </c>
-      <c r="L490" s="1">
-        <v>11</v>
-      </c>
-      <c r="M490" s="1">
-        <v>2</v>
-      </c>
-      <c r="N490" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O490" s="1">
-        <v>66000</v>
+        <v>8500</v>
       </c>
       <c r="P490" s="1">
-        <v>132000</v>
+        <v>8500</v>
       </c>
       <c r="Q490" s="2">
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="R490" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S490" s="4" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="U490" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="X490" s="1">
         <v>4</v>
@@ -90942,10 +91090,10 @@
         <v>110</v>
       </c>
       <c r="AE490" s="1">
-        <v>25460</v>
+        <v>0</v>
       </c>
       <c r="AF490" s="1">
-        <v>50920</v>
+        <v>0</v>
       </c>
       <c r="AG490" s="1">
         <v>9</v>
@@ -90972,16 +91120,16 @@
         <v>0</v>
       </c>
       <c r="AP490" s="1">
-        <v>28</v>
-      </c>
-      <c r="AQ490" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ490" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR490" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS490" s="4" t="s">
         <v>1632</v>
-      </c>
-      <c r="AR490" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS490" s="4" t="s">
-        <v>1633</v>
       </c>
       <c r="AT490" s="1">
         <v>1119</v>
@@ -90990,25 +91138,22 @@
         <v>64</v>
       </c>
       <c r="AV490" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW490" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="AX490" s="1">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="AY490" s="4" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AZ490" s="3" t="s">
-        <v>721</v>
+        <v>67</v>
       </c>
       <c r="BA490" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="BB490" s="3" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="491" spans="1:54" x14ac:dyDescent="0.25">
@@ -91016,13 +91161,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>148</v>
@@ -91036,38 +91181,38 @@
       <c r="H491" s="2">
         <v>45080</v>
       </c>
-      <c r="I491" s="4" t="s">
+      <c r="I491" s="1" t="s">
         <v>1636</v>
       </c>
       <c r="J491" s="3" t="s">
-        <v>114</v>
+        <v>1637</v>
       </c>
       <c r="K491" s="1">
         <v>2</v>
       </c>
       <c r="L491" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M491" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N491" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O491" s="1">
-        <v>1900</v>
+        <v>66000</v>
       </c>
       <c r="P491" s="1">
-        <v>3800</v>
+        <v>132000</v>
       </c>
       <c r="Q491" s="2">
         <v>45046</v>
       </c>
       <c r="R491" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S491" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="U491" s="4" t="s">
         <v>87</v>
@@ -91088,10 +91233,10 @@
         <v>110</v>
       </c>
       <c r="AE491" s="1">
-        <v>0</v>
+        <v>25460</v>
       </c>
       <c r="AF491" s="1">
-        <v>0</v>
+        <v>50920</v>
       </c>
       <c r="AG491" s="1">
         <v>9</v>
@@ -91118,16 +91263,16 @@
         <v>0</v>
       </c>
       <c r="AP491" s="1">
-        <v>92</v>
-      </c>
-      <c r="AQ491" s="4" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="AQ491" s="1" t="s">
+        <v>1638</v>
       </c>
       <c r="AR491" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS491" s="4" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="AT491" s="1">
         <v>1119</v>
@@ -91136,22 +91281,25 @@
         <v>64</v>
       </c>
       <c r="AV491" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW491" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AX491" s="1">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AY491" s="4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AZ491" s="3" t="s">
-        <v>67</v>
+        <v>721</v>
       </c>
       <c r="BA491" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="BB491" s="3" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="492" spans="1:54" x14ac:dyDescent="0.25">
@@ -91159,58 +91307,58 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F492" s="4" t="s">
-        <v>1638</v>
+        <v>149</v>
       </c>
       <c r="G492" s="2">
         <v>45076</v>
       </c>
       <c r="H492" s="2">
-        <v>45082</v>
-      </c>
-      <c r="I492" s="1" t="s">
-        <v>733</v>
+        <v>45080</v>
+      </c>
+      <c r="I492" s="4" t="s">
+        <v>1642</v>
       </c>
       <c r="J492" s="3" t="s">
-        <v>734</v>
+        <v>114</v>
       </c>
       <c r="K492" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L492" s="1">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M492" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N492" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O492" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="P492" s="1">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="Q492" s="2">
-        <v>45059</v>
+        <v>45046</v>
       </c>
       <c r="R492" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S492" s="4" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="U492" s="4" t="s">
         <v>87</v>
@@ -91231,10 +91379,10 @@
         <v>110</v>
       </c>
       <c r="AE492" s="1">
-        <v>19681</v>
+        <v>0</v>
       </c>
       <c r="AF492" s="1">
-        <v>19681</v>
+        <v>0</v>
       </c>
       <c r="AG492" s="1">
         <v>9</v>
@@ -91258,16 +91406,16 @@
         <v>0</v>
       </c>
       <c r="AN492" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO492" s="4" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AP492" s="1">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AQ492" s="4" t="s">
-        <v>129</v>
+        <v>65</v>
+      </c>
+      <c r="AR492" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="AS492" s="4" t="s">
         <v>1639</v>
@@ -91279,19 +91427,19 @@
         <v>64</v>
       </c>
       <c r="AV492" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW492" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="AX492" s="1">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="AY492" s="4" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AZ492" s="3" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="BA492" s="3" t="s">
         <v>68</v>
@@ -91302,37 +91450,37 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="F493" s="4" t="s">
-        <v>149</v>
+        <v>1644</v>
       </c>
       <c r="G493" s="2">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="H493" s="2">
         <v>45082</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>1642</v>
+        <v>733</v>
       </c>
       <c r="J493" s="3" t="s">
-        <v>1643</v>
+        <v>734</v>
       </c>
       <c r="K493" s="1">
         <v>1</v>
       </c>
       <c r="L493" s="1">
-        <v>1.2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M493" s="1">
         <v>1</v>
@@ -91341,16 +91489,16 @@
         <v>152</v>
       </c>
       <c r="O493" s="1">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="P493" s="1">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="Q493" s="2">
-        <v>45043</v>
+        <v>45059</v>
       </c>
       <c r="R493" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S493" s="4" t="s">
         <v>153</v>
@@ -91374,10 +91522,10 @@
         <v>110</v>
       </c>
       <c r="AE493" s="1">
-        <v>17171</v>
+        <v>19681</v>
       </c>
       <c r="AF493" s="1">
-        <v>17171</v>
+        <v>19681</v>
       </c>
       <c r="AG493" s="1">
         <v>9</v>
@@ -91401,19 +91549,19 @@
         <v>0</v>
       </c>
       <c r="AN493" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO493" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AP493" s="1">
-        <v>106</v>
-      </c>
-      <c r="AQ493" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="AR493" s="4" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+      <c r="AQ493" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="AS493" s="4" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AT493" s="1">
         <v>1119</v>
@@ -91428,19 +91576,16 @@
         <v>92</v>
       </c>
       <c r="AX493" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY493" s="4" t="s">
-        <v>777</v>
+        <v>93</v>
       </c>
       <c r="AZ493" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="BA493" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="BB493" s="3" t="s">
-        <v>1645</v>
+        <v>68</v>
       </c>
     </row>
     <row r="494" spans="1:54" x14ac:dyDescent="0.25">
@@ -91469,34 +91614,34 @@
         <v>45082</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>1425</v>
+        <v>1648</v>
       </c>
       <c r="J494" s="3" t="s">
-        <v>1426</v>
+        <v>1649</v>
       </c>
       <c r="K494" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L494" s="1">
-        <v>16.399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="M494" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N494" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O494" s="1">
-        <v>83000</v>
+        <v>61000</v>
       </c>
       <c r="P494" s="1">
-        <v>166000</v>
+        <v>61000</v>
       </c>
       <c r="Q494" s="2">
-        <v>45051</v>
+        <v>45043</v>
       </c>
       <c r="R494" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S494" s="4" t="s">
         <v>153</v>
@@ -91520,10 +91665,10 @@
         <v>110</v>
       </c>
       <c r="AE494" s="1">
-        <v>20573</v>
+        <v>17171</v>
       </c>
       <c r="AF494" s="1">
-        <v>41146</v>
+        <v>17171</v>
       </c>
       <c r="AG494" s="1">
         <v>9</v>
@@ -91550,16 +91695,16 @@
         <v>0</v>
       </c>
       <c r="AP494" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ494" s="4" t="s">
-        <v>306</v>
+        <v>106</v>
+      </c>
+      <c r="AQ494" s="1" t="s">
+        <v>1279</v>
       </c>
       <c r="AR494" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AS494" s="4" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AT494" s="1">
         <v>1119</v>
@@ -91574,16 +91719,19 @@
         <v>92</v>
       </c>
       <c r="AX494" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY494" s="4" t="s">
-        <v>93</v>
+        <v>777</v>
       </c>
       <c r="AZ494" s="3" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="BA494" s="3" t="s">
-        <v>68</v>
+        <v>416</v>
+      </c>
+      <c r="BB494" s="3" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="495" spans="1:54" x14ac:dyDescent="0.25">
@@ -91591,13 +91739,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>148</v>
@@ -91612,34 +91760,34 @@
         <v>45082</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>1650</v>
+        <v>1425</v>
       </c>
       <c r="J495" s="3" t="s">
-        <v>1651</v>
+        <v>1426</v>
       </c>
       <c r="K495" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L495" s="1">
-        <v>0</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M495" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N495" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O495" s="1">
-        <v>21000</v>
+        <v>83000</v>
       </c>
       <c r="P495" s="1">
-        <v>21000</v>
+        <v>166000</v>
       </c>
       <c r="Q495" s="2">
         <v>45051</v>
       </c>
       <c r="R495" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S495" s="4" t="s">
         <v>153</v>
@@ -91663,10 +91811,10 @@
         <v>110</v>
       </c>
       <c r="AE495" s="1">
-        <v>9709</v>
+        <v>20573</v>
       </c>
       <c r="AF495" s="1">
-        <v>9709</v>
+        <v>41146</v>
       </c>
       <c r="AG495" s="1">
         <v>9</v>
@@ -91702,7 +91850,7 @@
         <v>90</v>
       </c>
       <c r="AS495" s="4" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="AT495" s="1">
         <v>1119</v>
@@ -91717,16 +91865,16 @@
         <v>92</v>
       </c>
       <c r="AX495" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY495" s="4" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="AZ495" s="3" t="s">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="BA495" s="3" t="s">
-        <v>1652</v>
+        <v>68</v>
       </c>
     </row>
     <row r="496" spans="1:54" x14ac:dyDescent="0.25">
@@ -91734,13 +91882,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>148</v>
@@ -91755,10 +91903,10 @@
         <v>45082</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="J496" s="3" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="K496" s="1">
         <v>1</v>
@@ -91782,7 +91930,7 @@
         <v>45051</v>
       </c>
       <c r="R496" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S496" s="4" t="s">
         <v>153</v>
@@ -91845,7 +91993,7 @@
         <v>90</v>
       </c>
       <c r="AS496" s="4" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="AT496" s="1">
         <v>1119</v>
@@ -91869,7 +92017,7 @@
         <v>67</v>
       </c>
       <c r="BA496" s="3" t="s">
-        <v>288</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="497" spans="1:53" x14ac:dyDescent="0.25">
@@ -91877,31 +92025,31 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F497" s="4" t="s">
-        <v>1657</v>
+        <v>149</v>
       </c>
       <c r="G497" s="2">
         <v>45077</v>
       </c>
       <c r="H497" s="2">
-        <v>45080</v>
+        <v>45082</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="J497" s="3" t="s">
-        <v>191</v>
+        <v>1661</v>
       </c>
       <c r="K497" s="1">
         <v>1</v>
@@ -91910,22 +92058,22 @@
         <v>0</v>
       </c>
       <c r="M497" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N497" s="3" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="O497" s="1">
-        <v>126000</v>
+        <v>21000</v>
       </c>
       <c r="P497" s="1">
-        <v>126000</v>
+        <v>21000</v>
       </c>
       <c r="Q497" s="2">
-        <v>45062</v>
+        <v>45051</v>
       </c>
       <c r="R497" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S497" s="4" t="s">
         <v>153</v>
@@ -91949,10 +92097,10 @@
         <v>110</v>
       </c>
       <c r="AE497" s="1">
-        <v>0</v>
+        <v>9709</v>
       </c>
       <c r="AF497" s="1">
-        <v>0</v>
+        <v>9709</v>
       </c>
       <c r="AG497" s="1">
         <v>9</v>
@@ -91979,16 +92127,16 @@
         <v>0</v>
       </c>
       <c r="AP497" s="1">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="AQ497" s="4" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="AR497" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AS497" s="4" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="AT497" s="1">
         <v>1119</v>
@@ -92012,7 +92160,7 @@
         <v>67</v>
       </c>
       <c r="BA497" s="3" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
     </row>
     <row r="498" spans="1:53" x14ac:dyDescent="0.25">
@@ -92020,19 +92168,19 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F498" s="4" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="G498" s="2">
         <v>45077</v>
@@ -92041,7 +92189,7 @@
         <v>45080</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="J498" s="3" t="s">
         <v>191</v>
@@ -92053,22 +92201,22 @@
         <v>0</v>
       </c>
       <c r="M498" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N498" s="3" t="s">
         <v>223</v>
       </c>
       <c r="O498" s="1">
-        <v>117000</v>
+        <v>126000</v>
       </c>
       <c r="P498" s="1">
-        <v>117000</v>
+        <v>126000</v>
       </c>
       <c r="Q498" s="2">
         <v>45062</v>
       </c>
       <c r="R498" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S498" s="4" t="s">
         <v>153</v>
@@ -92131,7 +92279,7 @@
         <v>76</v>
       </c>
       <c r="AS498" s="4" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="AT498" s="1">
         <v>1119</v>
@@ -92163,7 +92311,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>55</v>
@@ -92175,43 +92323,43 @@
         <v>57</v>
       </c>
       <c r="F499" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G499" s="2">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="H499" s="2">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="J499" s="3" t="s">
-        <v>1666</v>
+        <v>191</v>
       </c>
       <c r="K499" s="1">
         <v>1</v>
       </c>
       <c r="L499" s="1">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M499" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N499" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="O499" s="1">
-        <v>92000</v>
+        <v>117000</v>
       </c>
       <c r="P499" s="1">
-        <v>92000</v>
+        <v>117000</v>
       </c>
       <c r="Q499" s="2">
-        <v>44948</v>
+        <v>45062</v>
       </c>
       <c r="R499" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S499" s="4" t="s">
         <v>153</v>
@@ -92220,10 +92368,10 @@
         <v>87</v>
       </c>
       <c r="X499" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y499" s="4" t="s">
-        <v>521</v>
+        <v>108</v>
       </c>
       <c r="AB499" s="4" t="s">
         <v>27</v>
@@ -92235,10 +92383,10 @@
         <v>110</v>
       </c>
       <c r="AE499" s="1">
-        <v>25531</v>
+        <v>0</v>
       </c>
       <c r="AF499" s="1">
-        <v>25531</v>
+        <v>0</v>
       </c>
       <c r="AG499" s="1">
         <v>9</v>
@@ -92265,16 +92413,16 @@
         <v>0</v>
       </c>
       <c r="AP499" s="1">
-        <v>127</v>
-      </c>
-      <c r="AQ499" s="1" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="AQ499" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="AR499" s="4" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AS499" s="4" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="AT499" s="1">
         <v>1119</v>
@@ -92289,16 +92437,16 @@
         <v>92</v>
       </c>
       <c r="AX499" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY499" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ499" s="3" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="BA499" s="3" t="s">
-        <v>1075</v>
+        <v>68</v>
       </c>
     </row>
     <row r="500" spans="1:53" x14ac:dyDescent="0.25">
@@ -92318,40 +92466,43 @@
         <v>57</v>
       </c>
       <c r="F500" s="4" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="G500" s="2">
         <v>45079</v>
       </c>
+      <c r="H500" s="2">
+        <v>45085</v>
+      </c>
       <c r="I500" s="1" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="J500" s="3" t="s">
-        <v>191</v>
+        <v>1672</v>
       </c>
       <c r="K500" s="1">
         <v>1</v>
       </c>
       <c r="L500" s="1">
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M500" s="1">
         <v>1</v>
       </c>
       <c r="N500" s="3" t="s">
-        <v>1625</v>
+        <v>237</v>
       </c>
       <c r="O500" s="1">
-        <v>54000</v>
+        <v>92000</v>
       </c>
       <c r="P500" s="1">
-        <v>54000</v>
+        <v>92000</v>
       </c>
       <c r="Q500" s="2">
-        <v>45065</v>
+        <v>44948</v>
       </c>
       <c r="R500" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S500" s="4" t="s">
         <v>153</v>
@@ -92360,13 +92511,13 @@
         <v>87</v>
       </c>
       <c r="X500" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y500" s="4" t="s">
-        <v>238</v>
+        <v>521</v>
       </c>
       <c r="AB500" s="4" t="s">
-        <v>1671</v>
+        <v>27</v>
       </c>
       <c r="AC500" s="1">
         <v>110</v>
@@ -92375,10 +92526,10 @@
         <v>110</v>
       </c>
       <c r="AE500" s="1">
-        <v>0</v>
+        <v>25531</v>
       </c>
       <c r="AF500" s="1">
-        <v>0</v>
+        <v>25531</v>
       </c>
       <c r="AG500" s="1">
         <v>9</v>
@@ -92405,16 +92556,16 @@
         <v>0</v>
       </c>
       <c r="AP500" s="1">
-        <v>81</v>
-      </c>
-      <c r="AQ500" s="4" t="s">
-        <v>192</v>
+        <v>127</v>
+      </c>
+      <c r="AQ500" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="AR500" s="4" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AS500" s="4" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="AT500" s="1">
         <v>1119</v>
@@ -92429,16 +92580,16 @@
         <v>92</v>
       </c>
       <c r="AX500" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY500" s="4" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="AZ500" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="BA500" s="3" t="s">
-        <v>68</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="501" spans="1:53" x14ac:dyDescent="0.25">
@@ -92446,55 +92597,52 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F501" s="1" t="s">
+      <c r="F501" s="4" t="s">
         <v>1675</v>
       </c>
       <c r="G501" s="2">
-        <v>45083</v>
-      </c>
-      <c r="H501" s="2">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="I501" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="J501" s="3" t="s">
-        <v>1677</v>
+        <v>191</v>
       </c>
       <c r="K501" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L501" s="1">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="M501" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N501" s="3" t="s">
-        <v>1218</v>
+        <v>1631</v>
       </c>
       <c r="O501" s="1">
-        <v>107000</v>
+        <v>54000</v>
       </c>
       <c r="P501" s="1">
-        <v>214000</v>
+        <v>54000</v>
       </c>
       <c r="Q501" s="2">
-        <v>44992</v>
+        <v>45065</v>
       </c>
       <c r="R501" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S501" s="4" t="s">
         <v>153</v>
@@ -92503,13 +92651,13 @@
         <v>87</v>
       </c>
       <c r="X501" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Y501" s="4" t="s">
-        <v>1174</v>
+        <v>238</v>
       </c>
       <c r="AB501" s="4" t="s">
-        <v>27</v>
+        <v>1677</v>
       </c>
       <c r="AC501" s="1">
         <v>110</v>
@@ -92518,10 +92666,10 @@
         <v>110</v>
       </c>
       <c r="AE501" s="1">
-        <v>31501</v>
+        <v>0</v>
       </c>
       <c r="AF501" s="1">
-        <v>63002</v>
+        <v>0</v>
       </c>
       <c r="AG501" s="1">
         <v>9</v>
@@ -92548,13 +92696,13 @@
         <v>0</v>
       </c>
       <c r="AP501" s="1">
-        <v>127</v>
-      </c>
-      <c r="AQ501" s="1" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="AQ501" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="AR501" s="4" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AS501" s="4" t="s">
         <v>1678</v>
@@ -92572,16 +92720,16 @@
         <v>92</v>
       </c>
       <c r="AX501" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY501" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ501" s="3" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="BA501" s="3" t="s">
-        <v>416</v>
+        <v>68</v>
       </c>
     </row>
     <row r="502" spans="1:53" x14ac:dyDescent="0.25">
@@ -92604,10 +92752,10 @@
         <v>1681</v>
       </c>
       <c r="G502" s="2">
+        <v>45083</v>
+      </c>
+      <c r="H502" s="2">
         <v>45084</v>
-      </c>
-      <c r="H502" s="2">
-        <v>45086</v>
       </c>
       <c r="I502" s="1" t="s">
         <v>1682</v>
@@ -92616,28 +92764,28 @@
         <v>1683</v>
       </c>
       <c r="K502" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L502" s="1">
-        <v>7.3</v>
+        <v>19.8</v>
       </c>
       <c r="M502" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N502" s="3" t="s">
-        <v>152</v>
+        <v>1218</v>
       </c>
       <c r="O502" s="1">
-        <v>66000</v>
+        <v>107000</v>
       </c>
       <c r="P502" s="1">
-        <v>66000</v>
+        <v>214000</v>
       </c>
       <c r="Q502" s="2">
-        <v>45059</v>
+        <v>44992</v>
       </c>
       <c r="R502" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S502" s="4" t="s">
         <v>153</v>
@@ -92646,10 +92794,10 @@
         <v>87</v>
       </c>
       <c r="X502" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y502" s="4" t="s">
-        <v>1089</v>
+        <v>1174</v>
       </c>
       <c r="AB502" s="4" t="s">
         <v>27</v>
@@ -92661,10 +92809,10 @@
         <v>110</v>
       </c>
       <c r="AE502" s="1">
-        <v>23775</v>
+        <v>31501</v>
       </c>
       <c r="AF502" s="1">
-        <v>23775</v>
+        <v>63002</v>
       </c>
       <c r="AG502" s="1">
         <v>9</v>
@@ -92691,10 +92839,10 @@
         <v>0</v>
       </c>
       <c r="AP502" s="1">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="AQ502" s="1" t="s">
-        <v>1047</v>
+        <v>178</v>
       </c>
       <c r="AR502" s="4" t="s">
         <v>167</v>
@@ -92721,10 +92869,10 @@
         <v>93</v>
       </c>
       <c r="AZ502" s="3" t="s">
-        <v>679</v>
+        <v>181</v>
       </c>
       <c r="BA502" s="3" t="s">
-        <v>68</v>
+        <v>416</v>
       </c>
     </row>
     <row r="503" spans="1:53" x14ac:dyDescent="0.25">
@@ -92743,11 +92891,14 @@
       <c r="E503" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F503" s="4" t="s">
+      <c r="F503" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="G503" s="2">
-        <v>45092</v>
+        <v>45084</v>
+      </c>
+      <c r="H503" s="2">
+        <v>45086</v>
       </c>
       <c r="I503" s="1" t="s">
         <v>1688</v>
@@ -92756,28 +92907,28 @@
         <v>1689</v>
       </c>
       <c r="K503" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L503" s="1">
-        <v>17</v>
+        <v>7.3</v>
       </c>
       <c r="M503" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N503" s="3" t="s">
-        <v>1625</v>
+        <v>152</v>
       </c>
       <c r="O503" s="1">
-        <v>80000</v>
+        <v>66000</v>
       </c>
       <c r="P503" s="1">
-        <v>160000</v>
+        <v>66000</v>
       </c>
       <c r="Q503" s="2">
-        <v>45032</v>
+        <v>45059</v>
       </c>
       <c r="R503" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S503" s="4" t="s">
         <v>153</v>
@@ -92786,7 +92937,10 @@
         <v>87</v>
       </c>
       <c r="X503" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="Y503" s="4" t="s">
+        <v>1089</v>
       </c>
       <c r="AB503" s="4" t="s">
         <v>27</v>
@@ -92798,10 +92952,10 @@
         <v>110</v>
       </c>
       <c r="AE503" s="1">
-        <v>25951</v>
+        <v>23775</v>
       </c>
       <c r="AF503" s="1">
-        <v>51902</v>
+        <v>23775</v>
       </c>
       <c r="AG503" s="1">
         <v>9</v>
@@ -92828,13 +92982,13 @@
         <v>0</v>
       </c>
       <c r="AP503" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AQ503" s="1" t="s">
-        <v>534</v>
+        <v>1047</v>
       </c>
       <c r="AR503" s="4" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="AS503" s="4" t="s">
         <v>1690</v>
@@ -92852,13 +93006,13 @@
         <v>92</v>
       </c>
       <c r="AX503" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY503" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="AZ503" s="3" t="s">
-        <v>202</v>
+        <v>679</v>
       </c>
       <c r="BA503" s="3" t="s">
         <v>68</v>
@@ -92875,46 +93029,49 @@
         <v>55</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>1687</v>
+        <v>149</v>
       </c>
       <c r="G504" s="2">
+        <v>45089</v>
+      </c>
+      <c r="H504" s="2">
         <v>45092</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J504" s="3" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="K504" s="1">
         <v>1</v>
       </c>
       <c r="L504" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M504" s="1">
         <v>1</v>
       </c>
       <c r="N504" s="3" t="s">
-        <v>1625</v>
+        <v>152</v>
       </c>
       <c r="O504" s="1">
-        <v>48000</v>
+        <v>231000</v>
       </c>
       <c r="P504" s="1">
-        <v>48000</v>
+        <v>231000</v>
       </c>
       <c r="Q504" s="2">
-        <v>45032</v>
+        <v>45066</v>
       </c>
       <c r="R504" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S504" s="4" t="s">
         <v>153</v>
@@ -92923,10 +93080,13 @@
         <v>87</v>
       </c>
       <c r="X504" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y504" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB504" s="4" t="s">
-        <v>27</v>
+        <v>1677</v>
       </c>
       <c r="AC504" s="1">
         <v>110</v>
@@ -92935,10 +93095,10 @@
         <v>110</v>
       </c>
       <c r="AE504" s="1">
-        <v>15860</v>
+        <v>66717</v>
       </c>
       <c r="AF504" s="1">
-        <v>15860</v>
+        <v>66717</v>
       </c>
       <c r="AG504" s="1">
         <v>9</v>
@@ -92965,16 +93125,16 @@
         <v>0</v>
       </c>
       <c r="AP504" s="1">
-        <v>203</v>
-      </c>
-      <c r="AQ504" s="1" t="s">
-        <v>534</v>
+        <v>1</v>
+      </c>
+      <c r="AQ504" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AR504" s="4" t="s">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="AS504" s="4" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="AT504" s="1">
         <v>1119</v>
@@ -92983,19 +93143,19 @@
         <v>64</v>
       </c>
       <c r="AV504" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW504" s="4" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="AX504" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AY504" s="4" t="s">
-        <v>826</v>
+        <v>301</v>
       </c>
       <c r="AZ504" s="3" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="BA504" s="3" t="s">
         <v>68</v>
@@ -93006,52 +93166,52 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1686</v>
+        <v>1697</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F505" s="4" t="s">
-        <v>1687</v>
+        <v>1698</v>
       </c>
       <c r="G505" s="2">
         <v>45092</v>
       </c>
       <c r="I505" s="1" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="J505" s="3" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="K505" s="1">
         <v>2</v>
       </c>
       <c r="L505" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M505" s="1">
         <v>2</v>
       </c>
       <c r="N505" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O505" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="P505" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="Q505" s="2">
         <v>45032</v>
       </c>
       <c r="R505" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S505" s="4" t="s">
         <v>153</v>
@@ -93072,10 +93232,10 @@
         <v>110</v>
       </c>
       <c r="AE505" s="1">
-        <v>7563</v>
+        <v>25951</v>
       </c>
       <c r="AF505" s="1">
-        <v>15126</v>
+        <v>51902</v>
       </c>
       <c r="AG505" s="1">
         <v>9</v>
@@ -93111,7 +93271,7 @@
         <v>90</v>
       </c>
       <c r="AS505" s="4" t="s">
-        <v>1690</v>
+        <v>1701</v>
       </c>
       <c r="AT505" s="1">
         <v>1119</v>
@@ -93126,10 +93286,10 @@
         <v>92</v>
       </c>
       <c r="AX505" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AY505" s="4" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="AZ505" s="3" t="s">
         <v>202</v>
@@ -93143,52 +93303,52 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F506" s="1" t="s">
-        <v>1699</v>
+      <c r="F506" s="4" t="s">
+        <v>1698</v>
       </c>
       <c r="G506" s="2">
-        <v>45112</v>
+        <v>45092</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="J506" s="3" t="s">
-        <v>729</v>
+        <v>1704</v>
       </c>
       <c r="K506" s="1">
         <v>1</v>
       </c>
       <c r="L506" s="1">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="M506" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N506" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O506" s="1">
-        <v>222000</v>
+        <v>48000</v>
       </c>
       <c r="P506" s="1">
-        <v>222000</v>
+        <v>48000</v>
       </c>
       <c r="Q506" s="2">
-        <v>45059</v>
+        <v>45032</v>
       </c>
       <c r="R506" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S506" s="4" t="s">
         <v>153</v>
@@ -93197,10 +93357,7 @@
         <v>87</v>
       </c>
       <c r="X506" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y506" s="4" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AB506" s="4" t="s">
         <v>27</v>
@@ -93212,10 +93369,10 @@
         <v>110</v>
       </c>
       <c r="AE506" s="1">
-        <v>78002</v>
+        <v>15860</v>
       </c>
       <c r="AF506" s="1">
-        <v>78002</v>
+        <v>15860</v>
       </c>
       <c r="AG506" s="1">
         <v>9</v>
@@ -93242,13 +93399,13 @@
         <v>0</v>
       </c>
       <c r="AP506" s="1">
-        <v>64</v>
-      </c>
-      <c r="AQ506" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="AQ506" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="AR506" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AS506" s="4" t="s">
         <v>1701</v>
@@ -93266,13 +93423,13 @@
         <v>217</v>
       </c>
       <c r="AX506" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AY506" s="4" t="s">
-        <v>218</v>
+        <v>826</v>
       </c>
       <c r="AZ506" s="3" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="BA506" s="3" t="s">
         <v>68</v>
@@ -93283,52 +93440,52 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F507" s="1" t="s">
-        <v>1699</v>
+      <c r="F507" s="4" t="s">
+        <v>1698</v>
       </c>
       <c r="G507" s="2">
-        <v>45112</v>
+        <v>45092</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="J507" s="3" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="K507" s="1">
+        <v>2</v>
+      </c>
+      <c r="L507" s="1">
         <v>1</v>
       </c>
-      <c r="L507" s="1">
-        <v>10.3</v>
-      </c>
       <c r="M507" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N507" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O507" s="1">
-        <v>107000</v>
+        <v>25000</v>
       </c>
       <c r="P507" s="1">
-        <v>107000</v>
+        <v>50000</v>
       </c>
       <c r="Q507" s="2">
-        <v>45059</v>
+        <v>45032</v>
       </c>
       <c r="R507" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S507" s="4" t="s">
         <v>153</v>
@@ -93337,10 +93494,7 @@
         <v>87</v>
       </c>
       <c r="X507" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y507" s="4" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AB507" s="4" t="s">
         <v>27</v>
@@ -93352,10 +93506,10 @@
         <v>110</v>
       </c>
       <c r="AE507" s="1">
-        <v>33442</v>
+        <v>7563</v>
       </c>
       <c r="AF507" s="1">
-        <v>33442</v>
+        <v>15126</v>
       </c>
       <c r="AG507" s="1">
         <v>9</v>
@@ -93382,13 +93536,13 @@
         <v>0</v>
       </c>
       <c r="AP507" s="1">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="AQ507" s="1" t="s">
-        <v>178</v>
+        <v>534</v>
       </c>
       <c r="AR507" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AS507" s="4" t="s">
         <v>1701</v>
@@ -93406,16 +93560,16 @@
         <v>92</v>
       </c>
       <c r="AX507" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY507" s="4" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AZ507" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="BA507" s="3" t="s">
-        <v>1705</v>
+        <v>68</v>
       </c>
     </row>
     <row r="508" spans="1:53" x14ac:dyDescent="0.25">
@@ -93423,52 +93577,55 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1698</v>
+        <v>1579</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F508" s="1" t="s">
-        <v>1699</v>
+      <c r="F508" s="4" t="s">
+        <v>1579</v>
       </c>
       <c r="G508" s="2">
-        <v>45112</v>
+        <v>45096</v>
+      </c>
+      <c r="H508" s="2">
+        <v>45098</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="J508" s="3" t="s">
-        <v>1708</v>
+        <v>191</v>
       </c>
       <c r="K508" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L508" s="1">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="M508" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N508" s="3" t="s">
-        <v>1625</v>
+        <v>237</v>
       </c>
       <c r="O508" s="1">
-        <v>96000</v>
+        <v>52000</v>
       </c>
       <c r="P508" s="1">
-        <v>96000</v>
+        <v>260000</v>
       </c>
       <c r="Q508" s="2">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="R508" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S508" s="4" t="s">
         <v>153</v>
@@ -93483,7 +93640,7 @@
         <v>88</v>
       </c>
       <c r="AB508" s="4" t="s">
-        <v>27</v>
+        <v>1677</v>
       </c>
       <c r="AC508" s="1">
         <v>110</v>
@@ -93492,10 +93649,10 @@
         <v>110</v>
       </c>
       <c r="AE508" s="1">
-        <v>30215</v>
+        <v>0</v>
       </c>
       <c r="AF508" s="1">
-        <v>30215</v>
+        <v>0</v>
       </c>
       <c r="AG508" s="1">
         <v>9</v>
@@ -93522,16 +93679,16 @@
         <v>0</v>
       </c>
       <c r="AP508" s="1">
-        <v>127</v>
-      </c>
-      <c r="AQ508" s="1" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="AQ508" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="AR508" s="4" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AS508" s="4" t="s">
-        <v>1701</v>
+        <v>1710</v>
       </c>
       <c r="AT508" s="1">
         <v>1119</v>
@@ -93546,16 +93703,16 @@
         <v>92</v>
       </c>
       <c r="AX508" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY508" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ508" s="3" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="BA508" s="3" t="s">
-        <v>1705</v>
+        <v>68</v>
       </c>
     </row>
     <row r="509" spans="1:53" x14ac:dyDescent="0.25">
@@ -93563,52 +93720,55 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1698</v>
+        <v>1579</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F509" s="1" t="s">
-        <v>1699</v>
+      <c r="F509" s="4" t="s">
+        <v>1579</v>
       </c>
       <c r="G509" s="2">
-        <v>45112</v>
+        <v>45096</v>
+      </c>
+      <c r="H509" s="2">
+        <v>45098</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="J509" s="3" t="s">
-        <v>1711</v>
+        <v>191</v>
       </c>
       <c r="K509" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L509" s="1">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="M509" s="1">
         <v>1</v>
       </c>
       <c r="N509" s="3" t="s">
-        <v>1625</v>
+        <v>237</v>
       </c>
       <c r="O509" s="1">
-        <v>69000</v>
+        <v>56500</v>
       </c>
       <c r="P509" s="1">
-        <v>138000</v>
+        <v>56500</v>
       </c>
       <c r="Q509" s="2">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="R509" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S509" s="4" t="s">
         <v>153</v>
@@ -93623,7 +93783,7 @@
         <v>88</v>
       </c>
       <c r="AB509" s="4" t="s">
-        <v>27</v>
+        <v>1677</v>
       </c>
       <c r="AC509" s="1">
         <v>110</v>
@@ -93632,10 +93792,10 @@
         <v>110</v>
       </c>
       <c r="AE509" s="1">
-        <v>21596</v>
+        <v>0</v>
       </c>
       <c r="AF509" s="1">
-        <v>43192</v>
+        <v>0</v>
       </c>
       <c r="AG509" s="1">
         <v>9</v>
@@ -93662,16 +93822,16 @@
         <v>0</v>
       </c>
       <c r="AP509" s="1">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="AQ509" s="4" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="AR509" s="4" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AS509" s="4" t="s">
-        <v>1701</v>
+        <v>1710</v>
       </c>
       <c r="AT509" s="1">
         <v>1119</v>
@@ -93686,16 +93846,16 @@
         <v>92</v>
       </c>
       <c r="AX509" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY509" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ509" s="3" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="BA509" s="3" t="s">
-        <v>1712</v>
+        <v>68</v>
       </c>
     </row>
     <row r="510" spans="1:53" x14ac:dyDescent="0.25">
@@ -93709,46 +93869,46 @@
         <v>55</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1698</v>
+        <v>1714</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1699</v>
+        <v>1715</v>
       </c>
       <c r="G510" s="2">
         <v>45112</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="J510" s="3" t="s">
-        <v>1715</v>
+        <v>729</v>
       </c>
       <c r="K510" s="1">
         <v>1</v>
       </c>
       <c r="L510" s="1">
-        <v>36.5</v>
+        <v>6.8</v>
       </c>
       <c r="M510" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N510" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O510" s="1">
-        <v>270000</v>
+        <v>222000</v>
       </c>
       <c r="P510" s="1">
-        <v>270000</v>
+        <v>222000</v>
       </c>
       <c r="Q510" s="2">
         <v>45059</v>
       </c>
       <c r="R510" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S510" s="4" t="s">
         <v>153</v>
@@ -93772,10 +93932,10 @@
         <v>110</v>
       </c>
       <c r="AE510" s="1">
-        <v>90770</v>
+        <v>78002</v>
       </c>
       <c r="AF510" s="1">
-        <v>90770</v>
+        <v>78002</v>
       </c>
       <c r="AG510" s="1">
         <v>9</v>
@@ -93802,16 +93962,16 @@
         <v>0</v>
       </c>
       <c r="AP510" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="AQ510" s="4" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="AR510" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS510" s="4" t="s">
-        <v>1701</v>
+        <v>1717</v>
       </c>
       <c r="AT510" s="1">
         <v>1119</v>
@@ -93820,22 +93980,22 @@
         <v>64</v>
       </c>
       <c r="AV510" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW510" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX510" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AY510" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AZ510" s="3" t="s">
         <v>94</v>
       </c>
       <c r="BA510" s="3" t="s">
-        <v>1716</v>
+        <v>68</v>
       </c>
     </row>
     <row r="511" spans="1:53" x14ac:dyDescent="0.25">
@@ -93843,52 +94003,52 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1698</v>
+        <v>1714</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1699</v>
+        <v>1715</v>
       </c>
       <c r="G511" s="2">
         <v>45112</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J511" s="3" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="K511" s="1">
         <v>1</v>
       </c>
       <c r="L511" s="1">
-        <v>5.4</v>
+        <v>10.3</v>
       </c>
       <c r="M511" s="1">
         <v>1</v>
       </c>
       <c r="N511" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O511" s="1">
-        <v>97000</v>
+        <v>107000</v>
       </c>
       <c r="P511" s="1">
-        <v>97000</v>
+        <v>107000</v>
       </c>
       <c r="Q511" s="2">
         <v>45059</v>
       </c>
       <c r="R511" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S511" s="4" t="s">
         <v>153</v>
@@ -93912,10 +94072,10 @@
         <v>110</v>
       </c>
       <c r="AE511" s="1">
-        <v>32514</v>
+        <v>33442</v>
       </c>
       <c r="AF511" s="1">
-        <v>32514</v>
+        <v>33442</v>
       </c>
       <c r="AG511" s="1">
         <v>9</v>
@@ -93942,16 +94102,16 @@
         <v>0</v>
       </c>
       <c r="AP511" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ511" s="4" t="s">
-        <v>89</v>
+        <v>127</v>
+      </c>
+      <c r="AQ511" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="AR511" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS511" s="4" t="s">
-        <v>1701</v>
+        <v>1717</v>
       </c>
       <c r="AT511" s="1">
         <v>1119</v>
@@ -93966,16 +94126,16 @@
         <v>92</v>
       </c>
       <c r="AX511" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY511" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="AZ511" s="3" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="BA511" s="3" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="512" spans="1:53" x14ac:dyDescent="0.25">
@@ -93983,52 +94143,52 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1698</v>
+        <v>1714</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1699</v>
+        <v>1715</v>
       </c>
       <c r="G512" s="2">
         <v>45112</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="J512" s="3" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="K512" s="1">
         <v>1</v>
       </c>
       <c r="L512" s="1">
-        <v>5.0999999999999996</v>
+        <v>9.9</v>
       </c>
       <c r="M512" s="1">
         <v>1</v>
       </c>
       <c r="N512" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O512" s="1">
-        <v>64000</v>
+        <v>96000</v>
       </c>
       <c r="P512" s="1">
-        <v>64000</v>
+        <v>96000</v>
       </c>
       <c r="Q512" s="2">
         <v>45059</v>
       </c>
       <c r="R512" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S512" s="4" t="s">
         <v>153</v>
@@ -94052,10 +94212,10 @@
         <v>110</v>
       </c>
       <c r="AE512" s="1">
-        <v>21072</v>
+        <v>30215</v>
       </c>
       <c r="AF512" s="1">
-        <v>21072</v>
+        <v>30215</v>
       </c>
       <c r="AG512" s="1">
         <v>9</v>
@@ -94082,16 +94242,16 @@
         <v>0</v>
       </c>
       <c r="AP512" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ512" s="4" t="s">
-        <v>89</v>
+        <v>127</v>
+      </c>
+      <c r="AQ512" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="AR512" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS512" s="4" t="s">
-        <v>1701</v>
+        <v>1717</v>
       </c>
       <c r="AT512" s="1">
         <v>1119</v>
@@ -94100,22 +94260,22 @@
         <v>64</v>
       </c>
       <c r="AV512" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW512" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX512" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY512" s="4" t="s">
-        <v>826</v>
+        <v>93</v>
       </c>
       <c r="AZ512" s="3" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="BA512" s="3" t="s">
-        <v>68</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="513" spans="1:54" x14ac:dyDescent="0.25">
@@ -94123,52 +94283,52 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1698</v>
+        <v>1714</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1699</v>
+        <v>1715</v>
       </c>
       <c r="G513" s="2">
         <v>45112</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="J513" s="3" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="K513" s="1">
         <v>2</v>
       </c>
       <c r="L513" s="1">
-        <v>3.8</v>
+        <v>9.1</v>
       </c>
       <c r="M513" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N513" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O513" s="1">
-        <v>25000</v>
+        <v>69000</v>
       </c>
       <c r="P513" s="1">
-        <v>50000</v>
+        <v>138000</v>
       </c>
       <c r="Q513" s="2">
         <v>45059</v>
       </c>
       <c r="R513" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S513" s="4" t="s">
         <v>153</v>
@@ -94192,10 +94352,10 @@
         <v>110</v>
       </c>
       <c r="AE513" s="1">
-        <v>9032</v>
+        <v>21596</v>
       </c>
       <c r="AF513" s="1">
-        <v>18064</v>
+        <v>43192</v>
       </c>
       <c r="AG513" s="1">
         <v>9</v>
@@ -94222,16 +94382,16 @@
         <v>0</v>
       </c>
       <c r="AP513" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ513" s="4" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="AR513" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS513" s="4" t="s">
-        <v>1701</v>
+        <v>1717</v>
       </c>
       <c r="AT513" s="1">
         <v>1119</v>
@@ -94246,16 +94406,16 @@
         <v>92</v>
       </c>
       <c r="AX513" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY513" s="4" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="AZ513" s="3" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="BA513" s="3" t="s">
-        <v>1712</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="514" spans="1:54" x14ac:dyDescent="0.25">
@@ -94263,52 +94423,52 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>863</v>
+        <v>1714</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F514" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>1715</v>
       </c>
       <c r="G514" s="2">
-        <v>45170</v>
+        <v>45112</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>618</v>
+        <v>1730</v>
       </c>
       <c r="J514" s="3" t="s">
-        <v>619</v>
+        <v>1731</v>
       </c>
       <c r="K514" s="1">
         <v>1</v>
       </c>
       <c r="L514" s="1">
-        <v>8.8000000000000007</v>
+        <v>36.5</v>
       </c>
       <c r="M514" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N514" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O514" s="1">
-        <v>243000</v>
+        <v>270000</v>
       </c>
       <c r="P514" s="1">
-        <v>243000</v>
+        <v>270000</v>
       </c>
       <c r="Q514" s="2">
-        <v>44934</v>
+        <v>45059</v>
       </c>
       <c r="R514" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S514" s="4" t="s">
         <v>153</v>
@@ -94317,10 +94477,10 @@
         <v>87</v>
       </c>
       <c r="X514" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y514" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AB514" s="4" t="s">
         <v>27</v>
@@ -94332,10 +94492,10 @@
         <v>110</v>
       </c>
       <c r="AE514" s="1">
-        <v>59169</v>
+        <v>90770</v>
       </c>
       <c r="AF514" s="1">
-        <v>59169</v>
+        <v>90770</v>
       </c>
       <c r="AG514" s="1">
         <v>9</v>
@@ -94362,16 +94522,16 @@
         <v>0</v>
       </c>
       <c r="AP514" s="1">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="AQ514" s="4" t="s">
-        <v>620</v>
+        <v>89</v>
       </c>
       <c r="AR514" s="4" t="s">
-        <v>1727</v>
+        <v>76</v>
       </c>
       <c r="AS514" s="4" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="AT514" s="1">
         <v>1119</v>
@@ -94380,22 +94540,22 @@
         <v>64</v>
       </c>
       <c r="AV514" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW514" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX514" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AY514" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="AZ514" s="3" t="s">
-        <v>415</v>
+        <v>94</v>
       </c>
       <c r="BA514" s="3" t="s">
-        <v>68</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="515" spans="1:54" x14ac:dyDescent="0.25">
@@ -94403,52 +94563,52 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>863</v>
+        <v>1714</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F515" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>1715</v>
       </c>
       <c r="G515" s="2">
-        <v>45170</v>
+        <v>45112</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="J515" s="3" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="K515" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L515" s="1">
-        <v>48.6</v>
+        <v>5.4</v>
       </c>
       <c r="M515" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N515" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O515" s="1">
-        <v>83000</v>
+        <v>97000</v>
       </c>
       <c r="P515" s="1">
-        <v>498000</v>
+        <v>97000</v>
       </c>
       <c r="Q515" s="2">
-        <v>44934</v>
+        <v>45059</v>
       </c>
       <c r="R515" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S515" s="4" t="s">
         <v>153</v>
@@ -94457,10 +94617,10 @@
         <v>87</v>
       </c>
       <c r="X515" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y515" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AB515" s="4" t="s">
         <v>27</v>
@@ -94472,10 +94632,10 @@
         <v>110</v>
       </c>
       <c r="AE515" s="1">
-        <v>19330</v>
+        <v>32514</v>
       </c>
       <c r="AF515" s="1">
-        <v>115980</v>
+        <v>32514</v>
       </c>
       <c r="AG515" s="1">
         <v>9</v>
@@ -94502,16 +94662,16 @@
         <v>0</v>
       </c>
       <c r="AP515" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ515" s="1" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="AQ515" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AR515" s="4" t="s">
-        <v>1727</v>
+        <v>76</v>
       </c>
       <c r="AS515" s="4" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="AT515" s="1">
         <v>1119</v>
@@ -94526,16 +94686,16 @@
         <v>92</v>
       </c>
       <c r="AX515" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY515" s="4" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="AZ515" s="3" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="BA515" s="3" t="s">
-        <v>68</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="516" spans="1:54" x14ac:dyDescent="0.25">
@@ -94543,52 +94703,52 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>863</v>
+        <v>1714</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F516" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>1715</v>
       </c>
       <c r="G516" s="2">
-        <v>45170</v>
+        <v>45112</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="J516" s="3" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="K516" s="1">
         <v>1</v>
       </c>
       <c r="L516" s="1">
-        <v>38.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M516" s="1">
         <v>1</v>
       </c>
       <c r="N516" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O516" s="1">
-        <v>435000</v>
+        <v>64000</v>
       </c>
       <c r="P516" s="1">
-        <v>435000</v>
+        <v>64000</v>
       </c>
       <c r="Q516" s="2">
-        <v>44934</v>
+        <v>45059</v>
       </c>
       <c r="R516" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S516" s="4" t="s">
         <v>153</v>
@@ -94597,10 +94757,10 @@
         <v>87</v>
       </c>
       <c r="X516" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y516" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AB516" s="4" t="s">
         <v>27</v>
@@ -94612,10 +94772,10 @@
         <v>110</v>
       </c>
       <c r="AE516" s="1">
-        <v>133098</v>
+        <v>21072</v>
       </c>
       <c r="AF516" s="1">
-        <v>133098</v>
+        <v>21072</v>
       </c>
       <c r="AG516" s="1">
         <v>9</v>
@@ -94642,16 +94802,16 @@
         <v>0</v>
       </c>
       <c r="AP516" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ516" s="1" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="AQ516" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AR516" s="4" t="s">
-        <v>1727</v>
+        <v>76</v>
       </c>
       <c r="AS516" s="4" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="AT516" s="1">
         <v>1119</v>
@@ -94660,22 +94820,22 @@
         <v>64</v>
       </c>
       <c r="AV516" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW516" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX516" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY516" s="4" t="s">
-        <v>201</v>
+        <v>826</v>
       </c>
       <c r="AZ516" s="3" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="BA516" s="3" t="s">
-        <v>1735</v>
+        <v>68</v>
       </c>
     </row>
     <row r="517" spans="1:54" x14ac:dyDescent="0.25">
@@ -94683,52 +94843,52 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>863</v>
+        <v>1714</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F517" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>1715</v>
       </c>
       <c r="G517" s="2">
-        <v>45170</v>
+        <v>45112</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="J517" s="3" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="K517" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L517" s="1">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M517" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N517" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O517" s="1">
-        <v>66000</v>
+        <v>25000</v>
       </c>
       <c r="P517" s="1">
-        <v>66000</v>
+        <v>50000</v>
       </c>
       <c r="Q517" s="2">
-        <v>44934</v>
+        <v>45059</v>
       </c>
       <c r="R517" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S517" s="4" t="s">
         <v>153</v>
@@ -94737,10 +94897,10 @@
         <v>87</v>
       </c>
       <c r="X517" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y517" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AB517" s="4" t="s">
         <v>27</v>
@@ -94752,10 +94912,10 @@
         <v>110</v>
       </c>
       <c r="AE517" s="1">
-        <v>20982</v>
+        <v>9032</v>
       </c>
       <c r="AF517" s="1">
-        <v>20982</v>
+        <v>18064</v>
       </c>
       <c r="AG517" s="1">
         <v>9</v>
@@ -94782,16 +94942,16 @@
         <v>0</v>
       </c>
       <c r="AP517" s="1">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="AQ517" s="4" t="s">
-        <v>776</v>
+        <v>89</v>
       </c>
       <c r="AR517" s="4" t="s">
-        <v>1727</v>
+        <v>76</v>
       </c>
       <c r="AS517" s="4" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="AT517" s="1">
         <v>1119</v>
@@ -94806,16 +94966,16 @@
         <v>92</v>
       </c>
       <c r="AX517" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY517" s="4" t="s">
-        <v>826</v>
+        <v>194</v>
       </c>
       <c r="AZ517" s="3" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="BA517" s="3" t="s">
-        <v>68</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="518" spans="1:54" x14ac:dyDescent="0.25">
@@ -94823,7 +94983,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>55</v>
@@ -94841,34 +95001,34 @@
         <v>45170</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>1740</v>
+        <v>618</v>
       </c>
       <c r="J518" s="3" t="s">
-        <v>1741</v>
+        <v>619</v>
       </c>
       <c r="K518" s="1">
         <v>1</v>
       </c>
       <c r="L518" s="1">
-        <v>2.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M518" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N518" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O518" s="1">
-        <v>102000</v>
+        <v>243000</v>
       </c>
       <c r="P518" s="1">
-        <v>102000</v>
+        <v>243000</v>
       </c>
       <c r="Q518" s="2">
         <v>44934</v>
       </c>
       <c r="R518" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S518" s="4" t="s">
         <v>153</v>
@@ -94892,10 +95052,10 @@
         <v>110</v>
       </c>
       <c r="AE518" s="1">
-        <v>30100</v>
+        <v>59169</v>
       </c>
       <c r="AF518" s="1">
-        <v>30100</v>
+        <v>59169</v>
       </c>
       <c r="AG518" s="1">
         <v>9</v>
@@ -94922,16 +95082,16 @@
         <v>0</v>
       </c>
       <c r="AP518" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ518" s="1" t="s">
-        <v>264</v>
+        <v>167</v>
+      </c>
+      <c r="AQ518" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="AR518" s="4" t="s">
-        <v>1727</v>
+        <v>1743</v>
       </c>
       <c r="AS518" s="4" t="s">
-        <v>1728</v>
+        <v>1744</v>
       </c>
       <c r="AT518" s="1">
         <v>1119</v>
@@ -94946,13 +95106,13 @@
         <v>217</v>
       </c>
       <c r="AX518" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY518" s="4" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="AZ518" s="3" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="BA518" s="3" t="s">
         <v>68</v>
@@ -94963,52 +95123,52 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1743</v>
+        <v>863</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F519" s="4" t="s">
-        <v>1744</v>
+        <v>149</v>
       </c>
       <c r="G519" s="2">
         <v>45170</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J519" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="K519" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L519" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="M519" s="1">
         <v>6</v>
       </c>
-      <c r="M519" s="1">
-        <v>1</v>
-      </c>
       <c r="N519" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O519" s="1">
-        <v>70000</v>
+        <v>83000</v>
       </c>
       <c r="P519" s="1">
-        <v>70000</v>
+        <v>498000</v>
       </c>
       <c r="Q519" s="2">
-        <v>44984</v>
+        <v>44934</v>
       </c>
       <c r="R519" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S519" s="4" t="s">
         <v>153</v>
@@ -95017,7 +95177,10 @@
         <v>87</v>
       </c>
       <c r="X519" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y519" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB519" s="4" t="s">
         <v>27</v>
@@ -95029,10 +95192,10 @@
         <v>110</v>
       </c>
       <c r="AE519" s="1">
-        <v>0</v>
+        <v>19330</v>
       </c>
       <c r="AF519" s="1">
-        <v>0</v>
+        <v>115980</v>
       </c>
       <c r="AG519" s="1">
         <v>9</v>
@@ -95059,16 +95222,16 @@
         <v>0</v>
       </c>
       <c r="AP519" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ519" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="AQ519" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR519" s="4" t="s">
-        <v>90</v>
+        <v>1743</v>
       </c>
       <c r="AS519" s="4" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="AT519" s="1">
         <v>1119</v>
@@ -95083,16 +95246,16 @@
         <v>92</v>
       </c>
       <c r="AX519" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY519" s="4" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="AZ519" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="BA519" s="3" t="s">
-        <v>1748</v>
+        <v>68</v>
       </c>
     </row>
     <row r="520" spans="1:54" x14ac:dyDescent="0.25">
@@ -95100,52 +95263,52 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D520" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F520" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G520" s="2">
+        <v>45170</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J520" s="3" t="s">
         <v>1750</v>
       </c>
-      <c r="E520" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F520" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G520" s="2">
-        <v>45173</v>
-      </c>
-      <c r="I520" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="J520" s="3" t="s">
-        <v>1731</v>
-      </c>
       <c r="K520" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L520" s="1">
-        <v>16.2</v>
+        <v>38.4</v>
       </c>
       <c r="M520" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N520" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O520" s="1">
-        <v>83000</v>
+        <v>435000</v>
       </c>
       <c r="P520" s="1">
-        <v>166000</v>
+        <v>435000</v>
       </c>
       <c r="Q520" s="2">
-        <v>45057</v>
+        <v>44934</v>
       </c>
       <c r="R520" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S520" s="4" t="s">
         <v>153</v>
@@ -95154,10 +95317,13 @@
         <v>87</v>
       </c>
       <c r="X520" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y520" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB520" s="4" t="s">
-        <v>1671</v>
+        <v>27</v>
       </c>
       <c r="AC520" s="1">
         <v>110</v>
@@ -95166,10 +95332,10 @@
         <v>110</v>
       </c>
       <c r="AE520" s="1">
-        <v>19330</v>
+        <v>133098</v>
       </c>
       <c r="AF520" s="1">
-        <v>38660</v>
+        <v>133098</v>
       </c>
       <c r="AG520" s="1">
         <v>9</v>
@@ -95202,10 +95368,10 @@
         <v>264</v>
       </c>
       <c r="AR520" s="4" t="s">
-        <v>254</v>
+        <v>1743</v>
       </c>
       <c r="AS520" s="4" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="AT520" s="1">
         <v>1119</v>
@@ -95220,19 +95386,16 @@
         <v>92</v>
       </c>
       <c r="AX520" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY520" s="4" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="AZ520" s="3" t="s">
         <v>202</v>
       </c>
       <c r="BA520" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB520" s="3" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="521" spans="1:54" x14ac:dyDescent="0.25">
@@ -95240,52 +95403,52 @@
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>1750</v>
+        <v>863</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F521" s="4" t="s">
-        <v>1751</v>
+        <v>149</v>
       </c>
       <c r="G521" s="2">
-        <v>45173</v>
+        <v>45170</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="J521" s="3" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="K521" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L521" s="1">
-        <v>9.1</v>
+        <v>3</v>
       </c>
       <c r="M521" s="1">
         <v>1</v>
       </c>
       <c r="N521" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O521" s="1">
-        <v>68000</v>
+        <v>66000</v>
       </c>
       <c r="P521" s="1">
-        <v>136000</v>
+        <v>66000</v>
       </c>
       <c r="Q521" s="2">
-        <v>45057</v>
+        <v>44934</v>
       </c>
       <c r="R521" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S521" s="4" t="s">
         <v>153</v>
@@ -95294,10 +95457,13 @@
         <v>87</v>
       </c>
       <c r="X521" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y521" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB521" s="4" t="s">
-        <v>1671</v>
+        <v>27</v>
       </c>
       <c r="AC521" s="1">
         <v>110</v>
@@ -95306,10 +95472,10 @@
         <v>110</v>
       </c>
       <c r="AE521" s="1">
-        <v>17669</v>
+        <v>20982</v>
       </c>
       <c r="AF521" s="1">
-        <v>35338</v>
+        <v>20982</v>
       </c>
       <c r="AG521" s="1">
         <v>9</v>
@@ -95336,16 +95502,16 @@
         <v>0</v>
       </c>
       <c r="AP521" s="1">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AQ521" s="4" t="s">
-        <v>306</v>
+        <v>776</v>
       </c>
       <c r="AR521" s="4" t="s">
-        <v>254</v>
+        <v>1743</v>
       </c>
       <c r="AS521" s="4" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="AT521" s="1">
         <v>1119</v>
@@ -95360,19 +95526,16 @@
         <v>92</v>
       </c>
       <c r="AX521" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AY521" s="4" t="s">
-        <v>93</v>
+        <v>826</v>
       </c>
       <c r="AZ521" s="3" t="s">
         <v>202</v>
       </c>
       <c r="BA521" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="BB521" s="3" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="522" spans="1:54" x14ac:dyDescent="0.25">
@@ -95380,52 +95543,52 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1750</v>
+        <v>863</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F522" s="4" t="s">
-        <v>1751</v>
+        <v>149</v>
       </c>
       <c r="G522" s="2">
-        <v>45173</v>
+        <v>45170</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="J522" s="3" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="K522" s="1">
         <v>1</v>
       </c>
       <c r="L522" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="M522" s="1">
         <v>1</v>
       </c>
       <c r="N522" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O522" s="1">
-        <v>34000</v>
+        <v>102000</v>
       </c>
       <c r="P522" s="1">
-        <v>34000</v>
+        <v>102000</v>
       </c>
       <c r="Q522" s="2">
-        <v>45057</v>
+        <v>44934</v>
       </c>
       <c r="R522" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S522" s="4" t="s">
         <v>153</v>
@@ -95434,10 +95597,13 @@
         <v>87</v>
       </c>
       <c r="X522" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y522" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB522" s="4" t="s">
-        <v>1671</v>
+        <v>27</v>
       </c>
       <c r="AC522" s="1">
         <v>110</v>
@@ -95446,10 +95612,10 @@
         <v>110</v>
       </c>
       <c r="AE522" s="1">
-        <v>7184</v>
+        <v>30100</v>
       </c>
       <c r="AF522" s="1">
-        <v>7184</v>
+        <v>30100</v>
       </c>
       <c r="AG522" s="1">
         <v>9</v>
@@ -95476,16 +95642,16 @@
         <v>0</v>
       </c>
       <c r="AP522" s="1">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AQ522" s="1" t="s">
-        <v>413</v>
+        <v>264</v>
       </c>
       <c r="AR522" s="4" t="s">
-        <v>254</v>
+        <v>1743</v>
       </c>
       <c r="AS522" s="4" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="AT522" s="1">
         <v>1119</v>
@@ -95494,25 +95660,22 @@
         <v>64</v>
       </c>
       <c r="AV522" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW522" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX522" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY522" s="4" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AZ522" s="3" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="BA522" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="BB522" s="3" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="523" spans="1:54" x14ac:dyDescent="0.25">
@@ -95520,55 +95683,55 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1750</v>
+        <v>1759</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F523" s="4" t="s">
-        <v>1751</v>
+        <v>1760</v>
       </c>
       <c r="G523" s="2">
-        <v>45173</v>
-      </c>
-      <c r="I523" s="4" t="s">
-        <v>1764</v>
+        <v>45170</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>1761</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>114</v>
+        <v>1762</v>
       </c>
       <c r="K523" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L523" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M523" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N523" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O523" s="1">
-        <v>1900</v>
+        <v>70000</v>
       </c>
       <c r="P523" s="1">
-        <v>9500</v>
+        <v>70000</v>
       </c>
       <c r="Q523" s="2">
-        <v>45057</v>
+        <v>44984</v>
       </c>
       <c r="R523" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S523" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="U523" s="4" t="s">
         <v>87</v>
@@ -95577,7 +95740,7 @@
         <v>0</v>
       </c>
       <c r="AB523" s="4" t="s">
-        <v>1671</v>
+        <v>27</v>
       </c>
       <c r="AC523" s="1">
         <v>110</v>
@@ -95616,16 +95779,16 @@
         <v>0</v>
       </c>
       <c r="AP523" s="1">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="AQ523" s="4" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AR523" s="4" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="AS523" s="4" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="AT523" s="1">
         <v>1119</v>
@@ -95634,22 +95797,22 @@
         <v>64</v>
       </c>
       <c r="AV523" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW523" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AX523" s="1">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AY523" s="4" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="AZ523" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BA523" s="3" t="s">
-        <v>68</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="524" spans="1:54" x14ac:dyDescent="0.25">
@@ -95663,46 +95826,46 @@
         <v>55</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1750</v>
+        <v>1766</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>1751</v>
+        <v>1767</v>
       </c>
       <c r="G524" s="2">
         <v>45173</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J524" s="3" t="s">
-        <v>278</v>
+        <v>1747</v>
       </c>
       <c r="K524" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L524" s="1">
-        <v>10.9</v>
+        <v>16.2</v>
       </c>
       <c r="M524" s="1">
         <v>2</v>
       </c>
       <c r="N524" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O524" s="1">
-        <v>204000</v>
+        <v>83000</v>
       </c>
       <c r="P524" s="1">
-        <v>204000</v>
+        <v>166000</v>
       </c>
       <c r="Q524" s="2">
         <v>45057</v>
       </c>
       <c r="R524" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S524" s="4" t="s">
         <v>153</v>
@@ -95714,19 +95877,19 @@
         <v>0</v>
       </c>
       <c r="AB524" s="4" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="AC524" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AD524" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AE524" s="1">
-        <v>55491</v>
+        <v>19330</v>
       </c>
       <c r="AF524" s="1">
-        <v>55491</v>
+        <v>38660</v>
       </c>
       <c r="AG524" s="1">
         <v>9</v>
@@ -95753,16 +95916,16 @@
         <v>0</v>
       </c>
       <c r="AP524" s="1">
-        <v>180</v>
-      </c>
-      <c r="AQ524" s="4" t="s">
-        <v>279</v>
+        <v>78</v>
+      </c>
+      <c r="AQ524" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR524" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS524" s="4" t="s">
-        <v>1753</v>
+        <v>1769</v>
       </c>
       <c r="AT524" s="1">
         <v>1119</v>
@@ -95771,16 +95934,16 @@
         <v>64</v>
       </c>
       <c r="AV524" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW524" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX524" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AY524" s="4" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="AZ524" s="3" t="s">
         <v>202</v>
@@ -95789,7 +95952,7 @@
         <v>68</v>
       </c>
       <c r="BB524" s="3" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="525" spans="1:54" x14ac:dyDescent="0.25">
@@ -95797,55 +95960,55 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1750</v>
+        <v>1766</v>
       </c>
       <c r="E525" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F525" s="4" t="s">
-        <v>1751</v>
+        <v>1767</v>
       </c>
       <c r="G525" s="2">
         <v>45173</v>
       </c>
-      <c r="I525" s="4" t="s">
-        <v>609</v>
+      <c r="I525" s="1" t="s">
+        <v>1772</v>
       </c>
       <c r="J525" s="3" t="s">
-        <v>800</v>
+        <v>1773</v>
       </c>
       <c r="K525" s="1">
+        <v>2</v>
+      </c>
+      <c r="L525" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="M525" s="1">
         <v>1</v>
       </c>
-      <c r="L525" s="1">
-        <v>0</v>
-      </c>
-      <c r="M525" s="1">
-        <v>0</v>
-      </c>
       <c r="N525" s="3" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O525" s="1">
-        <v>17000</v>
+        <v>68000</v>
       </c>
       <c r="P525" s="1">
-        <v>17000</v>
+        <v>136000</v>
       </c>
       <c r="Q525" s="2">
         <v>45057</v>
       </c>
       <c r="R525" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="S525" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="U525" s="4" t="s">
         <v>87</v>
@@ -95854,19 +96017,19 @@
         <v>0</v>
       </c>
       <c r="AB525" s="4" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="AC525" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AD525" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AE525" s="1">
-        <v>0</v>
+        <v>17669</v>
       </c>
       <c r="AF525" s="1">
-        <v>0</v>
+        <v>35338</v>
       </c>
       <c r="AG525" s="1">
         <v>9</v>
@@ -95893,16 +96056,16 @@
         <v>0</v>
       </c>
       <c r="AP525" s="1">
-        <v>992</v>
+        <v>4</v>
       </c>
       <c r="AQ525" s="4" t="s">
-        <v>802</v>
+        <v>306</v>
       </c>
       <c r="AR525" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS525" s="4" t="s">
-        <v>1753</v>
+        <v>1769</v>
       </c>
       <c r="AT525" s="1">
         <v>1119</v>
@@ -95911,21 +96074,578 @@
         <v>64</v>
       </c>
       <c r="AV525" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW525" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX525" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY525" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ525" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA525" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB525" s="3" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="526" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F526" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G526" s="2">
+        <v>45173</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J526" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K526" s="1">
+        <v>1</v>
+      </c>
+      <c r="L526" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M526" s="1">
+        <v>1</v>
+      </c>
+      <c r="N526" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O526" s="1">
+        <v>34000</v>
+      </c>
+      <c r="P526" s="1">
+        <v>34000</v>
+      </c>
+      <c r="Q526" s="2">
+        <v>45057</v>
+      </c>
+      <c r="R526" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="S526" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U526" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X526" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB526" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AC526" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD526" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE526" s="1">
+        <v>7184</v>
+      </c>
+      <c r="AF526" s="1">
+        <v>7184</v>
+      </c>
+      <c r="AG526" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH526" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI526" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ526" s="1">
+        <v>901</v>
+      </c>
+      <c r="AK526" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL526" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM526" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN526" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP526" s="1">
+        <v>138</v>
+      </c>
+      <c r="AQ526" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AR526" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS526" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AT526" s="1">
+        <v>1119</v>
+      </c>
+      <c r="AU526" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV526" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW526" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX526" s="1">
+        <v>19</v>
+      </c>
+      <c r="AY526" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ526" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA526" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB526" s="3" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="527" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F527" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G527" s="2">
+        <v>45173</v>
+      </c>
+      <c r="I527" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J527" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K527" s="1">
+        <v>5</v>
+      </c>
+      <c r="L527" s="1">
+        <v>0</v>
+      </c>
+      <c r="M527" s="1">
+        <v>0</v>
+      </c>
+      <c r="N527" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O527" s="1">
+        <v>1900</v>
+      </c>
+      <c r="P527" s="1">
+        <v>9500</v>
+      </c>
+      <c r="Q527" s="2">
+        <v>45057</v>
+      </c>
+      <c r="R527" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="S527" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U527" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X527" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB527" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AC527" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD527" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE527" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF527" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG527" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH527" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI527" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ527" s="1">
+        <v>901</v>
+      </c>
+      <c r="AK527" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL527" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM527" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN527" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP527" s="1">
+        <v>92</v>
+      </c>
+      <c r="AQ527" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR527" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS527" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AT527" s="1">
+        <v>1119</v>
+      </c>
+      <c r="AU527" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV527" s="1">
         <v>2</v>
       </c>
-      <c r="AW525" s="4" t="s">
+      <c r="AW527" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AX525" s="1">
+      <c r="AX527" s="1">
         <v>99</v>
       </c>
-      <c r="AY525" s="4" t="s">
+      <c r="AY527" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AZ525" s="3" t="s">
+      <c r="AZ527" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BA525" s="3" t="s">
+      <c r="BA527" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="528" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F528" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G528" s="2">
+        <v>45173</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J528" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K528" s="1">
+        <v>1</v>
+      </c>
+      <c r="L528" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="M528" s="1">
+        <v>2</v>
+      </c>
+      <c r="N528" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O528" s="1">
+        <v>204000</v>
+      </c>
+      <c r="P528" s="1">
+        <v>204000</v>
+      </c>
+      <c r="Q528" s="2">
+        <v>45057</v>
+      </c>
+      <c r="R528" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="S528" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U528" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X528" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB528" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AC528" s="1">
+        <v>510</v>
+      </c>
+      <c r="AD528" s="1">
+        <v>510</v>
+      </c>
+      <c r="AE528" s="1">
+        <v>55491</v>
+      </c>
+      <c r="AF528" s="1">
+        <v>55491</v>
+      </c>
+      <c r="AG528" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH528" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI528" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ528" s="1">
+        <v>901</v>
+      </c>
+      <c r="AK528" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL528" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM528" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN528" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP528" s="1">
+        <v>180</v>
+      </c>
+      <c r="AQ528" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR528" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS528" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AT528" s="1">
+        <v>1119</v>
+      </c>
+      <c r="AU528" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV528" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW528" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX528" s="1">
+        <v>22</v>
+      </c>
+      <c r="AY528" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ528" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA528" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB528" s="3" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="529" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F529" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G529" s="2">
+        <v>45173</v>
+      </c>
+      <c r="I529" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="J529" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="K529" s="1">
+        <v>1</v>
+      </c>
+      <c r="L529" s="1">
+        <v>0</v>
+      </c>
+      <c r="M529" s="1">
+        <v>0</v>
+      </c>
+      <c r="N529" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O529" s="1">
+        <v>17000</v>
+      </c>
+      <c r="P529" s="1">
+        <v>17000</v>
+      </c>
+      <c r="Q529" s="2">
+        <v>45057</v>
+      </c>
+      <c r="R529" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="S529" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U529" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X529" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB529" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AC529" s="1">
+        <v>510</v>
+      </c>
+      <c r="AD529" s="1">
+        <v>510</v>
+      </c>
+      <c r="AE529" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF529" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG529" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH529" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI529" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ529" s="1">
+        <v>901</v>
+      </c>
+      <c r="AK529" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL529" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM529" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN529" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP529" s="1">
+        <v>992</v>
+      </c>
+      <c r="AQ529" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="AR529" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS529" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AT529" s="1">
+        <v>1119</v>
+      </c>
+      <c r="AU529" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV529" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW529" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX529" s="1">
+        <v>99</v>
+      </c>
+      <c r="AY529" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ529" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA529" s="3" t="s">
         <v>68</v>
       </c>
     </row>

--- a/data/shopsendai79j.xlsx
+++ b/data/shopsendai79j.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\pydrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D918E484-E13F-4808-ACAD-8A2A6A381A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E209ABB7-02DF-4A7A-8EB2-7819D6EA5E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="0" windowWidth="16200" windowHeight="12360" xr2:uid="{F3DC76A7-D804-4675-B33B-43D261923903}"/>
+    <workbookView xWindow="6840" yWindow="0" windowWidth="16200" windowHeight="12360" xr2:uid="{20F7C8D9-FA1F-488D-BA5A-5A1BA43E177E}"/>
   </bookViews>
   <sheets>
     <sheet name="受注委託移動在庫生産照会" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10115" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10136" uniqueCount="1789">
   <si>
     <t>№</t>
   </si>
@@ -20779,9 +20779,6 @@
     </r>
   </si>
   <si>
-    <t>07-04</t>
-  </si>
-  <si>
     <t>荒井　紗耶子様分</t>
   </si>
   <si>
@@ -21575,9 +21572,6 @@
     </r>
   </si>
   <si>
-    <t>未承認</t>
-  </si>
-  <si>
     <r>
       <t>杉浦</t>
     </r>
@@ -21603,14 +21597,21 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">22021186-1 </t>
-  </si>
-  <si>
-    <t>権田　一郎</t>
-  </si>
-  <si>
-    <r>
-      <t>TriValue</t>
+    <t xml:space="preserve">22029934-1 </t>
+  </si>
+  <si>
+    <r>
+      <t>庄子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21620,7 +21621,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>㈱　</t>
+      <t>照美</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TR220A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用座カバーのみ　ﾗﾑｰｽ</t>
     </r>
     <r>
       <rPr>
@@ -21630,7 +21646,25 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>TV</t>
+      <t>T4548</t>
+    </r>
+  </si>
+  <si>
+    <t>未承認</t>
+  </si>
+  <si>
+    <r>
+      <t>庄子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21640,12 +21674,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>木曾岬センター</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KX250AU2 WA CAITLIN</t>
+      <t>照美様　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6/5</t>
     </r>
     <r>
       <rPr>
@@ -21665,7 +21704,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">PEWTER </t>
+      <t>19</t>
     </r>
     <r>
       <rPr>
@@ -21675,15 +21714,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ｾﾐｱｰﾑﾁｪｱ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">KX250AU2   WA  97      </t>
-  </si>
-  <si>
-    <r>
-      <t>権田　一郎様　</t>
+      <t>時</t>
     </r>
     <r>
       <rPr>
@@ -21693,7 +21724,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>6/10</t>
+      <t>-21</t>
     </r>
     <r>
       <rPr>
@@ -21703,7 +21734,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>【</t>
+      <t>時</t>
     </r>
     <r>
       <rPr>
@@ -21713,7 +21744,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>TV</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -21723,14 +21754,14 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">22028663-1 </t>
-  </si>
-  <si>
-    <t>坂　和典</t>
+      <t>必着</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22021186-1 </t>
+  </si>
+  <si>
+    <t>権田　一郎</t>
   </si>
   <si>
     <r>
@@ -21764,12 +21795,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>神奈川センター</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HX251A UW </t>
+      <t>木曾岬センター</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KX250AU2 WA CAITLIN</t>
     </r>
     <r>
       <rPr>
@@ -21779,15 +21810,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ｾﾐｱｰﾑﾁｪｱ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">HX251A     UW          </t>
-  </si>
-  <si>
-    <r>
-      <t>坂　和典様　</t>
+      <t>　</t>
     </r>
     <r>
       <rPr>
@@ -21797,7 +21820,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>6/11</t>
+      <t xml:space="preserve">PEWTER </t>
     </r>
     <r>
       <rPr>
@@ -21807,7 +21830,15 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>　【</t>
+      <t>ｾﾐｱｰﾑﾁｪｱ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KX250AU2   WA  97      </t>
+  </si>
+  <si>
+    <r>
+      <t>権田　一郎様　</t>
     </r>
     <r>
       <rPr>
@@ -21817,7 +21848,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>TV</t>
+      <t>6/10</t>
     </r>
     <r>
       <rPr>
@@ -21827,18 +21858,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">22029580-1 </t>
-  </si>
-  <si>
-    <t>後藤　広</t>
-  </si>
-  <si>
-    <r>
-      <t>SN495 OF AV</t>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TV</t>
     </r>
     <r>
       <rPr>
@@ -21848,15 +21878,28 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ｷｬﾋﾞﾈｯﾄ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SN495      OF          </t>
-  </si>
-  <si>
-    <r>
-      <t>後藤　広様　</t>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22028663-1 </t>
+  </si>
+  <si>
+    <t>坂　和典</t>
+  </si>
+  <si>
+    <r>
+      <t>TriValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>㈱　</t>
     </r>
     <r>
       <rPr>
@@ -21866,21 +21909,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>6/17</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">22025414-1 </t>
-  </si>
-  <si>
-    <t>後藤　真吾</t>
-  </si>
-  <si>
-    <t>後日入力</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KH281AM WO </t>
+      <t>TV</t>
     </r>
     <r>
       <rPr>
@@ -21890,15 +21919,30 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ﾗｳﾝｼﾞﾁｪｱ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">KH281AM    WO          </t>
-  </si>
-  <si>
-    <r>
-      <t>後藤</t>
+      <t>神奈川センター</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HX251A UW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｾﾐｱｰﾑﾁｪｱ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HX251A     UW          </t>
+  </si>
+  <si>
+    <r>
+      <t>坂　和典様　</t>
     </r>
     <r>
       <rPr>
@@ -21908,7 +21952,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>6/11</t>
     </r>
     <r>
       <rPr>
@@ -21918,15 +21962,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>真吾様　開梱設置</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">22025414-2 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KH605M WO </t>
+      <t>　【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TV</t>
     </r>
     <r>
       <rPr>
@@ -21936,18 +21982,18 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ｻｲﾄﾞﾃｰﾌﾞﾙ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">KH605M     WO          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22025414-3 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KH681M WO </t>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22029580-1 </t>
+  </si>
+  <si>
+    <t>後藤　広</t>
+  </si>
+  <si>
+    <r>
+      <t>SN495 OF AV</t>
     </r>
     <r>
       <rPr>
@@ -21957,18 +22003,39 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>正座椅子</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">KH681M     WO          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22029554-1 </t>
-  </si>
-  <si>
-    <r>
-      <t>№6</t>
+      <t>ｷｬﾋﾞﾈｯﾄ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SN495      OF          </t>
+  </si>
+  <si>
+    <r>
+      <t>後藤　広様　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6/17</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22025414-1 </t>
+  </si>
+  <si>
+    <t>後藤　真吾</t>
+  </si>
+  <si>
+    <t>後日入力</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KH281AM WO </t>
     </r>
     <r>
       <rPr>
@@ -21978,7 +22045,18 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>用　背･座面ｸｯｼｮﾝ硬め仕様　ﾅﾍﾞﾀﾞｲﾗ</t>
+      <t>ﾗｳﾝｼﾞﾁｪｱ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KH281AM    WO          </t>
+  </si>
+  <si>
+    <t>07-04</t>
+  </si>
+  <si>
+    <r>
+      <t>後藤</t>
     </r>
     <r>
       <rPr>
@@ -21988,7 +22066,137 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>G</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>真吾様　開梱設置</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22025414-2 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KH605M WO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｻｲﾄﾞﾃｰﾌﾞﾙ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KH605M     WO          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22025414-3 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KH681M WO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正座椅子</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KH681M     WO          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22029554-1 </t>
+  </si>
+  <si>
+    <r>
+      <t>No.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾅﾍﾞﾀﾞｲﾗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｸｯｼｮﾝ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>硬め</t>
     </r>
   </si>
   <si>
@@ -23586,8 +23794,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58E6065-FAD9-4A76-9181-9A344CB4EC80}">
-  <dimension ref="A1:BB529"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2594A5-2E6E-4AE2-BCDD-D8C29C81AB9F}">
+  <dimension ref="A1:BB530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -89349,6 +89557,9 @@
       <c r="Y478" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="AA478" s="1">
+        <v>4691164822002</v>
+      </c>
       <c r="AB478" s="4" t="s">
         <v>27</v>
       </c>
@@ -90887,14 +91098,17 @@
         <v>1629</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>409</v>
+        <v>57</v>
       </c>
       <c r="F489" s="4" t="s">
-        <v>410</v>
+        <v>1629</v>
       </c>
       <c r="G489" s="2">
         <v>45075</v>
       </c>
+      <c r="H489" s="2">
+        <v>45077</v>
+      </c>
       <c r="I489" s="1" t="s">
         <v>1630</v>
       </c>
@@ -90911,7 +91125,7 @@
         <v>1</v>
       </c>
       <c r="N489" s="3" t="s">
-        <v>1631</v>
+        <v>223</v>
       </c>
       <c r="O489" s="1">
         <v>30000</v>
@@ -90989,7 +91203,7 @@
         <v>167</v>
       </c>
       <c r="AS489" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AT489" s="1">
         <v>1119</v>
@@ -91021,7 +91235,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>55</v>
@@ -91030,14 +91244,17 @@
         <v>1629</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>409</v>
+        <v>57</v>
       </c>
       <c r="F490" s="4" t="s">
-        <v>410</v>
+        <v>1629</v>
       </c>
       <c r="G490" s="2">
         <v>45075</v>
       </c>
+      <c r="H490" s="2">
+        <v>45077</v>
+      </c>
       <c r="I490" s="4" t="s">
         <v>474</v>
       </c>
@@ -91054,7 +91271,7 @@
         <v>0</v>
       </c>
       <c r="N490" s="3" t="s">
-        <v>1631</v>
+        <v>223</v>
       </c>
       <c r="O490" s="1">
         <v>8500</v>
@@ -91129,7 +91346,7 @@
         <v>167</v>
       </c>
       <c r="AS490" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AT490" s="1">
         <v>1119</v>
@@ -91161,13 +91378,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>148</v>
@@ -91182,10 +91399,10 @@
         <v>45080</v>
       </c>
       <c r="I491" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J491" s="3" t="s">
         <v>1636</v>
-      </c>
-      <c r="J491" s="3" t="s">
-        <v>1637</v>
       </c>
       <c r="K491" s="1">
         <v>2</v>
@@ -91266,13 +91483,13 @@
         <v>28</v>
       </c>
       <c r="AQ491" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AR491" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS491" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="AT491" s="1">
         <v>1119</v>
@@ -91299,7 +91516,7 @@
         <v>68</v>
       </c>
       <c r="BB491" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="492" spans="1:54" x14ac:dyDescent="0.25">
@@ -91307,13 +91524,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>148</v>
@@ -91328,7 +91545,7 @@
         <v>45080</v>
       </c>
       <c r="I492" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J492" s="3" t="s">
         <v>114</v>
@@ -91418,7 +91635,7 @@
         <v>76</v>
       </c>
       <c r="AS492" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="AT492" s="1">
         <v>1119</v>
@@ -91450,19 +91667,19 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F493" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G493" s="2">
         <v>45076</v>
@@ -91561,7 +91778,7 @@
         <v>129</v>
       </c>
       <c r="AS493" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="AT493" s="1">
         <v>1119</v>
@@ -91593,13 +91810,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>148</v>
@@ -91614,10 +91831,10 @@
         <v>45082</v>
       </c>
       <c r="I494" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J494" s="3" t="s">
         <v>1648</v>
-      </c>
-      <c r="J494" s="3" t="s">
-        <v>1649</v>
       </c>
       <c r="K494" s="1">
         <v>1</v>
@@ -91704,7 +91921,7 @@
         <v>76</v>
       </c>
       <c r="AS494" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="AT494" s="1">
         <v>1119</v>
@@ -91731,7 +91948,7 @@
         <v>416</v>
       </c>
       <c r="BB494" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="495" spans="1:54" x14ac:dyDescent="0.25">
@@ -91739,13 +91956,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>148</v>
@@ -91850,7 +92067,7 @@
         <v>90</v>
       </c>
       <c r="AS495" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AT495" s="1">
         <v>1119</v>
@@ -91882,13 +92099,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>148</v>
@@ -91903,10 +92120,10 @@
         <v>45082</v>
       </c>
       <c r="I496" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J496" s="3" t="s">
         <v>1656</v>
-      </c>
-      <c r="J496" s="3" t="s">
-        <v>1657</v>
       </c>
       <c r="K496" s="1">
         <v>1</v>
@@ -91993,7 +92210,7 @@
         <v>90</v>
       </c>
       <c r="AS496" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AT496" s="1">
         <v>1119</v>
@@ -92017,7 +92234,7 @@
         <v>67</v>
       </c>
       <c r="BA496" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="497" spans="1:53" x14ac:dyDescent="0.25">
@@ -92025,13 +92242,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>148</v>
@@ -92046,10 +92263,10 @@
         <v>45082</v>
       </c>
       <c r="I497" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J497" s="3" t="s">
         <v>1660</v>
-      </c>
-      <c r="J497" s="3" t="s">
-        <v>1661</v>
       </c>
       <c r="K497" s="1">
         <v>1</v>
@@ -92136,7 +92353,7 @@
         <v>90</v>
       </c>
       <c r="AS497" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AT497" s="1">
         <v>1119</v>
@@ -92168,19 +92385,19 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F498" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G498" s="2">
         <v>45077</v>
@@ -92189,7 +92406,7 @@
         <v>45080</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J498" s="3" t="s">
         <v>191</v>
@@ -92279,7 +92496,7 @@
         <v>76</v>
       </c>
       <c r="AS498" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AT498" s="1">
         <v>1119</v>
@@ -92311,19 +92528,19 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F499" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G499" s="2">
         <v>45077</v>
@@ -92332,7 +92549,7 @@
         <v>45080</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J499" s="3" t="s">
         <v>191</v>
@@ -92422,7 +92639,7 @@
         <v>76</v>
       </c>
       <c r="AS499" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AT499" s="1">
         <v>1119</v>
@@ -92454,19 +92671,19 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F500" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G500" s="2">
         <v>45079</v>
@@ -92475,10 +92692,10 @@
         <v>45085</v>
       </c>
       <c r="I500" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J500" s="3" t="s">
         <v>1671</v>
-      </c>
-      <c r="J500" s="3" t="s">
-        <v>1672</v>
       </c>
       <c r="K500" s="1">
         <v>1</v>
@@ -92565,7 +92782,7 @@
         <v>167</v>
       </c>
       <c r="AS500" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AT500" s="1">
         <v>1119</v>
@@ -92597,25 +92814,28 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F501" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G501" s="2">
         <v>45079</v>
       </c>
+      <c r="H501" s="2">
+        <v>45081</v>
+      </c>
       <c r="I501" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J501" s="3" t="s">
         <v>191</v>
@@ -92630,7 +92850,7 @@
         <v>1</v>
       </c>
       <c r="N501" s="3" t="s">
-        <v>1631</v>
+        <v>223</v>
       </c>
       <c r="O501" s="1">
         <v>54000</v>
@@ -92657,7 +92877,7 @@
         <v>238</v>
       </c>
       <c r="AB501" s="4" t="s">
-        <v>1677</v>
+        <v>27</v>
       </c>
       <c r="AC501" s="1">
         <v>110</v>
@@ -92705,7 +92925,7 @@
         <v>76</v>
       </c>
       <c r="AS501" s="4" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AT501" s="1">
         <v>1119</v>
@@ -92737,52 +92957,52 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F502" s="1" t="s">
-        <v>1681</v>
+      <c r="F502" s="4" t="s">
+        <v>1678</v>
       </c>
       <c r="G502" s="2">
-        <v>45083</v>
+        <v>45079</v>
       </c>
       <c r="H502" s="2">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="J502" s="3" t="s">
-        <v>1683</v>
+        <v>191</v>
       </c>
       <c r="K502" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L502" s="1">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="M502" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N502" s="3" t="s">
-        <v>1218</v>
+        <v>237</v>
       </c>
       <c r="O502" s="1">
-        <v>107000</v>
+        <v>19000</v>
       </c>
       <c r="P502" s="1">
-        <v>214000</v>
+        <v>76000</v>
       </c>
       <c r="Q502" s="2">
-        <v>44992</v>
+        <v>45068</v>
       </c>
       <c r="R502" s="4" t="s">
         <v>1588</v>
@@ -92794,13 +93014,13 @@
         <v>87</v>
       </c>
       <c r="X502" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="Y502" s="4" t="s">
-        <v>1174</v>
+        <v>108</v>
       </c>
       <c r="AB502" s="4" t="s">
-        <v>27</v>
+        <v>1680</v>
       </c>
       <c r="AC502" s="1">
         <v>110</v>
@@ -92809,10 +93029,10 @@
         <v>110</v>
       </c>
       <c r="AE502" s="1">
-        <v>31501</v>
+        <v>0</v>
       </c>
       <c r="AF502" s="1">
-        <v>63002</v>
+        <v>0</v>
       </c>
       <c r="AG502" s="1">
         <v>9</v>
@@ -92839,16 +93059,16 @@
         <v>0</v>
       </c>
       <c r="AP502" s="1">
-        <v>127</v>
-      </c>
-      <c r="AQ502" s="1" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="AQ502" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="AR502" s="4" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="AS502" s="4" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="AT502" s="1">
         <v>1119</v>
@@ -92863,16 +93083,16 @@
         <v>92</v>
       </c>
       <c r="AX502" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY502" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ502" s="3" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="BA502" s="3" t="s">
-        <v>416</v>
+        <v>68</v>
       </c>
     </row>
     <row r="503" spans="1:53" x14ac:dyDescent="0.25">
@@ -92880,52 +93100,52 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="G503" s="2">
+        <v>45083</v>
+      </c>
+      <c r="H503" s="2">
         <v>45084</v>
       </c>
-      <c r="H503" s="2">
-        <v>45086</v>
-      </c>
       <c r="I503" s="1" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="J503" s="3" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="K503" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L503" s="1">
-        <v>7.3</v>
+        <v>19.8</v>
       </c>
       <c r="M503" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N503" s="3" t="s">
-        <v>152</v>
+        <v>1218</v>
       </c>
       <c r="O503" s="1">
-        <v>66000</v>
+        <v>107000</v>
       </c>
       <c r="P503" s="1">
-        <v>66000</v>
+        <v>214000</v>
       </c>
       <c r="Q503" s="2">
-        <v>45059</v>
+        <v>44992</v>
       </c>
       <c r="R503" s="4" t="s">
         <v>1588</v>
@@ -92937,10 +93157,10 @@
         <v>87</v>
       </c>
       <c r="X503" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y503" s="4" t="s">
-        <v>1089</v>
+        <v>1174</v>
       </c>
       <c r="AB503" s="4" t="s">
         <v>27</v>
@@ -92952,10 +93172,10 @@
         <v>110</v>
       </c>
       <c r="AE503" s="1">
-        <v>23775</v>
+        <v>31501</v>
       </c>
       <c r="AF503" s="1">
-        <v>23775</v>
+        <v>63002</v>
       </c>
       <c r="AG503" s="1">
         <v>9</v>
@@ -92982,16 +93202,16 @@
         <v>0</v>
       </c>
       <c r="AP503" s="1">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="AQ503" s="1" t="s">
-        <v>1047</v>
+        <v>178</v>
       </c>
       <c r="AR503" s="4" t="s">
         <v>167</v>
       </c>
       <c r="AS503" s="4" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="AT503" s="1">
         <v>1119</v>
@@ -93012,10 +93232,10 @@
         <v>93</v>
       </c>
       <c r="AZ503" s="3" t="s">
-        <v>679</v>
+        <v>181</v>
       </c>
       <c r="BA503" s="3" t="s">
-        <v>68</v>
+        <v>416</v>
       </c>
     </row>
     <row r="504" spans="1:53" x14ac:dyDescent="0.25">
@@ -93023,37 +93243,37 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D504" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G504" s="2">
+        <v>45084</v>
+      </c>
+      <c r="H504" s="2">
+        <v>45086</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J504" s="3" t="s">
         <v>1692</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F504" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G504" s="2">
-        <v>45089</v>
-      </c>
-      <c r="H504" s="2">
-        <v>45092</v>
-      </c>
-      <c r="I504" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="J504" s="3" t="s">
-        <v>1694</v>
       </c>
       <c r="K504" s="1">
         <v>1</v>
       </c>
       <c r="L504" s="1">
-        <v>12</v>
+        <v>7.3</v>
       </c>
       <c r="M504" s="1">
         <v>1</v>
@@ -93062,13 +93282,13 @@
         <v>152</v>
       </c>
       <c r="O504" s="1">
-        <v>231000</v>
+        <v>66000</v>
       </c>
       <c r="P504" s="1">
-        <v>231000</v>
+        <v>66000</v>
       </c>
       <c r="Q504" s="2">
-        <v>45066</v>
+        <v>45059</v>
       </c>
       <c r="R504" s="4" t="s">
         <v>1588</v>
@@ -93080,13 +93300,13 @@
         <v>87</v>
       </c>
       <c r="X504" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y504" s="4" t="s">
-        <v>108</v>
+        <v>1089</v>
       </c>
       <c r="AB504" s="4" t="s">
-        <v>1677</v>
+        <v>27</v>
       </c>
       <c r="AC504" s="1">
         <v>110</v>
@@ -93095,10 +93315,10 @@
         <v>110</v>
       </c>
       <c r="AE504" s="1">
-        <v>66717</v>
+        <v>23775</v>
       </c>
       <c r="AF504" s="1">
-        <v>66717</v>
+        <v>23775</v>
       </c>
       <c r="AG504" s="1">
         <v>9</v>
@@ -93125,16 +93345,16 @@
         <v>0</v>
       </c>
       <c r="AP504" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ504" s="4" t="s">
-        <v>89</v>
+        <v>205</v>
+      </c>
+      <c r="AQ504" s="1" t="s">
+        <v>1047</v>
       </c>
       <c r="AR504" s="4" t="s">
-        <v>621</v>
+        <v>167</v>
       </c>
       <c r="AS504" s="4" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="AT504" s="1">
         <v>1119</v>
@@ -93143,19 +93363,19 @@
         <v>64</v>
       </c>
       <c r="AV504" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW504" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AX504" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AY504" s="4" t="s">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="AZ504" s="3" t="s">
-        <v>94</v>
+        <v>679</v>
       </c>
       <c r="BA504" s="3" t="s">
         <v>68</v>
@@ -93166,49 +93386,52 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D505" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F505" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G505" s="2">
+        <v>45089</v>
+      </c>
+      <c r="H505" s="2">
+        <v>45092</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J505" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="E505" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F505" s="4" t="s">
-        <v>1698</v>
-      </c>
-      <c r="G505" s="2">
-        <v>45092</v>
-      </c>
-      <c r="I505" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="J505" s="3" t="s">
-        <v>1700</v>
-      </c>
       <c r="K505" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L505" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M505" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N505" s="3" t="s">
-        <v>1631</v>
+        <v>152</v>
       </c>
       <c r="O505" s="1">
-        <v>80000</v>
+        <v>231000</v>
       </c>
       <c r="P505" s="1">
-        <v>160000</v>
+        <v>231000</v>
       </c>
       <c r="Q505" s="2">
-        <v>45032</v>
+        <v>45066</v>
       </c>
       <c r="R505" s="4" t="s">
         <v>1588</v>
@@ -93220,7 +93443,10 @@
         <v>87</v>
       </c>
       <c r="X505" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y505" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB505" s="4" t="s">
         <v>27</v>
@@ -93232,10 +93458,10 @@
         <v>110</v>
       </c>
       <c r="AE505" s="1">
-        <v>25951</v>
+        <v>66717</v>
       </c>
       <c r="AF505" s="1">
-        <v>51902</v>
+        <v>66717</v>
       </c>
       <c r="AG505" s="1">
         <v>9</v>
@@ -93262,16 +93488,16 @@
         <v>0</v>
       </c>
       <c r="AP505" s="1">
-        <v>203</v>
-      </c>
-      <c r="AQ505" s="1" t="s">
-        <v>534</v>
+        <v>1</v>
+      </c>
+      <c r="AQ505" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AR505" s="4" t="s">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="AS505" s="4" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="AT505" s="1">
         <v>1119</v>
@@ -93280,19 +93506,19 @@
         <v>64</v>
       </c>
       <c r="AV505" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW505" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="AX505" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AY505" s="4" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AZ505" s="3" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="BA505" s="3" t="s">
         <v>68</v>
@@ -93303,46 +93529,46 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="G506" s="2">
         <v>45092</v>
       </c>
       <c r="I506" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J506" s="3" t="s">
         <v>1703</v>
       </c>
-      <c r="J506" s="3" t="s">
+      <c r="K506" s="1">
+        <v>2</v>
+      </c>
+      <c r="L506" s="1">
+        <v>17</v>
+      </c>
+      <c r="M506" s="1">
+        <v>2</v>
+      </c>
+      <c r="N506" s="3" t="s">
         <v>1704</v>
       </c>
-      <c r="K506" s="1">
-        <v>1</v>
-      </c>
-      <c r="L506" s="1">
-        <v>5</v>
-      </c>
-      <c r="M506" s="1">
-        <v>1</v>
-      </c>
-      <c r="N506" s="3" t="s">
-        <v>1631</v>
-      </c>
       <c r="O506" s="1">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="P506" s="1">
-        <v>48000</v>
+        <v>160000</v>
       </c>
       <c r="Q506" s="2">
         <v>45032</v>
@@ -93369,10 +93595,10 @@
         <v>110</v>
       </c>
       <c r="AE506" s="1">
-        <v>15860</v>
+        <v>25951</v>
       </c>
       <c r="AF506" s="1">
-        <v>15860</v>
+        <v>51902</v>
       </c>
       <c r="AG506" s="1">
         <v>9</v>
@@ -93408,7 +93634,7 @@
         <v>90</v>
       </c>
       <c r="AS506" s="4" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="AT506" s="1">
         <v>1119</v>
@@ -93417,16 +93643,16 @@
         <v>64</v>
       </c>
       <c r="AV506" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW506" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX506" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY506" s="4" t="s">
-        <v>826</v>
+        <v>201</v>
       </c>
       <c r="AZ506" s="3" t="s">
         <v>202</v>
@@ -93440,46 +93666,46 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F507" s="4" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="G507" s="2">
         <v>45092</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J507" s="3" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="K507" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L507" s="1">
+        <v>5</v>
+      </c>
+      <c r="M507" s="1">
         <v>1</v>
       </c>
-      <c r="M507" s="1">
-        <v>2</v>
-      </c>
       <c r="N507" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O507" s="1">
-        <v>25000</v>
+        <v>48000</v>
       </c>
       <c r="P507" s="1">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="Q507" s="2">
         <v>45032</v>
@@ -93506,10 +93732,10 @@
         <v>110</v>
       </c>
       <c r="AE507" s="1">
-        <v>7563</v>
+        <v>15860</v>
       </c>
       <c r="AF507" s="1">
-        <v>15126</v>
+        <v>15860</v>
       </c>
       <c r="AG507" s="1">
         <v>9</v>
@@ -93545,7 +93771,7 @@
         <v>90</v>
       </c>
       <c r="AS507" s="4" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="AT507" s="1">
         <v>1119</v>
@@ -93554,16 +93780,16 @@
         <v>64</v>
       </c>
       <c r="AV507" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW507" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX507" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY507" s="4" t="s">
-        <v>132</v>
+        <v>826</v>
       </c>
       <c r="AZ507" s="3" t="s">
         <v>202</v>
@@ -93577,52 +93803,49 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1579</v>
+        <v>1700</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F508" s="4" t="s">
-        <v>1579</v>
+        <v>1701</v>
       </c>
       <c r="G508" s="2">
-        <v>45096</v>
-      </c>
-      <c r="H508" s="2">
-        <v>45098</v>
+        <v>45092</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="J508" s="3" t="s">
-        <v>191</v>
+        <v>1711</v>
       </c>
       <c r="K508" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L508" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M508" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N508" s="3" t="s">
-        <v>237</v>
+        <v>1704</v>
       </c>
       <c r="O508" s="1">
-        <v>52000</v>
+        <v>25000</v>
       </c>
       <c r="P508" s="1">
-        <v>260000</v>
+        <v>50000</v>
       </c>
       <c r="Q508" s="2">
-        <v>45066</v>
+        <v>45032</v>
       </c>
       <c r="R508" s="4" t="s">
         <v>1588</v>
@@ -93634,13 +93857,10 @@
         <v>87</v>
       </c>
       <c r="X508" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y508" s="4" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AB508" s="4" t="s">
-        <v>1677</v>
+        <v>27</v>
       </c>
       <c r="AC508" s="1">
         <v>110</v>
@@ -93649,10 +93869,10 @@
         <v>110</v>
       </c>
       <c r="AE508" s="1">
-        <v>0</v>
+        <v>7563</v>
       </c>
       <c r="AF508" s="1">
-        <v>0</v>
+        <v>15126</v>
       </c>
       <c r="AG508" s="1">
         <v>9</v>
@@ -93679,16 +93899,16 @@
         <v>0</v>
       </c>
       <c r="AP508" s="1">
-        <v>81</v>
-      </c>
-      <c r="AQ508" s="4" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="AQ508" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="AR508" s="4" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="AS508" s="4" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="AT508" s="1">
         <v>1119</v>
@@ -93703,13 +93923,13 @@
         <v>92</v>
       </c>
       <c r="AX508" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY508" s="4" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="AZ508" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="BA508" s="3" t="s">
         <v>68</v>
@@ -93720,7 +93940,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>55</v>
@@ -93741,16 +93961,16 @@
         <v>45098</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J509" s="3" t="s">
-        <v>191</v>
+        <v>1543</v>
       </c>
       <c r="K509" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L509" s="1">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="M509" s="1">
         <v>1</v>
@@ -93759,10 +93979,10 @@
         <v>237</v>
       </c>
       <c r="O509" s="1">
-        <v>56500</v>
+        <v>52000</v>
       </c>
       <c r="P509" s="1">
-        <v>56500</v>
+        <v>260000</v>
       </c>
       <c r="Q509" s="2">
         <v>45066</v>
@@ -93783,7 +94003,7 @@
         <v>88</v>
       </c>
       <c r="AB509" s="4" t="s">
-        <v>1677</v>
+        <v>27</v>
       </c>
       <c r="AC509" s="1">
         <v>110</v>
@@ -93792,10 +94012,10 @@
         <v>110</v>
       </c>
       <c r="AE509" s="1">
-        <v>0</v>
+        <v>12808</v>
       </c>
       <c r="AF509" s="1">
-        <v>0</v>
+        <v>64040</v>
       </c>
       <c r="AG509" s="1">
         <v>9</v>
@@ -93822,16 +94042,16 @@
         <v>0</v>
       </c>
       <c r="AP509" s="1">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="AQ509" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AR509" s="4" t="s">
         <v>167</v>
       </c>
       <c r="AS509" s="4" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="AT509" s="1">
         <v>1119</v>
@@ -93855,7 +94075,7 @@
         <v>67</v>
       </c>
       <c r="BA509" s="3" t="s">
-        <v>68</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="510" spans="1:53" x14ac:dyDescent="0.25">
@@ -93863,49 +94083,52 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1714</v>
+        <v>1579</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F510" s="1" t="s">
-        <v>1715</v>
+      <c r="F510" s="4" t="s">
+        <v>1579</v>
       </c>
       <c r="G510" s="2">
-        <v>45112</v>
+        <v>45096</v>
+      </c>
+      <c r="H510" s="2">
+        <v>45098</v>
       </c>
       <c r="I510" s="1" t="s">
         <v>1716</v>
       </c>
       <c r="J510" s="3" t="s">
-        <v>729</v>
+        <v>191</v>
       </c>
       <c r="K510" s="1">
         <v>1</v>
       </c>
       <c r="L510" s="1">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="M510" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N510" s="3" t="s">
-        <v>1631</v>
+        <v>237</v>
       </c>
       <c r="O510" s="1">
-        <v>222000</v>
+        <v>56500</v>
       </c>
       <c r="P510" s="1">
-        <v>222000</v>
+        <v>56500</v>
       </c>
       <c r="Q510" s="2">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="R510" s="4" t="s">
         <v>1588</v>
@@ -93932,10 +94155,10 @@
         <v>110</v>
       </c>
       <c r="AE510" s="1">
-        <v>78002</v>
+        <v>0</v>
       </c>
       <c r="AF510" s="1">
-        <v>78002</v>
+        <v>0</v>
       </c>
       <c r="AG510" s="1">
         <v>9</v>
@@ -93962,16 +94185,16 @@
         <v>0</v>
       </c>
       <c r="AP510" s="1">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AQ510" s="4" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="AR510" s="4" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AS510" s="4" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="AT510" s="1">
         <v>1119</v>
@@ -93980,19 +94203,19 @@
         <v>64</v>
       </c>
       <c r="AV510" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW510" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX510" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AY510" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="AZ510" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="BA510" s="3" t="s">
         <v>68</v>
@@ -94003,46 +94226,46 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G511" s="2">
         <v>45112</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="J511" s="3" t="s">
-        <v>1720</v>
+        <v>729</v>
       </c>
       <c r="K511" s="1">
         <v>1</v>
       </c>
       <c r="L511" s="1">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="M511" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N511" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O511" s="1">
-        <v>107000</v>
+        <v>222000</v>
       </c>
       <c r="P511" s="1">
-        <v>107000</v>
+        <v>222000</v>
       </c>
       <c r="Q511" s="2">
         <v>45059</v>
@@ -94072,10 +94295,10 @@
         <v>110</v>
       </c>
       <c r="AE511" s="1">
-        <v>33442</v>
+        <v>78002</v>
       </c>
       <c r="AF511" s="1">
-        <v>33442</v>
+        <v>78002</v>
       </c>
       <c r="AG511" s="1">
         <v>9</v>
@@ -94102,16 +94325,16 @@
         <v>0</v>
       </c>
       <c r="AP511" s="1">
-        <v>127</v>
-      </c>
-      <c r="AQ511" s="1" t="s">
-        <v>178</v>
+        <v>64</v>
+      </c>
+      <c r="AQ511" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="AR511" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS511" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AT511" s="1">
         <v>1119</v>
@@ -94120,22 +94343,22 @@
         <v>64</v>
       </c>
       <c r="AV511" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW511" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX511" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AY511" s="4" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="AZ511" s="3" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="BA511" s="3" t="s">
-        <v>1721</v>
+        <v>68</v>
       </c>
     </row>
     <row r="512" spans="1:53" x14ac:dyDescent="0.25">
@@ -94149,13 +94372,13 @@
         <v>55</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G512" s="2">
         <v>45112</v>
@@ -94170,19 +94393,19 @@
         <v>1</v>
       </c>
       <c r="L512" s="1">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="M512" s="1">
         <v>1</v>
       </c>
       <c r="N512" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O512" s="1">
-        <v>96000</v>
+        <v>107000</v>
       </c>
       <c r="P512" s="1">
-        <v>96000</v>
+        <v>107000</v>
       </c>
       <c r="Q512" s="2">
         <v>45059</v>
@@ -94212,10 +94435,10 @@
         <v>110</v>
       </c>
       <c r="AE512" s="1">
-        <v>30215</v>
+        <v>33442</v>
       </c>
       <c r="AF512" s="1">
-        <v>30215</v>
+        <v>33442</v>
       </c>
       <c r="AG512" s="1">
         <v>9</v>
@@ -94251,7 +94474,7 @@
         <v>76</v>
       </c>
       <c r="AS512" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AT512" s="1">
         <v>1119</v>
@@ -94275,7 +94498,7 @@
         <v>210</v>
       </c>
       <c r="BA512" s="3" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="513" spans="1:54" x14ac:dyDescent="0.25">
@@ -94283,46 +94506,46 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G513" s="2">
         <v>45112</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="J513" s="3" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="K513" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L513" s="1">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="M513" s="1">
         <v>1</v>
       </c>
       <c r="N513" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O513" s="1">
-        <v>69000</v>
+        <v>96000</v>
       </c>
       <c r="P513" s="1">
-        <v>138000</v>
+        <v>96000</v>
       </c>
       <c r="Q513" s="2">
         <v>45059</v>
@@ -94352,10 +94575,10 @@
         <v>110</v>
       </c>
       <c r="AE513" s="1">
-        <v>21596</v>
+        <v>30215</v>
       </c>
       <c r="AF513" s="1">
-        <v>43192</v>
+        <v>30215</v>
       </c>
       <c r="AG513" s="1">
         <v>9</v>
@@ -94382,16 +94605,16 @@
         <v>0</v>
       </c>
       <c r="AP513" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ513" s="4" t="s">
-        <v>306</v>
+        <v>127</v>
+      </c>
+      <c r="AQ513" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="AR513" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS513" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AT513" s="1">
         <v>1119</v>
@@ -94415,7 +94638,7 @@
         <v>210</v>
       </c>
       <c r="BA513" s="3" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="514" spans="1:54" x14ac:dyDescent="0.25">
@@ -94429,13 +94652,13 @@
         <v>55</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G514" s="2">
         <v>45112</v>
@@ -94447,22 +94670,22 @@
         <v>1731</v>
       </c>
       <c r="K514" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L514" s="1">
-        <v>36.5</v>
+        <v>9.1</v>
       </c>
       <c r="M514" s="1">
         <v>1</v>
       </c>
       <c r="N514" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O514" s="1">
-        <v>270000</v>
+        <v>69000</v>
       </c>
       <c r="P514" s="1">
-        <v>270000</v>
+        <v>138000</v>
       </c>
       <c r="Q514" s="2">
         <v>45059</v>
@@ -94492,10 +94715,10 @@
         <v>110</v>
       </c>
       <c r="AE514" s="1">
-        <v>90770</v>
+        <v>21596</v>
       </c>
       <c r="AF514" s="1">
-        <v>90770</v>
+        <v>43192</v>
       </c>
       <c r="AG514" s="1">
         <v>9</v>
@@ -94522,16 +94745,16 @@
         <v>0</v>
       </c>
       <c r="AP514" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ514" s="4" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="AR514" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AS514" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AT514" s="1">
         <v>1119</v>
@@ -94546,13 +94769,13 @@
         <v>92</v>
       </c>
       <c r="AX514" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY514" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="AZ514" s="3" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="BA514" s="3" t="s">
         <v>1732</v>
@@ -94569,13 +94792,13 @@
         <v>55</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G515" s="2">
         <v>45112</v>
@@ -94590,19 +94813,19 @@
         <v>1</v>
       </c>
       <c r="L515" s="1">
-        <v>5.4</v>
+        <v>36.5</v>
       </c>
       <c r="M515" s="1">
         <v>1</v>
       </c>
       <c r="N515" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O515" s="1">
-        <v>97000</v>
+        <v>270000</v>
       </c>
       <c r="P515" s="1">
-        <v>97000</v>
+        <v>270000</v>
       </c>
       <c r="Q515" s="2">
         <v>45059</v>
@@ -94632,10 +94855,10 @@
         <v>110</v>
       </c>
       <c r="AE515" s="1">
-        <v>32514</v>
+        <v>90770</v>
       </c>
       <c r="AF515" s="1">
-        <v>32514</v>
+        <v>90770</v>
       </c>
       <c r="AG515" s="1">
         <v>9</v>
@@ -94671,7 +94894,7 @@
         <v>76</v>
       </c>
       <c r="AS515" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AT515" s="1">
         <v>1119</v>
@@ -94695,7 +94918,7 @@
         <v>94</v>
       </c>
       <c r="BA515" s="3" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="516" spans="1:54" x14ac:dyDescent="0.25">
@@ -94703,46 +94926,46 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G516" s="2">
         <v>45112</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="J516" s="3" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="K516" s="1">
         <v>1</v>
       </c>
       <c r="L516" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="M516" s="1">
         <v>1</v>
       </c>
       <c r="N516" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O516" s="1">
-        <v>64000</v>
+        <v>97000</v>
       </c>
       <c r="P516" s="1">
-        <v>64000</v>
+        <v>97000</v>
       </c>
       <c r="Q516" s="2">
         <v>45059</v>
@@ -94772,10 +94995,10 @@
         <v>110</v>
       </c>
       <c r="AE516" s="1">
-        <v>21072</v>
+        <v>32514</v>
       </c>
       <c r="AF516" s="1">
-        <v>21072</v>
+        <v>32514</v>
       </c>
       <c r="AG516" s="1">
         <v>9</v>
@@ -94811,7 +95034,7 @@
         <v>76</v>
       </c>
       <c r="AS516" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AT516" s="1">
         <v>1119</v>
@@ -94820,22 +95043,22 @@
         <v>64</v>
       </c>
       <c r="AV516" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW516" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX516" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY516" s="4" t="s">
-        <v>826</v>
+        <v>201</v>
       </c>
       <c r="AZ516" s="3" t="s">
         <v>94</v>
       </c>
       <c r="BA516" s="3" t="s">
-        <v>68</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="517" spans="1:54" x14ac:dyDescent="0.25">
@@ -94843,46 +95066,46 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G517" s="2">
         <v>45112</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J517" s="3" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="K517" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L517" s="1">
-        <v>3.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M517" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N517" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O517" s="1">
-        <v>25000</v>
+        <v>64000</v>
       </c>
       <c r="P517" s="1">
-        <v>50000</v>
+        <v>64000</v>
       </c>
       <c r="Q517" s="2">
         <v>45059</v>
@@ -94912,10 +95135,10 @@
         <v>110</v>
       </c>
       <c r="AE517" s="1">
-        <v>9032</v>
+        <v>21072</v>
       </c>
       <c r="AF517" s="1">
-        <v>18064</v>
+        <v>21072</v>
       </c>
       <c r="AG517" s="1">
         <v>9</v>
@@ -94951,7 +95174,7 @@
         <v>76</v>
       </c>
       <c r="AS517" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AT517" s="1">
         <v>1119</v>
@@ -94960,22 +95183,22 @@
         <v>64</v>
       </c>
       <c r="AV517" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW517" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX517" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY517" s="4" t="s">
-        <v>194</v>
+        <v>826</v>
       </c>
       <c r="AZ517" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="BA517" s="3" t="s">
-        <v>1728</v>
+        <v>68</v>
       </c>
     </row>
     <row r="518" spans="1:54" x14ac:dyDescent="0.25">
@@ -94983,49 +95206,49 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>863</v>
+        <v>1718</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F518" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>1719</v>
       </c>
       <c r="G518" s="2">
-        <v>45170</v>
+        <v>45112</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>618</v>
+        <v>1744</v>
       </c>
       <c r="J518" s="3" t="s">
-        <v>619</v>
+        <v>1745</v>
       </c>
       <c r="K518" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L518" s="1">
-        <v>8.8000000000000007</v>
+        <v>3.8</v>
       </c>
       <c r="M518" s="1">
         <v>2</v>
       </c>
       <c r="N518" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O518" s="1">
-        <v>243000</v>
+        <v>25000</v>
       </c>
       <c r="P518" s="1">
-        <v>243000</v>
+        <v>50000</v>
       </c>
       <c r="Q518" s="2">
-        <v>44934</v>
+        <v>45059</v>
       </c>
       <c r="R518" s="4" t="s">
         <v>1588</v>
@@ -95037,10 +95260,10 @@
         <v>87</v>
       </c>
       <c r="X518" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y518" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AB518" s="4" t="s">
         <v>27</v>
@@ -95052,10 +95275,10 @@
         <v>110</v>
       </c>
       <c r="AE518" s="1">
-        <v>59169</v>
+        <v>9032</v>
       </c>
       <c r="AF518" s="1">
-        <v>59169</v>
+        <v>18064</v>
       </c>
       <c r="AG518" s="1">
         <v>9</v>
@@ -95082,16 +95305,16 @@
         <v>0</v>
       </c>
       <c r="AP518" s="1">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="AQ518" s="4" t="s">
-        <v>620</v>
+        <v>89</v>
       </c>
       <c r="AR518" s="4" t="s">
-        <v>1743</v>
+        <v>76</v>
       </c>
       <c r="AS518" s="4" t="s">
-        <v>1744</v>
+        <v>1721</v>
       </c>
       <c r="AT518" s="1">
         <v>1119</v>
@@ -95100,22 +95323,22 @@
         <v>64</v>
       </c>
       <c r="AV518" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW518" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX518" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AY518" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="AZ518" s="3" t="s">
-        <v>415</v>
+        <v>67</v>
       </c>
       <c r="BA518" s="3" t="s">
-        <v>68</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="519" spans="1:54" x14ac:dyDescent="0.25">
@@ -95123,7 +95346,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>55</v>
@@ -95141,28 +95364,28 @@
         <v>45170</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>1746</v>
+        <v>618</v>
       </c>
       <c r="J519" s="3" t="s">
-        <v>1747</v>
+        <v>619</v>
       </c>
       <c r="K519" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L519" s="1">
-        <v>48.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M519" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N519" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O519" s="1">
-        <v>83000</v>
+        <v>243000</v>
       </c>
       <c r="P519" s="1">
-        <v>498000</v>
+        <v>243000</v>
       </c>
       <c r="Q519" s="2">
         <v>44934</v>
@@ -95192,10 +95415,10 @@
         <v>110</v>
       </c>
       <c r="AE519" s="1">
-        <v>19330</v>
+        <v>59169</v>
       </c>
       <c r="AF519" s="1">
-        <v>115980</v>
+        <v>59169</v>
       </c>
       <c r="AG519" s="1">
         <v>9</v>
@@ -95222,16 +95445,16 @@
         <v>0</v>
       </c>
       <c r="AP519" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ519" s="1" t="s">
-        <v>264</v>
+        <v>167</v>
+      </c>
+      <c r="AQ519" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="AR519" s="4" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="AS519" s="4" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="AT519" s="1">
         <v>1119</v>
@@ -95240,19 +95463,19 @@
         <v>64</v>
       </c>
       <c r="AV519" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW519" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX519" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AY519" s="4" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="AZ519" s="3" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="BA519" s="3" t="s">
         <v>68</v>
@@ -95263,7 +95486,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>55</v>
@@ -95281,28 +95504,28 @@
         <v>45170</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="J520" s="3" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="K520" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L520" s="1">
-        <v>38.4</v>
+        <v>48.6</v>
       </c>
       <c r="M520" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N520" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O520" s="1">
-        <v>435000</v>
+        <v>83000</v>
       </c>
       <c r="P520" s="1">
-        <v>435000</v>
+        <v>498000</v>
       </c>
       <c r="Q520" s="2">
         <v>44934</v>
@@ -95332,10 +95555,10 @@
         <v>110</v>
       </c>
       <c r="AE520" s="1">
-        <v>133098</v>
+        <v>19330</v>
       </c>
       <c r="AF520" s="1">
-        <v>133098</v>
+        <v>115980</v>
       </c>
       <c r="AG520" s="1">
         <v>9</v>
@@ -95368,10 +95591,10 @@
         <v>264</v>
       </c>
       <c r="AR520" s="4" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="AS520" s="4" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="AT520" s="1">
         <v>1119</v>
@@ -95386,16 +95609,16 @@
         <v>92</v>
       </c>
       <c r="AX520" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY520" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="AZ520" s="3" t="s">
         <v>202</v>
       </c>
       <c r="BA520" s="3" t="s">
-        <v>1751</v>
+        <v>68</v>
       </c>
     </row>
     <row r="521" spans="1:54" x14ac:dyDescent="0.25">
@@ -95430,19 +95653,19 @@
         <v>1</v>
       </c>
       <c r="L521" s="1">
-        <v>3</v>
+        <v>38.4</v>
       </c>
       <c r="M521" s="1">
         <v>1</v>
       </c>
       <c r="N521" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O521" s="1">
-        <v>66000</v>
+        <v>435000</v>
       </c>
       <c r="P521" s="1">
-        <v>66000</v>
+        <v>435000</v>
       </c>
       <c r="Q521" s="2">
         <v>44934</v>
@@ -95472,10 +95695,10 @@
         <v>110</v>
       </c>
       <c r="AE521" s="1">
-        <v>20982</v>
+        <v>133098</v>
       </c>
       <c r="AF521" s="1">
-        <v>20982</v>
+        <v>133098</v>
       </c>
       <c r="AG521" s="1">
         <v>9</v>
@@ -95502,16 +95725,16 @@
         <v>0</v>
       </c>
       <c r="AP521" s="1">
-        <v>46</v>
-      </c>
-      <c r="AQ521" s="4" t="s">
-        <v>776</v>
+        <v>78</v>
+      </c>
+      <c r="AQ521" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR521" s="4" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="AS521" s="4" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="AT521" s="1">
         <v>1119</v>
@@ -95526,16 +95749,16 @@
         <v>92</v>
       </c>
       <c r="AX521" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY521" s="4" t="s">
-        <v>826</v>
+        <v>201</v>
       </c>
       <c r="AZ521" s="3" t="s">
         <v>202</v>
       </c>
       <c r="BA521" s="3" t="s">
-        <v>68</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="522" spans="1:54" x14ac:dyDescent="0.25">
@@ -95543,7 +95766,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>55</v>
@@ -95561,28 +95784,28 @@
         <v>45170</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J522" s="3" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="K522" s="1">
         <v>1</v>
       </c>
       <c r="L522" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M522" s="1">
         <v>1</v>
       </c>
       <c r="N522" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O522" s="1">
-        <v>102000</v>
+        <v>66000</v>
       </c>
       <c r="P522" s="1">
-        <v>102000</v>
+        <v>66000</v>
       </c>
       <c r="Q522" s="2">
         <v>44934</v>
@@ -95612,10 +95835,10 @@
         <v>110</v>
       </c>
       <c r="AE522" s="1">
-        <v>30100</v>
+        <v>20982</v>
       </c>
       <c r="AF522" s="1">
-        <v>30100</v>
+        <v>20982</v>
       </c>
       <c r="AG522" s="1">
         <v>9</v>
@@ -95642,16 +95865,16 @@
         <v>0</v>
       </c>
       <c r="AP522" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ522" s="1" t="s">
-        <v>264</v>
+        <v>46</v>
+      </c>
+      <c r="AQ522" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="AR522" s="4" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="AS522" s="4" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="AT522" s="1">
         <v>1119</v>
@@ -95660,16 +95883,16 @@
         <v>64</v>
       </c>
       <c r="AV522" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW522" s="4" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="AX522" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY522" s="4" t="s">
-        <v>180</v>
+        <v>826</v>
       </c>
       <c r="AZ522" s="3" t="s">
         <v>202</v>
@@ -95683,49 +95906,49 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1759</v>
+        <v>863</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F523" s="4" t="s">
-        <v>1760</v>
+        <v>149</v>
       </c>
       <c r="G523" s="2">
         <v>45170</v>
       </c>
       <c r="I523" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J523" s="3" t="s">
         <v>1761</v>
-      </c>
-      <c r="J523" s="3" t="s">
-        <v>1762</v>
       </c>
       <c r="K523" s="1">
         <v>1</v>
       </c>
       <c r="L523" s="1">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="M523" s="1">
         <v>1</v>
       </c>
       <c r="N523" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O523" s="1">
-        <v>70000</v>
+        <v>102000</v>
       </c>
       <c r="P523" s="1">
-        <v>70000</v>
+        <v>102000</v>
       </c>
       <c r="Q523" s="2">
-        <v>44984</v>
+        <v>44934</v>
       </c>
       <c r="R523" s="4" t="s">
         <v>1588</v>
@@ -95737,7 +95960,10 @@
         <v>87</v>
       </c>
       <c r="X523" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y523" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="AB523" s="4" t="s">
         <v>27</v>
@@ -95749,10 +95975,10 @@
         <v>110</v>
       </c>
       <c r="AE523" s="1">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="AF523" s="1">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="AG523" s="1">
         <v>9</v>
@@ -95779,16 +96005,16 @@
         <v>0</v>
       </c>
       <c r="AP523" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ523" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="AQ523" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR523" s="4" t="s">
-        <v>90</v>
+        <v>1747</v>
       </c>
       <c r="AS523" s="4" t="s">
-        <v>1763</v>
+        <v>1748</v>
       </c>
       <c r="AT523" s="1">
         <v>1119</v>
@@ -95797,22 +96023,22 @@
         <v>64</v>
       </c>
       <c r="AV523" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW523" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="AX523" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY523" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AZ523" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="BA523" s="3" t="s">
-        <v>1764</v>
+        <v>68</v>
       </c>
     </row>
     <row r="524" spans="1:54" x14ac:dyDescent="0.25">
@@ -95820,49 +96046,49 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="G524" s="2">
-        <v>45173</v>
+        <v>45170</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="J524" s="3" t="s">
-        <v>1747</v>
+        <v>1766</v>
       </c>
       <c r="K524" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L524" s="1">
-        <v>16.2</v>
+        <v>6</v>
       </c>
       <c r="M524" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N524" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O524" s="1">
-        <v>83000</v>
+        <v>70000</v>
       </c>
       <c r="P524" s="1">
-        <v>166000</v>
+        <v>70000</v>
       </c>
       <c r="Q524" s="2">
-        <v>45057</v>
+        <v>44984</v>
       </c>
       <c r="R524" s="4" t="s">
         <v>1588</v>
@@ -95877,7 +96103,7 @@
         <v>0</v>
       </c>
       <c r="AB524" s="4" t="s">
-        <v>1677</v>
+        <v>27</v>
       </c>
       <c r="AC524" s="1">
         <v>110</v>
@@ -95886,10 +96112,10 @@
         <v>110</v>
       </c>
       <c r="AE524" s="1">
-        <v>19330</v>
+        <v>0</v>
       </c>
       <c r="AF524" s="1">
-        <v>38660</v>
+        <v>0</v>
       </c>
       <c r="AG524" s="1">
         <v>9</v>
@@ -95916,16 +96142,16 @@
         <v>0</v>
       </c>
       <c r="AP524" s="1">
-        <v>78</v>
-      </c>
-      <c r="AQ524" s="1" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="AQ524" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AR524" s="4" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="AS524" s="4" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="AT524" s="1">
         <v>1119</v>
@@ -95940,19 +96166,16 @@
         <v>92</v>
       </c>
       <c r="AX524" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY524" s="4" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AZ524" s="3" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="BA524" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB524" s="3" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="525" spans="1:54" x14ac:dyDescent="0.25">
@@ -95960,19 +96183,19 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="E525" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F525" s="4" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="G525" s="2">
         <v>45173</v>
@@ -95981,25 +96204,25 @@
         <v>1772</v>
       </c>
       <c r="J525" s="3" t="s">
-        <v>1773</v>
+        <v>1751</v>
       </c>
       <c r="K525" s="1">
         <v>2</v>
       </c>
       <c r="L525" s="1">
-        <v>9.1</v>
+        <v>16.2</v>
       </c>
       <c r="M525" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N525" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O525" s="1">
-        <v>68000</v>
+        <v>83000</v>
       </c>
       <c r="P525" s="1">
-        <v>136000</v>
+        <v>166000</v>
       </c>
       <c r="Q525" s="2">
         <v>45057</v>
@@ -96017,7 +96240,7 @@
         <v>0</v>
       </c>
       <c r="AB525" s="4" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="AC525" s="1">
         <v>110</v>
@@ -96026,10 +96249,10 @@
         <v>110</v>
       </c>
       <c r="AE525" s="1">
-        <v>17669</v>
+        <v>19330</v>
       </c>
       <c r="AF525" s="1">
-        <v>35338</v>
+        <v>38660</v>
       </c>
       <c r="AG525" s="1">
         <v>9</v>
@@ -96056,16 +96279,16 @@
         <v>0</v>
       </c>
       <c r="AP525" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ525" s="4" t="s">
-        <v>306</v>
+        <v>78</v>
+      </c>
+      <c r="AQ525" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="AR525" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS525" s="4" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="AT525" s="1">
         <v>1119</v>
@@ -96106,13 +96329,13 @@
         <v>55</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F526" s="4" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="G526" s="2">
         <v>45173</v>
@@ -96124,22 +96347,22 @@
         <v>1777</v>
       </c>
       <c r="K526" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L526" s="1">
-        <v>2.2000000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="M526" s="1">
         <v>1</v>
       </c>
       <c r="N526" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O526" s="1">
-        <v>34000</v>
+        <v>68000</v>
       </c>
       <c r="P526" s="1">
-        <v>34000</v>
+        <v>136000</v>
       </c>
       <c r="Q526" s="2">
         <v>45057</v>
@@ -96157,7 +96380,7 @@
         <v>0</v>
       </c>
       <c r="AB526" s="4" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="AC526" s="1">
         <v>110</v>
@@ -96166,10 +96389,10 @@
         <v>110</v>
       </c>
       <c r="AE526" s="1">
-        <v>7184</v>
+        <v>17669</v>
       </c>
       <c r="AF526" s="1">
-        <v>7184</v>
+        <v>35338</v>
       </c>
       <c r="AG526" s="1">
         <v>9</v>
@@ -96196,16 +96419,16 @@
         <v>0</v>
       </c>
       <c r="AP526" s="1">
-        <v>138</v>
-      </c>
-      <c r="AQ526" s="1" t="s">
-        <v>413</v>
+        <v>4</v>
+      </c>
+      <c r="AQ526" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AR526" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS526" s="4" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="AT526" s="1">
         <v>1119</v>
@@ -96220,13 +96443,13 @@
         <v>92</v>
       </c>
       <c r="AX526" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY526" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AZ526" s="3" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="BA526" s="3" t="s">
         <v>68</v>
@@ -96246,40 +96469,40 @@
         <v>55</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F527" s="4" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="G527" s="2">
         <v>45173</v>
       </c>
-      <c r="I527" s="4" t="s">
+      <c r="I527" s="1" t="s">
         <v>1780</v>
       </c>
       <c r="J527" s="3" t="s">
-        <v>114</v>
+        <v>1781</v>
       </c>
       <c r="K527" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L527" s="1">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M527" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N527" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O527" s="1">
-        <v>1900</v>
+        <v>34000</v>
       </c>
       <c r="P527" s="1">
-        <v>9500</v>
+        <v>34000</v>
       </c>
       <c r="Q527" s="2">
         <v>45057</v>
@@ -96288,7 +96511,7 @@
         <v>1588</v>
       </c>
       <c r="S527" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="U527" s="4" t="s">
         <v>87</v>
@@ -96297,7 +96520,7 @@
         <v>0</v>
       </c>
       <c r="AB527" s="4" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="AC527" s="1">
         <v>110</v>
@@ -96306,10 +96529,10 @@
         <v>110</v>
       </c>
       <c r="AE527" s="1">
-        <v>0</v>
+        <v>7184</v>
       </c>
       <c r="AF527" s="1">
-        <v>0</v>
+        <v>7184</v>
       </c>
       <c r="AG527" s="1">
         <v>9</v>
@@ -96336,16 +96559,16 @@
         <v>0</v>
       </c>
       <c r="AP527" s="1">
-        <v>92</v>
-      </c>
-      <c r="AQ527" s="4" t="s">
-        <v>65</v>
+        <v>138</v>
+      </c>
+      <c r="AQ527" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="AR527" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS527" s="4" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="AT527" s="1">
         <v>1119</v>
@@ -96354,22 +96577,25 @@
         <v>64</v>
       </c>
       <c r="AV527" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW527" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AX527" s="1">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AY527" s="4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AZ527" s="3" t="s">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="BA527" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="BB527" s="3" t="s">
+        <v>1782</v>
       </c>
     </row>
     <row r="528" spans="1:54" x14ac:dyDescent="0.25">
@@ -96377,46 +96603,46 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="E528" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F528" s="4" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="G528" s="2">
         <v>45173</v>
       </c>
-      <c r="I528" s="1" t="s">
-        <v>1782</v>
+      <c r="I528" s="4" t="s">
+        <v>1784</v>
       </c>
       <c r="J528" s="3" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="K528" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L528" s="1">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="M528" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N528" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O528" s="1">
-        <v>204000</v>
+        <v>1900</v>
       </c>
       <c r="P528" s="1">
-        <v>204000</v>
+        <v>9500</v>
       </c>
       <c r="Q528" s="2">
         <v>45057</v>
@@ -96425,7 +96651,7 @@
         <v>1588</v>
       </c>
       <c r="S528" s="4" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="U528" s="4" t="s">
         <v>87</v>
@@ -96434,19 +96660,19 @@
         <v>0</v>
       </c>
       <c r="AB528" s="4" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="AC528" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AD528" s="1">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AE528" s="1">
-        <v>55491</v>
+        <v>0</v>
       </c>
       <c r="AF528" s="1">
-        <v>55491</v>
+        <v>0</v>
       </c>
       <c r="AG528" s="1">
         <v>9</v>
@@ -96473,16 +96699,16 @@
         <v>0</v>
       </c>
       <c r="AP528" s="1">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="AQ528" s="4" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="AR528" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS528" s="4" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="AT528" s="1">
         <v>1119</v>
@@ -96491,72 +96717,69 @@
         <v>64</v>
       </c>
       <c r="AV528" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW528" s="4" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="AX528" s="1">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="AY528" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="AZ528" s="3" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="BA528" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BB528" s="3" t="s">
-        <v>1783</v>
-      </c>
     </row>
-    <row r="529" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D529" s="4" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F529" s="4" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="G529" s="2">
         <v>45173</v>
       </c>
-      <c r="I529" s="4" t="s">
-        <v>609</v>
+      <c r="I529" s="1" t="s">
+        <v>1786</v>
       </c>
       <c r="J529" s="3" t="s">
-        <v>800</v>
+        <v>278</v>
       </c>
       <c r="K529" s="1">
         <v>1</v>
       </c>
       <c r="L529" s="1">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="M529" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N529" s="3" t="s">
-        <v>1631</v>
+        <v>1704</v>
       </c>
       <c r="O529" s="1">
-        <v>17000</v>
+        <v>204000</v>
       </c>
       <c r="P529" s="1">
-        <v>17000</v>
+        <v>204000</v>
       </c>
       <c r="Q529" s="2">
         <v>45057</v>
@@ -96565,7 +96788,7 @@
         <v>1588</v>
       </c>
       <c r="S529" s="4" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="U529" s="4" t="s">
         <v>87</v>
@@ -96574,7 +96797,7 @@
         <v>0</v>
       </c>
       <c r="AB529" s="4" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="AC529" s="1">
         <v>510</v>
@@ -96583,10 +96806,10 @@
         <v>510</v>
       </c>
       <c r="AE529" s="1">
-        <v>0</v>
+        <v>55491</v>
       </c>
       <c r="AF529" s="1">
-        <v>0</v>
+        <v>55491</v>
       </c>
       <c r="AG529" s="1">
         <v>9</v>
@@ -96613,16 +96836,16 @@
         <v>0</v>
       </c>
       <c r="AP529" s="1">
-        <v>992</v>
+        <v>180</v>
       </c>
       <c r="AQ529" s="4" t="s">
-        <v>802</v>
+        <v>279</v>
       </c>
       <c r="AR529" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AS529" s="4" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="AT529" s="1">
         <v>1119</v>
@@ -96631,21 +96854,161 @@
         <v>64</v>
       </c>
       <c r="AV529" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW529" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX529" s="1">
+        <v>22</v>
+      </c>
+      <c r="AY529" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ529" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA529" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB529" s="3" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="530" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F530" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G530" s="2">
+        <v>45173</v>
+      </c>
+      <c r="I530" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="J530" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="K530" s="1">
+        <v>1</v>
+      </c>
+      <c r="L530" s="1">
+        <v>0</v>
+      </c>
+      <c r="M530" s="1">
+        <v>0</v>
+      </c>
+      <c r="N530" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="O530" s="1">
+        <v>17000</v>
+      </c>
+      <c r="P530" s="1">
+        <v>17000</v>
+      </c>
+      <c r="Q530" s="2">
+        <v>45057</v>
+      </c>
+      <c r="R530" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="S530" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U530" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X530" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB530" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AC530" s="1">
+        <v>510</v>
+      </c>
+      <c r="AD530" s="1">
+        <v>510</v>
+      </c>
+      <c r="AE530" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF530" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG530" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH530" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI530" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ530" s="1">
+        <v>901</v>
+      </c>
+      <c r="AK530" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL530" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM530" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN530" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP530" s="1">
+        <v>992</v>
+      </c>
+      <c r="AQ530" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="AR530" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS530" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AT530" s="1">
+        <v>1119</v>
+      </c>
+      <c r="AU530" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV530" s="1">
         <v>2</v>
       </c>
-      <c r="AW529" s="4" t="s">
+      <c r="AW530" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AX529" s="1">
+      <c r="AX530" s="1">
         <v>99</v>
       </c>
-      <c r="AY529" s="4" t="s">
+      <c r="AY530" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AZ529" s="3" t="s">
+      <c r="AZ530" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BA529" s="3" t="s">
+      <c r="BA530" s="3" t="s">
         <v>68</v>
       </c>
     </row>
